--- a/res/wrdata.xlsx
+++ b/res/wrdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="143">
   <si>
     <t>Lane</t>
   </si>
@@ -49,123 +49,126 @@
     <t>S</t>
   </si>
   <si>
+    <t>Singed</t>
+  </si>
+  <si>
+    <t>Kayle</t>
+  </si>
+  <si>
+    <t>Gnar</t>
+  </si>
+  <si>
     <t>Olaf</t>
   </si>
   <si>
-    <t>Singed</t>
-  </si>
-  <si>
-    <t>Gnar</t>
-  </si>
-  <si>
-    <t>Kayle</t>
+    <t>Nasus</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Shen</t>
+  </si>
+  <si>
+    <t>Teemo</t>
+  </si>
+  <si>
+    <t>Ornn</t>
   </si>
   <si>
     <t>Warwick</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Nasus</t>
-  </si>
-  <si>
-    <t>Shen</t>
-  </si>
-  <si>
-    <t>Ornn</t>
+    <t>Rumble</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
+    <t>Volibear</t>
+  </si>
+  <si>
+    <t>Camille</t>
   </si>
   <si>
     <t>Aatrox</t>
   </si>
   <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Rumble</t>
-  </si>
-  <si>
-    <t>Darius</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Volibear</t>
-  </si>
-  <si>
-    <t>Teemo</t>
+    <t>Poppy</t>
+  </si>
+  <si>
+    <t>Irelia</t>
+  </si>
+  <si>
+    <t>Yone</t>
+  </si>
+  <si>
+    <t>Dr. Mundo</t>
+  </si>
+  <si>
+    <t>Vayne</t>
+  </si>
+  <si>
+    <t>Fiora</t>
   </si>
   <si>
     <t>Jax</t>
   </si>
   <si>
-    <t>Irelia</t>
-  </si>
-  <si>
-    <t>Poppy</t>
-  </si>
-  <si>
     <t>Gwen</t>
   </si>
   <si>
-    <t>Fiora</t>
+    <t>Kennen</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Sett</t>
+  </si>
+  <si>
+    <t>Renekton</t>
+  </si>
+  <si>
+    <t>Mordekaiser</t>
+  </si>
+  <si>
+    <t>Ryze</t>
   </si>
   <si>
     <t>Yasuo</t>
   </si>
   <si>
-    <t>Renekton</t>
-  </si>
-  <si>
-    <t>Yone</t>
-  </si>
-  <si>
-    <t>Mordekaiser</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Sett</t>
-  </si>
-  <si>
-    <t>Dr. Mundo</t>
+    <t>Malphite</t>
+  </si>
+  <si>
+    <t>Tryndamere</t>
+  </si>
+  <si>
+    <t>Urgot</t>
+  </si>
+  <si>
+    <t>Nautilus</t>
+  </si>
+  <si>
+    <t>Garen</t>
+  </si>
+  <si>
+    <t>Maokai</t>
+  </si>
+  <si>
+    <t>Jayce</t>
+  </si>
+  <si>
+    <t>D</t>
   </si>
   <si>
     <t>Riven</t>
   </si>
   <si>
-    <t>Urgot</t>
-  </si>
-  <si>
-    <t>Malphite</t>
-  </si>
-  <si>
-    <t>Vayne</t>
-  </si>
-  <si>
-    <t>Maokai</t>
-  </si>
-  <si>
-    <t>Jayce</t>
-  </si>
-  <si>
-    <t>Ryze</t>
-  </si>
-  <si>
-    <t>Tryndamere</t>
-  </si>
-  <si>
-    <t>Nautilus</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>Garen</t>
-  </si>
-  <si>
     <t>Sion</t>
   </si>
   <si>
@@ -181,16 +184,46 @@
     <t>S+</t>
   </si>
   <si>
+    <t>Nilah</t>
+  </si>
+  <si>
     <t>Rammus</t>
   </si>
   <si>
-    <t>Nilah</t>
+    <t>Gragas</t>
   </si>
   <si>
     <t>Nunu &amp; Willump</t>
   </si>
   <si>
-    <t>Gragas</t>
+    <t>Ekko</t>
+  </si>
+  <si>
+    <t>Lee Sin</t>
+  </si>
+  <si>
+    <t>Master Yi</t>
+  </si>
+  <si>
+    <t>Lillia</t>
+  </si>
+  <si>
+    <t>Fiddlesticks</t>
+  </si>
+  <si>
+    <t>Talon</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>Kindred</t>
+  </si>
+  <si>
+    <t>Jarvan IV</t>
   </si>
   <si>
     <t>Hecarim</t>
@@ -199,250 +232,220 @@
     <t>Rengar</t>
   </si>
   <si>
-    <t>Lee Sin</t>
-  </si>
-  <si>
-    <t>Zed</t>
-  </si>
-  <si>
-    <t>Kindred</t>
-  </si>
-  <si>
-    <t>Ekko</t>
-  </si>
-  <si>
-    <t>Fiddlesticks</t>
-  </si>
-  <si>
-    <t>Lillia</t>
+    <t>Morgana</t>
+  </si>
+  <si>
+    <t>Xin Zhao</t>
   </si>
   <si>
     <t>Kayn</t>
   </si>
   <si>
-    <t>Graves</t>
-  </si>
-  <si>
-    <t>Jarvan IV</t>
-  </si>
-  <si>
-    <t>Talon</t>
-  </si>
-  <si>
-    <t>Xin Zhao</t>
-  </si>
-  <si>
     <t>Kha'Zix</t>
   </si>
   <si>
-    <t>Master Yi</t>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Pantheon</t>
   </si>
   <si>
     <t>Ambessa</t>
   </si>
   <si>
+    <t>Fizz</t>
+  </si>
+  <si>
+    <t>Viego</t>
+  </si>
+  <si>
+    <t>Vi</t>
+  </si>
+  <si>
+    <t>Shyvana</t>
+  </si>
+  <si>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Syndra</t>
+  </si>
+  <si>
+    <t>Galio</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Zyra</t>
+  </si>
+  <si>
+    <t>Ahri</t>
+  </si>
+  <si>
+    <t>Orianna</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Heimerdinger</t>
+  </si>
+  <si>
+    <t>Lissandra</t>
+  </si>
+  <si>
+    <t>Swain</t>
+  </si>
+  <si>
+    <t>Veigar</t>
+  </si>
+  <si>
+    <t>Twisted Fate</t>
+  </si>
+  <si>
+    <t>Ziggs</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Aurelion Sol</t>
+  </si>
+  <si>
+    <t>Corki</t>
+  </si>
+  <si>
+    <t>Katarina</t>
+  </si>
+  <si>
+    <t>Vex</t>
+  </si>
+  <si>
+    <t>Akshan</t>
+  </si>
+  <si>
+    <t>Kassadin</t>
+  </si>
+  <si>
+    <t>Akali</t>
+  </si>
+  <si>
+    <t>Varus</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Ezreal</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Sivir</t>
+  </si>
+  <si>
+    <t>Miss Fortune</t>
+  </si>
+  <si>
+    <t>Jinx</t>
+  </si>
+  <si>
+    <t>Ashe</t>
+  </si>
+  <si>
+    <t>Jhin</t>
+  </si>
+  <si>
+    <t>Xayah</t>
+  </si>
+  <si>
+    <t>Zeri</t>
+  </si>
+  <si>
+    <t>Caitlyn</t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Draven</t>
+  </si>
+  <si>
+    <t>Tristana</t>
+  </si>
+  <si>
+    <t>Kai'Sa</t>
+  </si>
+  <si>
+    <t>Kalista</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Blitzcrank</t>
+  </si>
+  <si>
+    <t>Seraphine</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>Soraka</t>
+  </si>
+  <si>
+    <t>Milio</t>
+  </si>
+  <si>
+    <t>Pyke</t>
+  </si>
+  <si>
+    <t>Janna</t>
+  </si>
+  <si>
+    <t>Alistar</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>Braum</t>
+  </si>
+  <si>
+    <t>Lulu</t>
+  </si>
+  <si>
+    <t>Thresh</t>
+  </si>
+  <si>
+    <t>Rakan</t>
+  </si>
+  <si>
+    <t>Yuumi</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
     <t>Evelynn</t>
-  </si>
-  <si>
-    <t>Pantheon</t>
-  </si>
-  <si>
-    <t>Morgana</t>
-  </si>
-  <si>
-    <t>Vi</t>
-  </si>
-  <si>
-    <t>Viego</t>
-  </si>
-  <si>
-    <t>Fizz</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Shyvana</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>Viktor</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Syndra</t>
-  </si>
-  <si>
-    <t>Kennen</t>
-  </si>
-  <si>
-    <t>Heimerdinger</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Galio</t>
-  </si>
-  <si>
-    <t>Orianna</t>
-  </si>
-  <si>
-    <t>Zyra</t>
-  </si>
-  <si>
-    <t>Lissandra</t>
-  </si>
-  <si>
-    <t>Ahri</t>
-  </si>
-  <si>
-    <t>Lux</t>
-  </si>
-  <si>
-    <t>Twisted Fate</t>
-  </si>
-  <si>
-    <t>Swain</t>
-  </si>
-  <si>
-    <t>Veigar</t>
-  </si>
-  <si>
-    <t>Ziggs</t>
-  </si>
-  <si>
-    <t>Kassadin</t>
-  </si>
-  <si>
-    <t>Aurelion Sol</t>
-  </si>
-  <si>
-    <t>Katarina</t>
-  </si>
-  <si>
-    <t>Corki</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Vex</t>
-  </si>
-  <si>
-    <t>Akali</t>
-  </si>
-  <si>
-    <t>Akshan</t>
-  </si>
-  <si>
-    <t>Varus</t>
-  </si>
-  <si>
-    <t>Lucian</t>
-  </si>
-  <si>
-    <t>Bot</t>
-  </si>
-  <si>
-    <t>Sivir</t>
-  </si>
-  <si>
-    <t>Miss Fortune</t>
-  </si>
-  <si>
-    <t>Ezreal</t>
-  </si>
-  <si>
-    <t>Jinx</t>
-  </si>
-  <si>
-    <t>Jhin</t>
-  </si>
-  <si>
-    <t>Zeri</t>
-  </si>
-  <si>
-    <t>Xayah</t>
-  </si>
-  <si>
-    <t>Ashe</t>
-  </si>
-  <si>
-    <t>Draven</t>
-  </si>
-  <si>
-    <t>Kai'Sa</t>
-  </si>
-  <si>
-    <t>Twitch</t>
-  </si>
-  <si>
-    <t>Caitlyn</t>
-  </si>
-  <si>
-    <t>Tristana</t>
-  </si>
-  <si>
-    <t>Samira</t>
-  </si>
-  <si>
-    <t>Sup</t>
-  </si>
-  <si>
-    <t>Blitzcrank</t>
-  </si>
-  <si>
-    <t>Seraphine</t>
-  </si>
-  <si>
-    <t>Sona</t>
-  </si>
-  <si>
-    <t>Pyke</t>
-  </si>
-  <si>
-    <t>Milio</t>
-  </si>
-  <si>
-    <t>Karma</t>
-  </si>
-  <si>
-    <t>Soraka</t>
-  </si>
-  <si>
-    <t>Alistar</t>
-  </si>
-  <si>
-    <t>Lulu</t>
-  </si>
-  <si>
-    <t>Janna</t>
-  </si>
-  <si>
-    <t>Rakan</t>
-  </si>
-  <si>
-    <t>Nami</t>
-  </si>
-  <si>
-    <t>Thresh</t>
-  </si>
-  <si>
-    <t>Braum</t>
-  </si>
-  <si>
-    <t>Yuumi</t>
-  </si>
-  <si>
-    <t>Leona</t>
-  </si>
-  <si>
-    <t>Senna</t>
   </si>
 </sst>
 </file>
@@ -490,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G163" totalsRowShown="0">
-  <autoFilter ref="A1:G163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G166" totalsRowShown="0">
+  <autoFilter ref="A1:G166"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Lane"/>
     <tableColumn id="2" name="Champion"/>
@@ -506,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G105" totalsRowShown="0">
-  <autoFilter ref="A1:G105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G153" totalsRowShown="0">
+  <autoFilter ref="A1:G153"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Lane"/>
     <tableColumn id="2" name="Champion"/>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,16 +846,16 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.5429</v>
+        <v>0.5426</v>
       </c>
       <c r="D2">
-        <v>0.1062</v>
+        <v>0.0999</v>
       </c>
       <c r="E2">
-        <v>0.399</v>
+        <v>0.3837</v>
       </c>
       <c r="F2">
-        <v>0.5609</v>
+        <v>0.5581</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -866,16 +869,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.5531</v>
+        <v>0.549</v>
       </c>
       <c r="D3">
-        <v>0.0137</v>
+        <v>0.0158</v>
       </c>
       <c r="E3">
-        <v>0.0133</v>
+        <v>0.0055</v>
       </c>
       <c r="F3">
-        <v>0.5554</v>
+        <v>0.5514</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -889,16 +892,16 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.5465</v>
+        <v>0.5407999999999999</v>
       </c>
       <c r="D4">
-        <v>0.0174</v>
+        <v>0.0381</v>
       </c>
       <c r="E4">
-        <v>0.0076</v>
+        <v>0.0023</v>
       </c>
       <c r="F4">
-        <v>0.5494</v>
+        <v>0.5467</v>
       </c>
       <c r="G4" t="s">
         <v>9</v>
@@ -912,16 +915,16 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>0.5264</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="D5">
-        <v>0.128</v>
+        <v>0.1216</v>
       </c>
       <c r="E5">
-        <v>0.1194</v>
+        <v>0.1119</v>
       </c>
       <c r="F5">
-        <v>0.548</v>
+        <v>0.5455</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -935,16 +938,16 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.5347</v>
+        <v>0.5407</v>
       </c>
       <c r="D6">
-        <v>0.0362</v>
+        <v>0.0122</v>
       </c>
       <c r="E6">
-        <v>0.0019</v>
+        <v>0.0116</v>
       </c>
       <c r="F6">
-        <v>0.5407999999999999</v>
+        <v>0.5426</v>
       </c>
       <c r="G6" t="s">
         <v>9</v>
@@ -958,13 +961,13 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>0.5358000000000001</v>
+        <v>0.5237000000000001</v>
       </c>
       <c r="D7">
-        <v>0.013</v>
+        <v>0.09229999999999999</v>
       </c>
       <c r="E7">
-        <v>0.0295</v>
+        <v>0.0043</v>
       </c>
       <c r="F7">
         <v>0.538</v>
@@ -981,16 +984,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.5209</v>
+        <v>0.5251</v>
       </c>
       <c r="D8">
-        <v>0.0862</v>
+        <v>0.0231</v>
       </c>
       <c r="E8">
-        <v>0.0041</v>
+        <v>0.0008</v>
       </c>
       <c r="F8">
-        <v>0.5355</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -1004,16 +1007,16 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>0.5306</v>
+        <v>0.5208</v>
       </c>
       <c r="D9">
-        <v>0.0251</v>
+        <v>0.0381</v>
       </c>
       <c r="E9">
-        <v>0.0007</v>
+        <v>0.0738</v>
       </c>
       <c r="F9">
-        <v>0.5348000000000001</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="G9" t="s">
         <v>15</v>
@@ -1027,16 +1030,16 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.5204</v>
+        <v>0.517</v>
       </c>
       <c r="D10">
-        <v>0.0538</v>
+        <v>0.0501</v>
       </c>
       <c r="E10">
-        <v>0.0021</v>
+        <v>0.0019</v>
       </c>
       <c r="F10">
-        <v>0.5295</v>
+        <v>0.5248</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -1050,16 +1053,16 @@
         <v>19</v>
       </c>
       <c r="C11">
-        <v>0.5125</v>
+        <v>0.5227000000000001</v>
       </c>
       <c r="D11">
-        <v>0.08069999999999999</v>
+        <v>0.0107</v>
       </c>
       <c r="E11">
-        <v>0.0473</v>
+        <v>0.0287</v>
       </c>
       <c r="F11">
-        <v>0.5261</v>
+        <v>0.5244</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -1073,19 +1076,19 @@
         <v>20</v>
       </c>
       <c r="C12">
-        <v>0.5153</v>
+        <v>0.5075</v>
       </c>
       <c r="D12">
-        <v>0.0497</v>
+        <v>0.0747</v>
       </c>
       <c r="E12">
-        <v>0.0066</v>
+        <v>0.0664</v>
       </c>
       <c r="F12">
-        <v>0.5237000000000001</v>
+        <v>0.5191</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1093,22 +1096,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>0.5093</v>
+        <v>0.4953</v>
       </c>
       <c r="D13">
-        <v>0.0771</v>
+        <v>0.142</v>
       </c>
       <c r="E13">
-        <v>0.0716</v>
+        <v>0.0126</v>
       </c>
       <c r="F13">
-        <v>0.5223</v>
+        <v>0.5173</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1116,22 +1119,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>0.4913</v>
+        <v>0.502</v>
       </c>
       <c r="D14">
-        <v>0.14</v>
+        <v>0.0951</v>
       </c>
       <c r="E14">
-        <v>0.0098</v>
+        <v>0.0487</v>
       </c>
       <c r="F14">
-        <v>0.515</v>
+        <v>0.5167</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1142,19 +1145,19 @@
         <v>24</v>
       </c>
       <c r="C15">
-        <v>0.4983</v>
+        <v>0.5081</v>
       </c>
       <c r="D15">
-        <v>0.09130000000000001</v>
+        <v>0.0406</v>
       </c>
       <c r="E15">
-        <v>0.0447</v>
+        <v>0.004</v>
       </c>
       <c r="F15">
-        <v>0.5137</v>
+        <v>0.5144</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1165,19 +1168,19 @@
         <v>25</v>
       </c>
       <c r="C16">
-        <v>0.5065</v>
+        <v>0.5007</v>
       </c>
       <c r="D16">
-        <v>0.0314</v>
+        <v>0.0726</v>
       </c>
       <c r="E16">
-        <v>0.0524</v>
+        <v>0.0439</v>
       </c>
       <c r="F16">
-        <v>0.5118</v>
+        <v>0.5119</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1188,19 +1191,19 @@
         <v>26</v>
       </c>
       <c r="C17">
-        <v>0.5014999999999999</v>
+        <v>0.4947</v>
       </c>
       <c r="D17">
-        <v>0.0592</v>
+        <v>0.0857</v>
       </c>
       <c r="E17">
-        <v>0.0036</v>
+        <v>0.1191</v>
       </c>
       <c r="F17">
-        <v>0.5115</v>
+        <v>0.508</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1211,19 +1214,19 @@
         <v>27</v>
       </c>
       <c r="C18">
-        <v>0.5033</v>
+        <v>0.5008</v>
       </c>
       <c r="D18">
-        <v>0.0412</v>
+        <v>0.039</v>
       </c>
       <c r="E18">
-        <v>0.0111</v>
+        <v>0.0106</v>
       </c>
       <c r="F18">
-        <v>0.5103</v>
+        <v>0.5068</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1234,19 +1237,19 @@
         <v>28</v>
       </c>
       <c r="C19">
-        <v>0.4909</v>
+        <v>0.4971</v>
       </c>
       <c r="D19">
-        <v>0.0881</v>
+        <v>0.059</v>
       </c>
       <c r="E19">
-        <v>0.1258</v>
+        <v>0.0131</v>
       </c>
       <c r="F19">
-        <v>0.5058</v>
+        <v>0.5062</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,19 +1260,19 @@
         <v>29</v>
       </c>
       <c r="C20">
-        <v>0.4991</v>
+        <v>0.4983</v>
       </c>
       <c r="D20">
-        <v>0.0339</v>
+        <v>0.0505</v>
       </c>
       <c r="E20">
-        <v>0.0048</v>
+        <v>0.0055</v>
       </c>
       <c r="F20">
-        <v>0.5048</v>
+        <v>0.5061</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1280,19 +1283,19 @@
         <v>30</v>
       </c>
       <c r="C21">
-        <v>0.4951</v>
+        <v>0.5037</v>
       </c>
       <c r="D21">
-        <v>0.0483</v>
+        <v>0.013</v>
       </c>
       <c r="E21">
-        <v>0.0065</v>
+        <v>0.0223</v>
       </c>
       <c r="F21">
-        <v>0.5033</v>
+        <v>0.5057</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,19 +1306,19 @@
         <v>31</v>
       </c>
       <c r="C22">
-        <v>0.4971</v>
+        <v>0.499</v>
       </c>
       <c r="D22">
-        <v>0.0361</v>
+        <v>0.0421</v>
       </c>
       <c r="E22">
-        <v>0.141</v>
+        <v>0.0044</v>
       </c>
       <c r="F22">
-        <v>0.5032</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1329,19 @@
         <v>32</v>
       </c>
       <c r="C23">
-        <v>0.4946</v>
+        <v>0.497</v>
       </c>
       <c r="D23">
-        <v>0.0369</v>
+        <v>0.0531</v>
       </c>
       <c r="E23">
-        <v>0.0008</v>
+        <v>0.0028</v>
       </c>
       <c r="F23">
-        <v>0.5008</v>
+        <v>0.5052</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1349,19 +1352,19 @@
         <v>33</v>
       </c>
       <c r="C24">
-        <v>0.4907</v>
+        <v>0.4972</v>
       </c>
       <c r="D24">
-        <v>0.0591</v>
+        <v>0.0328</v>
       </c>
       <c r="E24">
-        <v>0.0117</v>
+        <v>0.005</v>
       </c>
       <c r="F24">
-        <v>0.5007</v>
+        <v>0.5023</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1372,16 +1375,16 @@
         <v>34</v>
       </c>
       <c r="C25">
-        <v>0.4863</v>
+        <v>0.4993</v>
       </c>
       <c r="D25">
-        <v>0.08110000000000001</v>
+        <v>0.0104</v>
       </c>
       <c r="E25">
-        <v>0.067</v>
+        <v>0.0013</v>
       </c>
       <c r="F25">
-        <v>0.5</v>
+        <v>0.5009</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -1395,16 +1398,16 @@
         <v>36</v>
       </c>
       <c r="C26">
-        <v>0.4813</v>
+        <v>0.4863</v>
       </c>
       <c r="D26">
-        <v>0.0775</v>
+        <v>0.076</v>
       </c>
       <c r="E26">
-        <v>0.0011</v>
+        <v>0.0013</v>
       </c>
       <c r="F26">
-        <v>0.4944</v>
+        <v>0.4981</v>
       </c>
       <c r="G26" t="s">
         <v>35</v>
@@ -1418,16 +1421,16 @@
         <v>37</v>
       </c>
       <c r="C27">
-        <v>0.4854</v>
+        <v>0.492</v>
       </c>
       <c r="D27">
-        <v>0.0499</v>
+        <v>0.0365</v>
       </c>
       <c r="E27">
-        <v>0.004</v>
+        <v>0.0009</v>
       </c>
       <c r="F27">
-        <v>0.4938</v>
+        <v>0.4977</v>
       </c>
       <c r="G27" t="s">
         <v>35</v>
@@ -1441,16 +1444,16 @@
         <v>38</v>
       </c>
       <c r="C28">
-        <v>0.4889</v>
+        <v>0.4822</v>
       </c>
       <c r="D28">
-        <v>0.0275</v>
+        <v>0.0823</v>
       </c>
       <c r="E28">
-        <v>0.1542</v>
+        <v>0.0732</v>
       </c>
       <c r="F28">
-        <v>0.4936</v>
+        <v>0.495</v>
       </c>
       <c r="G28" t="s">
         <v>35</v>
@@ -1464,16 +1467,16 @@
         <v>39</v>
       </c>
       <c r="C29">
-        <v>0.4834</v>
+        <v>0.4897</v>
       </c>
       <c r="D29">
-        <v>0.0373</v>
+        <v>0.0285</v>
       </c>
       <c r="E29">
-        <v>0.0062</v>
+        <v>0.8208</v>
       </c>
       <c r="F29">
-        <v>0.4897</v>
+        <v>0.4941</v>
       </c>
       <c r="G29" t="s">
         <v>35</v>
@@ -1487,16 +1490,16 @@
         <v>40</v>
       </c>
       <c r="C30">
-        <v>0.4821</v>
+        <v>0.4875</v>
       </c>
       <c r="D30">
-        <v>0.0407</v>
+        <v>0.0369</v>
       </c>
       <c r="E30">
-        <v>0.06759999999999999</v>
+        <v>0.1247</v>
       </c>
       <c r="F30">
-        <v>0.489</v>
+        <v>0.4932</v>
       </c>
       <c r="G30" t="s">
         <v>35</v>
@@ -1510,16 +1513,16 @@
         <v>41</v>
       </c>
       <c r="C31">
-        <v>0.4852</v>
+        <v>0.4864</v>
       </c>
       <c r="D31">
-        <v>0.0103</v>
+        <v>0.0434</v>
       </c>
       <c r="E31">
-        <v>0.0208</v>
+        <v>0.0916</v>
       </c>
       <c r="F31">
-        <v>0.4869</v>
+        <v>0.4931</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1533,16 +1536,16 @@
         <v>42</v>
       </c>
       <c r="C32">
-        <v>0.4842</v>
+        <v>0.4883</v>
       </c>
       <c r="D32">
-        <v>0.0116</v>
+        <v>0.0285</v>
       </c>
       <c r="E32">
-        <v>0.0097</v>
+        <v>0.0631</v>
       </c>
       <c r="F32">
-        <v>0.4862</v>
+        <v>0.4927</v>
       </c>
       <c r="G32" t="s">
         <v>35</v>
@@ -1556,16 +1559,16 @@
         <v>43</v>
       </c>
       <c r="C33">
-        <v>0.4823</v>
+        <v>0.483</v>
       </c>
       <c r="D33">
-        <v>0.0221</v>
+        <v>0.0436</v>
       </c>
       <c r="E33">
-        <v>0.0007</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F33">
-        <v>0.486</v>
+        <v>0.4898</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -1579,16 +1582,16 @@
         <v>44</v>
       </c>
       <c r="C34">
-        <v>0.4803</v>
+        <v>0.4874</v>
       </c>
       <c r="D34">
-        <v>0.0275</v>
+        <v>0.0107</v>
       </c>
       <c r="E34">
-        <v>0.8181</v>
+        <v>0.011</v>
       </c>
       <c r="F34">
-        <v>0.485</v>
+        <v>0.4891</v>
       </c>
       <c r="G34" t="s">
         <v>35</v>
@@ -1602,16 +1605,16 @@
         <v>45</v>
       </c>
       <c r="C35">
-        <v>0.4795</v>
+        <v>0.4713</v>
       </c>
       <c r="D35">
-        <v>0.0264</v>
+        <v>0.09520000000000001</v>
       </c>
       <c r="E35">
-        <v>0.0454</v>
+        <v>0.0036</v>
       </c>
       <c r="F35">
-        <v>0.484</v>
+        <v>0.486</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -1625,19 +1628,19 @@
         <v>46</v>
       </c>
       <c r="C36">
-        <v>0.4786</v>
+        <v>0.4834</v>
       </c>
       <c r="D36">
-        <v>0.0103</v>
+        <v>0.0116</v>
       </c>
       <c r="E36">
-        <v>0.0117</v>
+        <v>0.0104</v>
       </c>
       <c r="F36">
-        <v>0.4803</v>
+        <v>0.4852</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1645,22 +1648,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37">
+        <v>0.4773</v>
+      </c>
+      <c r="D37">
+        <v>0.0209</v>
+      </c>
+      <c r="E37">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="F37">
+        <v>0.4805</v>
+      </c>
+      <c r="G37" t="s">
         <v>48</v>
-      </c>
-      <c r="C37">
-        <v>0.4601</v>
-      </c>
-      <c r="D37">
-        <v>0.0878</v>
-      </c>
-      <c r="E37">
-        <v>0.0031</v>
-      </c>
-      <c r="F37">
-        <v>0.4749</v>
-      </c>
-      <c r="G37" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1671,19 +1674,19 @@
         <v>49</v>
       </c>
       <c r="C38">
-        <v>0.4666</v>
+        <v>0.4688</v>
       </c>
       <c r="D38">
-        <v>0.0202</v>
+        <v>0.0262</v>
       </c>
       <c r="E38">
-        <v>0.0008</v>
+        <v>0.1103</v>
       </c>
       <c r="F38">
-        <v>0.47</v>
+        <v>0.4729</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1694,154 +1697,154 @@
         <v>50</v>
       </c>
       <c r="C39">
-        <v>0.4584</v>
+        <v>0.4667</v>
       </c>
       <c r="D39">
-        <v>0.0108</v>
+        <v>0.0212</v>
       </c>
       <c r="E39">
-        <v>0.0129</v>
+        <v>0.0009</v>
       </c>
       <c r="F39">
-        <v>0.4602</v>
+        <v>0.47</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
         <v>51</v>
       </c>
-      <c r="B40" t="s">
-        <v>52</v>
-      </c>
       <c r="C40">
-        <v>0.5623</v>
+        <v>0.461</v>
       </c>
       <c r="D40">
-        <v>0.08</v>
+        <v>0.0118</v>
       </c>
       <c r="E40">
-        <v>0.0338</v>
+        <v>0.0125</v>
       </c>
       <c r="F40">
-        <v>0.5763</v>
+        <v>0.4628</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>0.5648</v>
+      </c>
+      <c r="D41">
+        <v>0.08260000000000001</v>
+      </c>
+      <c r="E41">
+        <v>0.0325</v>
+      </c>
+      <c r="F41">
+        <v>0.5794</v>
+      </c>
+      <c r="G41" t="s">
         <v>54</v>
-      </c>
-      <c r="C41">
-        <v>0.5389</v>
-      </c>
-      <c r="D41">
-        <v>0.0255</v>
-      </c>
-      <c r="E41">
-        <v>0.0036</v>
-      </c>
-      <c r="F41">
-        <v>0.5434</v>
-      </c>
-      <c r="G41" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="C42">
-        <v>0.5266</v>
+        <v>0.5486</v>
       </c>
       <c r="D42">
-        <v>0.0813</v>
+        <v>0.018</v>
       </c>
       <c r="E42">
-        <v>0.399</v>
+        <v>0.0446</v>
       </c>
       <c r="F42">
-        <v>0.5407999999999999</v>
+        <v>0.5518</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.5351</v>
+        <v>0.5325</v>
       </c>
       <c r="D43">
-        <v>0.0218</v>
+        <v>0.08069999999999999</v>
       </c>
       <c r="E43">
-        <v>0.0687</v>
+        <v>0.3837</v>
       </c>
       <c r="F43">
-        <v>0.5389</v>
+        <v>0.5468</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
       </c>
       <c r="C44">
-        <v>0.5275</v>
+        <v>0.5343</v>
       </c>
       <c r="D44">
-        <v>0.0208</v>
+        <v>0.0268</v>
       </c>
       <c r="E44">
-        <v>0.0015</v>
+        <v>0.0041</v>
       </c>
       <c r="F44">
-        <v>0.5311</v>
+        <v>0.539</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="C45">
-        <v>0.5249</v>
+        <v>0.5223</v>
       </c>
       <c r="D45">
-        <v>0.0221</v>
+        <v>0.0549</v>
       </c>
       <c r="E45">
-        <v>0.0008</v>
+        <v>0.0287</v>
       </c>
       <c r="F45">
-        <v>0.5288</v>
+        <v>0.532</v>
       </c>
       <c r="G45" t="s">
         <v>9</v>
@@ -1849,45 +1852,45 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="C46">
-        <v>0.5179</v>
+        <v>0.527</v>
       </c>
       <c r="D46">
-        <v>0.0571</v>
+        <v>0.0198</v>
       </c>
       <c r="E46">
-        <v>0.0295</v>
+        <v>0.0009</v>
       </c>
       <c r="F46">
-        <v>0.5279</v>
+        <v>0.5305</v>
       </c>
       <c r="G46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
         <v>58</v>
       </c>
       <c r="C47">
-        <v>0.5151</v>
+        <v>0.516</v>
       </c>
       <c r="D47">
-        <v>0.0578</v>
+        <v>0.0195</v>
       </c>
       <c r="E47">
-        <v>0.0097</v>
+        <v>0.0012</v>
       </c>
       <c r="F47">
-        <v>0.5252</v>
+        <v>0.5194</v>
       </c>
       <c r="G47" t="s">
         <v>15</v>
@@ -1895,22 +1898,22 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
       <c r="C48">
-        <v>0.5196</v>
+        <v>0.5065</v>
       </c>
       <c r="D48">
-        <v>0.0249</v>
+        <v>0.0669</v>
       </c>
       <c r="E48">
-        <v>0.009599999999999999</v>
+        <v>0.0477</v>
       </c>
       <c r="F48">
-        <v>0.524</v>
+        <v>0.5183</v>
       </c>
       <c r="G48" t="s">
         <v>15</v>
@@ -1918,22 +1921,22 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
         <v>60</v>
       </c>
       <c r="C49">
-        <v>0.4886</v>
+        <v>0.4852</v>
       </c>
       <c r="D49">
-        <v>0.1983</v>
+        <v>0.1813</v>
       </c>
       <c r="E49">
-        <v>0.09470000000000001</v>
+        <v>0.079</v>
       </c>
       <c r="F49">
-        <v>0.5233</v>
+        <v>0.5172</v>
       </c>
       <c r="G49" t="s">
         <v>15</v>
@@ -1941,22 +1944,22 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
         <v>61</v>
       </c>
       <c r="C50">
-        <v>0.5105</v>
+        <v>0.495</v>
       </c>
       <c r="D50">
-        <v>0.07190000000000001</v>
+        <v>0.1258</v>
       </c>
       <c r="E50">
-        <v>0.2418</v>
+        <v>0.2054</v>
       </c>
       <c r="F50">
-        <v>0.5231</v>
+        <v>0.5172</v>
       </c>
       <c r="G50" t="s">
         <v>15</v>
@@ -1964,22 +1967,22 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C51">
-        <v>0.5199</v>
+        <v>0.5048</v>
       </c>
       <c r="D51">
-        <v>0.0179</v>
+        <v>0.0585</v>
       </c>
       <c r="E51">
-        <v>0.0009</v>
+        <v>0.1103</v>
       </c>
       <c r="F51">
-        <v>0.523</v>
+        <v>0.5151</v>
       </c>
       <c r="G51" t="s">
         <v>15</v>
@@ -1987,22 +1990,22 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="C52">
-        <v>0.5066000000000001</v>
+        <v>0.5052</v>
       </c>
       <c r="D52">
-        <v>0.0687</v>
+        <v>0.0538</v>
       </c>
       <c r="E52">
-        <v>0.1542</v>
+        <v>0.0181</v>
       </c>
       <c r="F52">
-        <v>0.5185999999999999</v>
+        <v>0.5147</v>
       </c>
       <c r="G52" t="s">
         <v>15</v>
@@ -2010,22 +2013,22 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>63</v>
       </c>
       <c r="C53">
-        <v>0.5054999999999999</v>
+        <v>0.5094</v>
       </c>
       <c r="D53">
-        <v>0.0713</v>
+        <v>0.0297</v>
       </c>
       <c r="E53">
-        <v>0.0549</v>
+        <v>0.0043</v>
       </c>
       <c r="F53">
-        <v>0.518</v>
+        <v>0.5147</v>
       </c>
       <c r="G53" t="s">
         <v>15</v>
@@ -2033,22 +2036,22 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>64</v>
       </c>
       <c r="C54">
-        <v>0.5109</v>
+        <v>0.5082</v>
       </c>
       <c r="D54">
-        <v>0.0289</v>
+        <v>0.0314</v>
       </c>
       <c r="E54">
-        <v>0.0041</v>
+        <v>0.0049</v>
       </c>
       <c r="F54">
-        <v>0.516</v>
+        <v>0.5138</v>
       </c>
       <c r="G54" t="s">
         <v>15</v>
@@ -2056,413 +2059,413 @@
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C55">
-        <v>0.5048</v>
+        <v>0.4975</v>
       </c>
       <c r="D55">
-        <v>0.0525</v>
+        <v>0.0888</v>
       </c>
       <c r="E55">
-        <v>0.0473</v>
+        <v>0.0041</v>
       </c>
       <c r="F55">
-        <v>0.514</v>
+        <v>0.5132</v>
       </c>
       <c r="G55" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>0.5036</v>
+        <v>0.5024</v>
       </c>
       <c r="D56">
-        <v>0.0557</v>
+        <v>0.0606</v>
       </c>
       <c r="E56">
-        <v>0.0191</v>
+        <v>0.1794</v>
       </c>
       <c r="F56">
-        <v>0.5133</v>
+        <v>0.5131</v>
       </c>
       <c r="G56" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C57">
-        <v>0.5066000000000001</v>
+        <v>0.509</v>
       </c>
       <c r="D57">
-        <v>0.0352</v>
+        <v>0.0198</v>
       </c>
       <c r="E57">
-        <v>0.0015</v>
+        <v>0.0011</v>
       </c>
       <c r="F57">
-        <v>0.5128</v>
+        <v>0.5125</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C58">
-        <v>0.4965</v>
+        <v>0.5011</v>
       </c>
       <c r="D58">
-        <v>0.08119999999999999</v>
+        <v>0.0623</v>
       </c>
       <c r="E58">
-        <v>0.0035</v>
+        <v>0.0015</v>
       </c>
       <c r="F58">
-        <v>0.5107</v>
+        <v>0.5121</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C59">
-        <v>0.499</v>
+        <v>0.5031</v>
       </c>
       <c r="D59">
-        <v>0.0596</v>
+        <v>0.0478</v>
       </c>
       <c r="E59">
-        <v>0.0014</v>
+        <v>0.0078</v>
       </c>
       <c r="F59">
-        <v>0.5094</v>
+        <v>0.5116000000000001</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="C60">
-        <v>0.503</v>
+        <v>0.5032</v>
       </c>
       <c r="D60">
-        <v>0.0361</v>
+        <v>0.0451</v>
       </c>
       <c r="E60">
-        <v>0.006</v>
+        <v>0.0439</v>
       </c>
       <c r="F60">
-        <v>0.5093</v>
+        <v>0.5112</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
       </c>
       <c r="C61">
-        <v>0.4977</v>
+        <v>0.5069</v>
       </c>
       <c r="D61">
-        <v>0.0619</v>
+        <v>0.0233</v>
       </c>
       <c r="E61">
-        <v>0.0031</v>
+        <v>0.0095</v>
       </c>
       <c r="F61">
-        <v>0.5085</v>
+        <v>0.511</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
         <v>71</v>
       </c>
       <c r="C62">
-        <v>0.4984</v>
+        <v>0.5083</v>
       </c>
       <c r="D62">
-        <v>0.0464</v>
+        <v>0.0128</v>
       </c>
       <c r="E62">
-        <v>0.0005</v>
+        <v>0.0853</v>
       </c>
       <c r="F62">
-        <v>0.5065</v>
+        <v>0.5106000000000001</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
         <v>72</v>
       </c>
       <c r="C63">
-        <v>0.4867</v>
+        <v>0.4985</v>
       </c>
       <c r="D63">
-        <v>0.1095</v>
+        <v>0.0659</v>
       </c>
       <c r="E63">
-        <v>0.1608</v>
+        <v>0.0037</v>
       </c>
       <c r="F63">
-        <v>0.5059</v>
+        <v>0.5101</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
         <v>73</v>
       </c>
       <c r="C64">
-        <v>0.4975</v>
+        <v>0.5028</v>
       </c>
       <c r="D64">
-        <v>0.0442</v>
+        <v>0.0384</v>
       </c>
       <c r="E64">
-        <v>0.0419</v>
+        <v>0.0019</v>
       </c>
       <c r="F64">
-        <v>0.5052</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
         <v>74</v>
       </c>
       <c r="C65">
-        <v>0.5003</v>
+        <v>0.5001</v>
       </c>
       <c r="D65">
-        <v>0.0175</v>
+        <v>0.0449</v>
       </c>
       <c r="E65">
-        <v>0.0014</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F65">
-        <v>0.5034</v>
+        <v>0.508</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
         <v>75</v>
       </c>
       <c r="C66">
-        <v>0.4957</v>
+        <v>0.4993</v>
       </c>
       <c r="D66">
-        <v>0.0427</v>
+        <v>0.0299</v>
       </c>
       <c r="E66">
-        <v>0.0064</v>
+        <v>0.0039</v>
       </c>
       <c r="F66">
-        <v>0.5032</v>
+        <v>0.5046</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="C67">
-        <v>0.4989</v>
+        <v>0.4944</v>
       </c>
       <c r="D67">
-        <v>0.0104</v>
+        <v>0.0511</v>
       </c>
       <c r="E67">
-        <v>0.0672</v>
+        <v>0.0631</v>
       </c>
       <c r="F67">
-        <v>0.5007</v>
+        <v>0.5034</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C68">
-        <v>0.497</v>
+        <v>0.4955</v>
       </c>
       <c r="D68">
-        <v>0.019</v>
+        <v>0.0446</v>
       </c>
       <c r="E68">
-        <v>0.0133</v>
+        <v>0.0081</v>
       </c>
       <c r="F68">
-        <v>0.5003</v>
+        <v>0.5034</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
         <v>77</v>
       </c>
       <c r="C69">
-        <v>0.4901</v>
+        <v>0.4931</v>
       </c>
       <c r="D69">
-        <v>0.054</v>
+        <v>0.0434</v>
       </c>
       <c r="E69">
-        <v>0.0013</v>
+        <v>0.0373</v>
       </c>
       <c r="F69">
-        <v>0.4995</v>
+        <v>0.5008</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="C70">
-        <v>0.4911</v>
+        <v>0.494</v>
       </c>
       <c r="D70">
-        <v>0.0414</v>
+        <v>0.0364</v>
       </c>
       <c r="E70">
-        <v>0.0454</v>
+        <v>0.0171</v>
       </c>
       <c r="F70">
-        <v>0.4983</v>
+        <v>0.5004</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C71">
-        <v>0.4849</v>
+        <v>0.4873</v>
       </c>
       <c r="D71">
-        <v>0.0765</v>
+        <v>0.07340000000000001</v>
       </c>
       <c r="E71">
-        <v>0.0191</v>
+        <v>0.0216</v>
       </c>
       <c r="F71">
-        <v>0.4983</v>
+        <v>0.5003</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C72">
-        <v>0.4893</v>
+        <v>0.4958</v>
       </c>
       <c r="D72">
-        <v>0.0322</v>
+        <v>0.0214</v>
       </c>
       <c r="E72">
-        <v>0.0137</v>
+        <v>0.0131</v>
       </c>
       <c r="F72">
-        <v>0.4949</v>
+        <v>0.4996</v>
       </c>
       <c r="G72" t="s">
         <v>35</v>
@@ -2470,117 +2473,117 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
       </c>
       <c r="C73">
-        <v>0.4851</v>
+        <v>0.4849</v>
       </c>
       <c r="D73">
-        <v>0.0305</v>
+        <v>0.0564</v>
       </c>
       <c r="E73">
-        <v>0.0037</v>
+        <v>0.0015</v>
       </c>
       <c r="F73">
-        <v>0.4904</v>
+        <v>0.4949</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B74" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="C74">
-        <v>0.4843</v>
+        <v>0.4858</v>
       </c>
       <c r="D74">
-        <v>0.0218</v>
+        <v>0.0445</v>
       </c>
       <c r="E74">
-        <v>0.0117</v>
+        <v>0.0021</v>
       </c>
       <c r="F74">
-        <v>0.4881</v>
+        <v>0.4937</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B75" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>0.4791</v>
+        <v>0.4878</v>
       </c>
       <c r="D75">
-        <v>0.0219</v>
+        <v>0.0285</v>
       </c>
       <c r="E75">
-        <v>0.0117</v>
+        <v>0.0487</v>
       </c>
       <c r="F75">
-        <v>0.4829</v>
+        <v>0.4928</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="C76">
-        <v>0.4699</v>
+        <v>0.4853</v>
       </c>
       <c r="D76">
-        <v>0.0417</v>
+        <v>0.0233</v>
       </c>
       <c r="E76">
-        <v>0.0018</v>
+        <v>0.011</v>
       </c>
       <c r="F76">
-        <v>0.4772</v>
+        <v>0.4894</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B77" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C77">
-        <v>0.4631</v>
+        <v>0.4826</v>
       </c>
       <c r="D77">
-        <v>0.026</v>
+        <v>0.0189</v>
       </c>
       <c r="E77">
-        <v>0.0447</v>
+        <v>0.0116</v>
       </c>
       <c r="F77">
-        <v>0.4676</v>
+        <v>0.4859</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2588,22 +2591,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>0.5875</v>
+        <v>0.5770999999999999</v>
       </c>
       <c r="D78">
-        <v>0.0137</v>
+        <v>0.0108</v>
       </c>
       <c r="E78">
-        <v>0.0076</v>
+        <v>0.0055</v>
       </c>
       <c r="F78">
-        <v>0.5911</v>
+        <v>0.5796</v>
       </c>
       <c r="G78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2614,16 +2617,16 @@
         <v>83</v>
       </c>
       <c r="C79">
-        <v>0.5187</v>
+        <v>0.5198</v>
       </c>
       <c r="D79">
-        <v>0.1378</v>
+        <v>0.1453</v>
       </c>
       <c r="E79">
-        <v>0.1002</v>
+        <v>0.1161</v>
       </c>
       <c r="F79">
-        <v>0.5552</v>
+        <v>0.5533</v>
       </c>
       <c r="G79" t="s">
         <v>9</v>
@@ -2637,16 +2640,16 @@
         <v>84</v>
       </c>
       <c r="C80">
-        <v>0.5438</v>
+        <v>0.5374</v>
       </c>
       <c r="D80">
-        <v>0.0357</v>
+        <v>0.0292</v>
       </c>
       <c r="E80">
-        <v>0.0148</v>
+        <v>0.0101</v>
       </c>
       <c r="F80">
-        <v>0.5533</v>
+        <v>0.5441</v>
       </c>
       <c r="G80" t="s">
         <v>9</v>
@@ -2657,19 +2660,19 @@
         <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>0.5174</v>
+        <v>0.5374</v>
       </c>
       <c r="D81">
-        <v>0.1082</v>
+        <v>0.0116</v>
       </c>
       <c r="E81">
-        <v>0.0492</v>
+        <v>0.0664</v>
       </c>
       <c r="F81">
-        <v>0.5461</v>
+        <v>0.5401</v>
       </c>
       <c r="G81" t="s">
         <v>9</v>
@@ -2680,19 +2683,19 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="C82">
-        <v>0.5424</v>
+        <v>0.5108</v>
       </c>
       <c r="D82">
-        <v>0.0135</v>
+        <v>0.099</v>
       </c>
       <c r="E82">
-        <v>0.0716</v>
+        <v>0.046</v>
       </c>
       <c r="F82">
-        <v>0.546</v>
+        <v>0.5336</v>
       </c>
       <c r="G82" t="s">
         <v>9</v>
@@ -2703,19 +2706,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C83">
-        <v>0.5352</v>
+        <v>0.5193</v>
       </c>
       <c r="D83">
-        <v>0.022</v>
+        <v>0.0559</v>
       </c>
       <c r="E83">
-        <v>0.0011</v>
+        <v>0.0853</v>
       </c>
       <c r="F83">
-        <v>0.541</v>
+        <v>0.5322</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
@@ -2726,22 +2729,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84">
-        <v>0.5333</v>
+        <v>0.5048</v>
       </c>
       <c r="D84">
-        <v>0.0158</v>
+        <v>0.1041</v>
       </c>
       <c r="E84">
-        <v>0.0067</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="F84">
-        <v>0.5375</v>
+        <v>0.5288</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2749,22 +2752,22 @@
         <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C85">
+        <v>0.5118</v>
+      </c>
+      <c r="D85">
+        <v>0.07240000000000001</v>
+      </c>
+      <c r="E85">
+        <v>0.2042</v>
+      </c>
+      <c r="F85">
         <v>0.5285</v>
       </c>
-      <c r="D85">
-        <v>0.0259</v>
-      </c>
-      <c r="E85">
-        <v>0.0004</v>
-      </c>
-      <c r="F85">
-        <v>0.5354</v>
-      </c>
       <c r="G85" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2772,22 +2775,22 @@
         <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86">
-        <v>0.507</v>
+        <v>0.5203</v>
       </c>
       <c r="D86">
-        <v>0.1048</v>
+        <v>0.0349</v>
       </c>
       <c r="E86">
-        <v>0.0069</v>
+        <v>0.2307</v>
       </c>
       <c r="F86">
-        <v>0.5348000000000001</v>
+        <v>0.5283</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2795,19 +2798,19 @@
         <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C87">
-        <v>0.511</v>
+        <v>0.5133</v>
       </c>
       <c r="D87">
-        <v>0.079</v>
+        <v>0.0631</v>
       </c>
       <c r="E87">
-        <v>0.0026</v>
+        <v>0.0005</v>
       </c>
       <c r="F87">
-        <v>0.5319</v>
+        <v>0.5278</v>
       </c>
       <c r="G87" t="s">
         <v>15</v>
@@ -2818,19 +2821,19 @@
         <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C88">
-        <v>0.5235</v>
+        <v>0.51</v>
       </c>
       <c r="D88">
-        <v>0.0314</v>
+        <v>0.0733</v>
       </c>
       <c r="E88">
-        <v>0.1901</v>
+        <v>0.0026</v>
       </c>
       <c r="F88">
-        <v>0.5318000000000001</v>
+        <v>0.5269</v>
       </c>
       <c r="G88" t="s">
         <v>15</v>
@@ -2841,19 +2844,19 @@
         <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89">
-        <v>0.5104</v>
+        <v>0.52</v>
       </c>
       <c r="D89">
-        <v>0.07000000000000001</v>
+        <v>0.0242</v>
       </c>
       <c r="E89">
-        <v>0.0426</v>
+        <v>0.0004</v>
       </c>
       <c r="F89">
-        <v>0.529</v>
+        <v>0.5256</v>
       </c>
       <c r="G89" t="s">
         <v>15</v>
@@ -2864,19 +2867,19 @@
         <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="C90">
-        <v>0.5238</v>
+        <v>0.5198</v>
       </c>
       <c r="D90">
-        <v>0.0139</v>
+        <v>0.017</v>
       </c>
       <c r="E90">
-        <v>0.0019</v>
+        <v>0.0094</v>
       </c>
       <c r="F90">
-        <v>0.5275</v>
+        <v>0.5237000000000001</v>
       </c>
       <c r="G90" t="s">
         <v>15</v>
@@ -2890,16 +2893,16 @@
         <v>93</v>
       </c>
       <c r="C91">
-        <v>0.507</v>
+        <v>0.5044</v>
       </c>
       <c r="D91">
-        <v>0.0658</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="E91">
-        <v>0.0005</v>
+        <v>0.04</v>
       </c>
       <c r="F91">
-        <v>0.5244</v>
+        <v>0.5197000000000001</v>
       </c>
       <c r="G91" t="s">
         <v>15</v>
@@ -2910,19 +2913,19 @@
         <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C92">
-        <v>0.5104</v>
+        <v>0.4954</v>
       </c>
       <c r="D92">
-        <v>0.0508</v>
+        <v>0.1043</v>
       </c>
       <c r="E92">
-        <v>0.0672</v>
+        <v>0.8208</v>
       </c>
       <c r="F92">
-        <v>0.5239</v>
+        <v>0.5194</v>
       </c>
       <c r="G92" t="s">
         <v>15</v>
@@ -2933,19 +2936,19 @@
         <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C93">
-        <v>0.5014999999999999</v>
+        <v>0.5132</v>
       </c>
       <c r="D93">
-        <v>0.07439999999999999</v>
+        <v>0.0206</v>
       </c>
       <c r="E93">
-        <v>0.0129</v>
+        <v>0.0013</v>
       </c>
       <c r="F93">
-        <v>0.5212</v>
+        <v>0.5179</v>
       </c>
       <c r="G93" t="s">
         <v>15</v>
@@ -2959,16 +2962,16 @@
         <v>94</v>
       </c>
       <c r="C94">
-        <v>0.5013</v>
+        <v>0.5085</v>
       </c>
       <c r="D94">
-        <v>0.0667</v>
+        <v>0.0395</v>
       </c>
       <c r="E94">
-        <v>0.1642</v>
+        <v>0.0165</v>
       </c>
       <c r="F94">
-        <v>0.519</v>
+        <v>0.5175999999999999</v>
       </c>
       <c r="G94" t="s">
         <v>15</v>
@@ -2982,16 +2985,16 @@
         <v>95</v>
       </c>
       <c r="C95">
-        <v>0.505</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="D95">
-        <v>0.0487</v>
+        <v>0.07049999999999999</v>
       </c>
       <c r="E95">
-        <v>0.0009</v>
+        <v>0.0178</v>
       </c>
       <c r="F95">
-        <v>0.5179</v>
+        <v>0.5167</v>
       </c>
       <c r="G95" t="s">
         <v>15</v>
@@ -3005,16 +3008,16 @@
         <v>96</v>
       </c>
       <c r="C96">
-        <v>0.5071</v>
+        <v>0.5054</v>
       </c>
       <c r="D96">
-        <v>0.0405</v>
+        <v>0.0486</v>
       </c>
       <c r="E96">
-        <v>0.0133</v>
+        <v>0.0009</v>
       </c>
       <c r="F96">
-        <v>0.5178</v>
+        <v>0.5165999999999999</v>
       </c>
       <c r="G96" t="s">
         <v>15</v>
@@ -3025,19 +3028,19 @@
         <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="C97">
-        <v>0.5125999999999999</v>
+        <v>0.5011</v>
       </c>
       <c r="D97">
-        <v>0.0195</v>
+        <v>0.0667</v>
       </c>
       <c r="E97">
-        <v>0.0524</v>
+        <v>0.0125</v>
       </c>
       <c r="F97">
-        <v>0.5178</v>
+        <v>0.5165</v>
       </c>
       <c r="G97" t="s">
         <v>15</v>
@@ -3048,19 +3051,19 @@
         <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C98">
-        <v>0.4861</v>
+        <v>0.5085</v>
       </c>
       <c r="D98">
-        <v>0.1121</v>
+        <v>0.0344</v>
       </c>
       <c r="E98">
-        <v>0.8181</v>
+        <v>0.0171</v>
       </c>
       <c r="F98">
-        <v>0.5158</v>
+        <v>0.5164</v>
       </c>
       <c r="G98" t="s">
         <v>15</v>
@@ -3071,22 +3074,22 @@
         <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C99">
-        <v>0.4868</v>
+        <v>0.5114</v>
       </c>
       <c r="D99">
-        <v>0.0968</v>
+        <v>0.0139</v>
       </c>
       <c r="E99">
-        <v>0.141</v>
+        <v>0.0023</v>
       </c>
       <c r="F99">
-        <v>0.5125</v>
+        <v>0.5145999999999999</v>
       </c>
       <c r="G99" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3094,22 +3097,22 @@
         <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="C100">
-        <v>0.495</v>
+        <v>0.4885</v>
       </c>
       <c r="D100">
-        <v>0.0601</v>
+        <v>0.1006</v>
       </c>
       <c r="E100">
-        <v>0.0119</v>
+        <v>0.1247</v>
       </c>
       <c r="F100">
-        <v>0.5109</v>
+        <v>0.5117</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3117,22 +3120,22 @@
         <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="C101">
-        <v>0.5009</v>
+        <v>0.4919</v>
       </c>
       <c r="D101">
-        <v>0.0349</v>
+        <v>0.0738</v>
       </c>
       <c r="E101">
-        <v>0.0137</v>
+        <v>0.0094</v>
       </c>
       <c r="F101">
-        <v>0.5102</v>
+        <v>0.5089</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3140,22 +3143,22 @@
         <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="C102">
-        <v>0.4871</v>
+        <v>0.5041</v>
       </c>
       <c r="D102">
-        <v>0.064</v>
+        <v>0.0207</v>
       </c>
       <c r="E102">
-        <v>0.0064</v>
+        <v>0.0738</v>
       </c>
       <c r="F102">
-        <v>0.5041</v>
+        <v>0.5089</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3163,22 +3166,22 @@
         <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103">
-        <v>0.4916</v>
+        <v>0.4954</v>
       </c>
       <c r="D103">
-        <v>0.0366</v>
+        <v>0.054</v>
       </c>
       <c r="E103">
-        <v>0.0027</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F103">
-        <v>0.5013</v>
+        <v>0.5078</v>
       </c>
       <c r="G103" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3186,22 +3189,22 @@
         <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C104">
-        <v>0.4801</v>
+        <v>0.4845</v>
       </c>
       <c r="D104">
-        <v>0.0771</v>
+        <v>0.0759</v>
       </c>
       <c r="E104">
-        <v>0.0151</v>
+        <v>0.0158</v>
       </c>
       <c r="F104">
-        <v>0.5004999999999999</v>
+        <v>0.502</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3209,22 +3212,22 @@
         <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="C105">
-        <v>0.4945</v>
+        <v>0.4942</v>
       </c>
       <c r="D105">
-        <v>0.0201</v>
+        <v>0.0262</v>
       </c>
       <c r="E105">
-        <v>0.0037</v>
+        <v>0.0022</v>
       </c>
       <c r="F105">
-        <v>0.4998</v>
+        <v>0.5002</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3235,19 +3238,19 @@
         <v>101</v>
       </c>
       <c r="C106">
-        <v>0.4921</v>
+        <v>0.492</v>
       </c>
       <c r="D106">
-        <v>0.0281</v>
+        <v>0.0248</v>
       </c>
       <c r="E106">
-        <v>0.0019</v>
+        <v>0.002</v>
       </c>
       <c r="F106">
-        <v>0.4995</v>
+        <v>0.4977</v>
       </c>
       <c r="G106" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3258,19 +3261,19 @@
         <v>102</v>
       </c>
       <c r="C107">
-        <v>0.4923</v>
+        <v>0.4929</v>
       </c>
       <c r="D107">
-        <v>0.0264</v>
+        <v>0.0208</v>
       </c>
       <c r="E107">
-        <v>0.0023</v>
+        <v>0.0014</v>
       </c>
       <c r="F107">
-        <v>0.4993</v>
+        <v>0.4977</v>
       </c>
       <c r="G107" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3281,19 +3284,19 @@
         <v>103</v>
       </c>
       <c r="C108">
-        <v>0.4852</v>
+        <v>0.4925</v>
       </c>
       <c r="D108">
-        <v>0.0448</v>
+        <v>0.013</v>
       </c>
       <c r="E108">
-        <v>0.0068</v>
+        <v>0.0005</v>
       </c>
       <c r="F108">
-        <v>0.4971</v>
+        <v>0.4955</v>
       </c>
       <c r="G108" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3301,22 +3304,22 @@
         <v>82</v>
       </c>
       <c r="B109" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="C109">
-        <v>0.4906</v>
+        <v>0.4875</v>
       </c>
       <c r="D109">
-        <v>0.0226</v>
+        <v>0.0306</v>
       </c>
       <c r="E109">
-        <v>0.0007</v>
+        <v>0.0022</v>
       </c>
       <c r="F109">
-        <v>0.4966</v>
+        <v>0.4945</v>
       </c>
       <c r="G109" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3324,22 +3327,22 @@
         <v>82</v>
       </c>
       <c r="B110" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C110">
-        <v>0.4862</v>
+        <v>0.4855</v>
       </c>
       <c r="D110">
-        <v>0.0315</v>
+        <v>0.0188</v>
       </c>
       <c r="E110">
-        <v>0.2418</v>
+        <v>0.0039</v>
       </c>
       <c r="F110">
-        <v>0.4945</v>
+        <v>0.4898</v>
       </c>
       <c r="G110" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3347,19 +3350,19 @@
         <v>82</v>
       </c>
       <c r="B111" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="C111">
-        <v>0.4858</v>
+        <v>0.4833</v>
       </c>
       <c r="D111">
-        <v>0.019</v>
+        <v>0.0265</v>
       </c>
       <c r="E111">
-        <v>0.001</v>
+        <v>0.0477</v>
       </c>
       <c r="F111">
-        <v>0.4908</v>
+        <v>0.4894</v>
       </c>
       <c r="G111" t="s">
         <v>35</v>
@@ -3373,16 +3376,16 @@
         <v>27</v>
       </c>
       <c r="C112">
-        <v>0.4826</v>
+        <v>0.4831</v>
       </c>
       <c r="D112">
-        <v>0.0237</v>
+        <v>0.0246</v>
       </c>
       <c r="E112">
-        <v>0.0111</v>
+        <v>0.0106</v>
       </c>
       <c r="F112">
-        <v>0.4889</v>
+        <v>0.4888</v>
       </c>
       <c r="G112" t="s">
         <v>35</v>
@@ -3393,19 +3396,19 @@
         <v>82</v>
       </c>
       <c r="B113" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="C113">
-        <v>0.4774</v>
+        <v>0.4802</v>
       </c>
       <c r="D113">
-        <v>0.0392</v>
+        <v>0.0323</v>
       </c>
       <c r="E113">
-        <v>0.0066</v>
+        <v>0.1794</v>
       </c>
       <c r="F113">
-        <v>0.4878</v>
+        <v>0.4876</v>
       </c>
       <c r="G113" t="s">
         <v>35</v>
@@ -3416,19 +3419,19 @@
         <v>82</v>
       </c>
       <c r="B114" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="C114">
         <v>0.4821</v>
       </c>
       <c r="D114">
-        <v>0.0137</v>
+        <v>0.0203</v>
       </c>
       <c r="E114">
-        <v>0.0005</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F114">
-        <v>0.4857</v>
+        <v>0.4868</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -3439,19 +3442,19 @@
         <v>82</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="C115">
+        <v>0.4703</v>
+      </c>
+      <c r="D115">
+        <v>0.0368</v>
+      </c>
+      <c r="E115">
+        <v>0.0047</v>
+      </c>
+      <c r="F115">
         <v>0.4788</v>
-      </c>
-      <c r="D115">
-        <v>0.026</v>
-      </c>
-      <c r="E115">
-        <v>0.0549</v>
-      </c>
-      <c r="F115">
-        <v>0.4857</v>
       </c>
       <c r="G115" t="s">
         <v>35</v>
@@ -3462,19 +3465,19 @@
         <v>82</v>
       </c>
       <c r="B116" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C116">
-        <v>0.4749</v>
+        <v>0.4746</v>
       </c>
       <c r="D116">
-        <v>0.0104</v>
+        <v>0.0107</v>
       </c>
       <c r="E116">
-        <v>0.0274</v>
+        <v>0.0265</v>
       </c>
       <c r="F116">
-        <v>0.4777</v>
+        <v>0.4771</v>
       </c>
       <c r="G116" t="s">
         <v>35</v>
@@ -3485,19 +3488,19 @@
         <v>82</v>
       </c>
       <c r="B117" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C117">
-        <v>0.4611</v>
+        <v>0.4627</v>
       </c>
       <c r="D117">
-        <v>0.042</v>
+        <v>0.0432</v>
       </c>
       <c r="E117">
-        <v>0.0117</v>
+        <v>0.0131</v>
       </c>
       <c r="F117">
-        <v>0.4722</v>
+        <v>0.4727</v>
       </c>
       <c r="G117" t="s">
         <v>35</v>
@@ -3508,68 +3511,68 @@
         <v>82</v>
       </c>
       <c r="B118" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C118">
-        <v>0.4481</v>
+        <v>0.4574</v>
       </c>
       <c r="D118">
-        <v>0.0106</v>
+        <v>0.0124</v>
       </c>
       <c r="E118">
-        <v>0.0005</v>
+        <v>0.0007</v>
       </c>
       <c r="F118">
-        <v>0.4509</v>
+        <v>0.4603</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B119" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C119">
-        <v>0.5532</v>
+        <v>0.454</v>
       </c>
       <c r="D119">
-        <v>0.0524</v>
+        <v>0.0105</v>
       </c>
       <c r="E119">
-        <v>0.0023</v>
+        <v>0.0031</v>
       </c>
       <c r="F119">
-        <v>0.5596</v>
+        <v>0.4564</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B120" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C120">
-        <v>0.5207000000000001</v>
+        <v>0.4432</v>
       </c>
       <c r="D120">
-        <v>0.1718</v>
+        <v>0.0198</v>
       </c>
       <c r="E120">
-        <v>0.0116</v>
+        <v>0.0916</v>
       </c>
       <c r="F120">
-        <v>0.5416</v>
+        <v>0.4478</v>
       </c>
       <c r="G120" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3577,22 +3580,22 @@
         <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C121">
-        <v>0.5072</v>
+        <v>0.5453</v>
       </c>
       <c r="D121">
-        <v>0.1748</v>
+        <v>0.0498</v>
       </c>
       <c r="E121">
-        <v>0.0274</v>
+        <v>0.0022</v>
       </c>
       <c r="F121">
-        <v>0.5285</v>
+        <v>0.5505</v>
       </c>
       <c r="G121" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3600,22 +3603,22 @@
         <v>109</v>
       </c>
       <c r="B122" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C122">
-        <v>0.5105</v>
+        <v>0.5258</v>
       </c>
       <c r="D122">
-        <v>0.1219</v>
+        <v>0.1692</v>
       </c>
       <c r="E122">
-        <v>0.0043</v>
+        <v>0.0114</v>
       </c>
       <c r="F122">
-        <v>0.5253</v>
+        <v>0.5436</v>
       </c>
       <c r="G122" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3623,22 +3626,22 @@
         <v>109</v>
       </c>
       <c r="B123" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C123">
-        <v>0.5061</v>
+        <v>0.5124</v>
       </c>
       <c r="D123">
-        <v>0.1578</v>
+        <v>0.1456</v>
       </c>
       <c r="E123">
-        <v>0.0026</v>
+        <v>0.006</v>
       </c>
       <c r="F123">
-        <v>0.5253</v>
+        <v>0.5276999999999999</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3646,22 +3649,22 @@
         <v>109</v>
       </c>
       <c r="B124" t="s">
-        <v>41</v>
+        <v>112</v>
       </c>
       <c r="C124">
-        <v>0.5094</v>
+        <v>0.5093</v>
       </c>
       <c r="D124">
-        <v>0.1291</v>
+        <v>0.1462</v>
       </c>
       <c r="E124">
-        <v>0.0208</v>
+        <v>0.0021</v>
       </c>
       <c r="F124">
-        <v>0.5251</v>
+        <v>0.5246</v>
       </c>
       <c r="G124" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3669,22 +3672,22 @@
         <v>109</v>
       </c>
       <c r="B125" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="C125">
-        <v>0.5038</v>
+        <v>0.5046</v>
       </c>
       <c r="D125">
-        <v>0.1515</v>
+        <v>0.1684</v>
       </c>
       <c r="E125">
-        <v>0.0018</v>
+        <v>0.0265</v>
       </c>
       <c r="F125">
-        <v>0.5222</v>
+        <v>0.5223</v>
       </c>
       <c r="G125" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3692,22 +3695,22 @@
         <v>109</v>
       </c>
       <c r="B126" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C126">
-        <v>0.5097</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="D126">
-        <v>0.0911</v>
+        <v>0.1582</v>
       </c>
       <c r="E126">
-        <v>0.0004</v>
+        <v>0.0031</v>
       </c>
       <c r="F126">
-        <v>0.5208</v>
+        <v>0.5221</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3715,22 +3718,22 @@
         <v>109</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C127">
-        <v>0.5122</v>
+        <v>0.5133</v>
       </c>
       <c r="D127">
-        <v>0.0485</v>
+        <v>0.0419</v>
       </c>
       <c r="E127">
-        <v>0.0002</v>
+        <v>0.0004</v>
       </c>
       <c r="F127">
-        <v>0.5181</v>
+        <v>0.5177</v>
       </c>
       <c r="G127" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3738,22 +3741,22 @@
         <v>109</v>
       </c>
       <c r="B128" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="C128">
-        <v>0.4977</v>
+        <v>0.5051</v>
       </c>
       <c r="D128">
-        <v>0.1104</v>
+        <v>0.1184</v>
       </c>
       <c r="E128">
-        <v>0.0005</v>
+        <v>0.0223</v>
       </c>
       <c r="F128">
-        <v>0.5111</v>
+        <v>0.5175</v>
       </c>
       <c r="G128" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3761,22 +3764,22 @@
         <v>109</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C129">
-        <v>0.4982</v>
+        <v>0.5064</v>
       </c>
       <c r="D129">
-        <v>0.1016</v>
+        <v>0.09669999999999999</v>
       </c>
       <c r="E129">
-        <v>0.002</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F129">
-        <v>0.5106000000000001</v>
+        <v>0.5165</v>
       </c>
       <c r="G129" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3784,22 +3787,22 @@
         <v>109</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C130">
-        <v>0.5028</v>
+        <v>0.5011</v>
       </c>
       <c r="D130">
-        <v>0.0363</v>
+        <v>0.0953</v>
       </c>
       <c r="E130">
-        <v>0.0003</v>
+        <v>0.0022</v>
       </c>
       <c r="F130">
-        <v>0.5072</v>
+        <v>0.5111</v>
       </c>
       <c r="G130" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3807,22 +3810,22 @@
         <v>109</v>
       </c>
       <c r="B131" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C131">
-        <v>0.4973</v>
+        <v>0.5054</v>
       </c>
       <c r="D131">
-        <v>0.0702</v>
+        <v>0.0416</v>
       </c>
       <c r="E131">
-        <v>0.0072</v>
+        <v>0.0002</v>
       </c>
       <c r="F131">
-        <v>0.5058</v>
+        <v>0.5098</v>
       </c>
       <c r="G131" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3830,22 +3833,22 @@
         <v>109</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C132">
-        <v>0.4749</v>
+        <v>0.4976</v>
       </c>
       <c r="D132">
-        <v>0.2074</v>
+        <v>0.098</v>
       </c>
       <c r="E132">
-        <v>0.018</v>
+        <v>0.0007</v>
       </c>
       <c r="F132">
-        <v>0.5001</v>
+        <v>0.5079</v>
       </c>
       <c r="G132" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3853,22 +3856,22 @@
         <v>109</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C133">
-        <v>0.4954</v>
+        <v>0.4858</v>
       </c>
       <c r="D133">
-        <v>0.0313</v>
+        <v>0.153</v>
       </c>
       <c r="E133">
-        <v>0.0005</v>
+        <v>0.0104</v>
       </c>
       <c r="F133">
-        <v>0.4992</v>
+        <v>0.5019</v>
       </c>
       <c r="G133" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3876,22 +3879,22 @@
         <v>109</v>
       </c>
       <c r="B134" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C134">
-        <v>0.4813</v>
+        <v>0.4859</v>
       </c>
       <c r="D134">
-        <v>0.1333</v>
+        <v>0.1027</v>
       </c>
       <c r="E134">
-        <v>0.0075</v>
+        <v>0.0174</v>
       </c>
       <c r="F134">
-        <v>0.4975</v>
+        <v>0.4967</v>
       </c>
       <c r="G134" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3899,22 +3902,22 @@
         <v>109</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C135">
-        <v>0.4849</v>
+        <v>0.4919</v>
       </c>
       <c r="D135">
-        <v>0.0682</v>
+        <v>0.0288</v>
       </c>
       <c r="E135">
         <v>0.0005</v>
       </c>
       <c r="F135">
-        <v>0.4932</v>
+        <v>0.4949</v>
       </c>
       <c r="G135" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3922,91 +3925,91 @@
         <v>109</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C136">
-        <v>0.4798</v>
+        <v>0.486</v>
       </c>
       <c r="D136">
-        <v>0.09719999999999999</v>
+        <v>0.0717</v>
       </c>
       <c r="E136">
-        <v>0.0136</v>
+        <v>0.0104</v>
       </c>
       <c r="F136">
-        <v>0.4916</v>
+        <v>0.4935</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B137" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
       <c r="C137">
-        <v>0.5743</v>
+        <v>0.4847</v>
       </c>
       <c r="D137">
-        <v>0.0104</v>
+        <v>0.0789</v>
       </c>
       <c r="E137">
-        <v>0.0021</v>
+        <v>0.0007</v>
       </c>
       <c r="F137">
-        <v>0.5755</v>
+        <v>0.493</v>
       </c>
       <c r="G137" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B138" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C138">
-        <v>0.5387999999999999</v>
+        <v>0.469</v>
       </c>
       <c r="D138">
-        <v>0.1184</v>
+        <v>0.1818</v>
       </c>
       <c r="E138">
-        <v>0.0425</v>
+        <v>0.013</v>
       </c>
       <c r="F138">
-        <v>0.5526</v>
+        <v>0.4881</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B139" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C139">
-        <v>0.5305</v>
+        <v>0.4703</v>
       </c>
       <c r="D139">
-        <v>0.1118</v>
+        <v>0.021</v>
       </c>
       <c r="E139">
-        <v>0.0035</v>
+        <v>0.0051</v>
       </c>
       <c r="F139">
-        <v>0.5435</v>
+        <v>0.4725</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4014,19 +4017,19 @@
         <v>124</v>
       </c>
       <c r="B140" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C140">
-        <v>0.5348000000000001</v>
+        <v>0.5422</v>
       </c>
       <c r="D140">
-        <v>0.0609</v>
+        <v>0.1209</v>
       </c>
       <c r="E140">
-        <v>0.0007</v>
+        <v>0.0407</v>
       </c>
       <c r="F140">
-        <v>0.5419</v>
+        <v>0.5538</v>
       </c>
       <c r="G140" t="s">
         <v>9</v>
@@ -4037,22 +4040,22 @@
         <v>124</v>
       </c>
       <c r="B141" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C141">
-        <v>0.52</v>
+        <v>0.5356</v>
       </c>
       <c r="D141">
-        <v>0.0453</v>
+        <v>0.1111</v>
       </c>
       <c r="E141">
-        <v>0.0135</v>
+        <v>0.0043</v>
       </c>
       <c r="F141">
-        <v>0.5253</v>
+        <v>0.5462</v>
       </c>
       <c r="G141" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4060,19 +4063,19 @@
         <v>124</v>
       </c>
       <c r="B142" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
       <c r="C142">
-        <v>0.5167</v>
+        <v>0.5324</v>
       </c>
       <c r="D142">
-        <v>0.06510000000000001</v>
+        <v>0.0518</v>
       </c>
       <c r="E142">
-        <v>0.0097</v>
+        <v>0.0007</v>
       </c>
       <c r="F142">
-        <v>0.5243</v>
+        <v>0.5374</v>
       </c>
       <c r="G142" t="s">
         <v>15</v>
@@ -4083,22 +4086,22 @@
         <v>124</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="C143">
-        <v>0.5113</v>
+        <v>0.5171</v>
       </c>
       <c r="D143">
-        <v>0.0974</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="E143">
-        <v>0.1031</v>
+        <v>0.0104</v>
       </c>
       <c r="F143">
-        <v>0.5226</v>
+        <v>0.5233</v>
       </c>
       <c r="G143" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4106,22 +4109,22 @@
         <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C144">
-        <v>0.5086000000000001</v>
+        <v>0.5131</v>
       </c>
       <c r="D144">
-        <v>0.09329999999999999</v>
+        <v>0.08989999999999999</v>
       </c>
       <c r="E144">
-        <v>0.0041</v>
+        <v>0.0048</v>
       </c>
       <c r="F144">
-        <v>0.5195</v>
+        <v>0.5217000000000001</v>
       </c>
       <c r="G144" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4129,22 +4132,22 @@
         <v>124</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C145">
-        <v>0.5083</v>
+        <v>0.513</v>
       </c>
       <c r="D145">
-        <v>0.076</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E145">
-        <v>0.0264</v>
+        <v>0.0266</v>
       </c>
       <c r="F145">
-        <v>0.5171</v>
+        <v>0.5202</v>
       </c>
       <c r="G145" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4152,22 +4155,22 @@
         <v>124</v>
       </c>
       <c r="B146" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C146">
-        <v>0.5101</v>
+        <v>0.5119</v>
       </c>
       <c r="D146">
-        <v>0.0445</v>
+        <v>0.0757</v>
       </c>
       <c r="E146">
-        <v>0.0035</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="F146">
-        <v>0.5153</v>
+        <v>0.5192</v>
       </c>
       <c r="G146" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4175,22 +4178,22 @@
         <v>124</v>
       </c>
       <c r="B147" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C147">
-        <v>0.4859</v>
+        <v>0.509</v>
       </c>
       <c r="D147">
-        <v>0.2135</v>
+        <v>0.0444</v>
       </c>
       <c r="E147">
-        <v>0.1991</v>
+        <v>0.0149</v>
       </c>
       <c r="F147">
-        <v>0.5108</v>
+        <v>0.5133</v>
       </c>
       <c r="G147" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4198,22 +4201,22 @@
         <v>124</v>
       </c>
       <c r="B148" t="s">
-        <v>134</v>
+        <v>87</v>
       </c>
       <c r="C148">
-        <v>0.502</v>
+        <v>0.497</v>
       </c>
       <c r="D148">
-        <v>0.0582</v>
+        <v>0.1415</v>
       </c>
       <c r="E148">
-        <v>0.0021</v>
+        <v>0.2042</v>
       </c>
       <c r="F148">
-        <v>0.5088</v>
+        <v>0.5106000000000001</v>
       </c>
       <c r="G148" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4221,22 +4224,22 @@
         <v>124</v>
       </c>
       <c r="B149" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C149">
-        <v>0.5032</v>
+        <v>0.5046</v>
       </c>
       <c r="D149">
-        <v>0.0453</v>
+        <v>0.0508</v>
       </c>
       <c r="E149">
-        <v>0.0026</v>
+        <v>0.0018</v>
       </c>
       <c r="F149">
-        <v>0.5085</v>
+        <v>0.5095</v>
       </c>
       <c r="G149" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4244,22 +4247,22 @@
         <v>124</v>
       </c>
       <c r="B150" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="C150">
-        <v>0.495</v>
+        <v>0.5009</v>
       </c>
       <c r="D150">
-        <v>0.1119</v>
+        <v>0.0784</v>
       </c>
       <c r="E150">
-        <v>0.0012</v>
+        <v>0.2307</v>
       </c>
       <c r="F150">
-        <v>0.508</v>
+        <v>0.5084</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4267,22 +4270,22 @@
         <v>124</v>
       </c>
       <c r="B151" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C151">
-        <v>0.4889</v>
+        <v>0.5036</v>
       </c>
       <c r="D151">
-        <v>0.1321</v>
+        <v>0.0452</v>
       </c>
       <c r="E151">
-        <v>0.1642</v>
+        <v>0.0036</v>
       </c>
       <c r="F151">
-        <v>0.5043</v>
+        <v>0.5079</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4290,22 +4293,22 @@
         <v>124</v>
       </c>
       <c r="B152" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C152">
-        <v>0.4897</v>
+        <v>0.498</v>
       </c>
       <c r="D152">
-        <v>0.1164</v>
+        <v>0.0978</v>
       </c>
       <c r="E152">
-        <v>0.0322</v>
+        <v>0.0012</v>
       </c>
       <c r="F152">
-        <v>0.5032</v>
+        <v>0.5074</v>
       </c>
       <c r="G152" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4313,19 +4316,19 @@
         <v>124</v>
       </c>
       <c r="B153" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="C153">
-        <v>0.4928</v>
+        <v>0.4985</v>
       </c>
       <c r="D153">
-        <v>0.0698</v>
+        <v>0.0469</v>
       </c>
       <c r="E153">
-        <v>0.1901</v>
+        <v>0.0853</v>
       </c>
       <c r="F153">
-        <v>0.5009</v>
+        <v>0.503</v>
       </c>
       <c r="G153" t="s">
         <v>35</v>
@@ -4336,19 +4339,19 @@
         <v>124</v>
       </c>
       <c r="B154" t="s">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="C154">
-        <v>0.4955</v>
+        <v>0.4976</v>
       </c>
       <c r="D154">
-        <v>0.038</v>
+        <v>0.0287</v>
       </c>
       <c r="E154">
-        <v>0.0672</v>
+        <v>0.0031</v>
       </c>
       <c r="F154">
-        <v>0.4999</v>
+        <v>0.5003</v>
       </c>
       <c r="G154" t="s">
         <v>35</v>
@@ -4359,19 +4362,19 @@
         <v>124</v>
       </c>
       <c r="B155" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="C155">
-        <v>0.4919</v>
+        <v>0.4826</v>
       </c>
       <c r="D155">
-        <v>0.0663</v>
+        <v>0.1803</v>
       </c>
       <c r="E155">
-        <v>0.0117</v>
+        <v>0.1624</v>
       </c>
       <c r="F155">
-        <v>0.4996</v>
+        <v>0.4999</v>
       </c>
       <c r="G155" t="s">
         <v>35</v>
@@ -4382,19 +4385,19 @@
         <v>124</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C156">
-        <v>0.4926</v>
+        <v>0.4862</v>
       </c>
       <c r="D156">
-        <v>0.025</v>
+        <v>0.1192</v>
       </c>
       <c r="E156">
-        <v>0.0028</v>
+        <v>0.0349</v>
       </c>
       <c r="F156">
-        <v>0.4955</v>
+        <v>0.4976</v>
       </c>
       <c r="G156" t="s">
         <v>35</v>
@@ -4405,22 +4408,22 @@
         <v>124</v>
       </c>
       <c r="B157" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C157">
-        <v>0.4846</v>
+        <v>0.4935</v>
       </c>
       <c r="D157">
-        <v>0.0488</v>
+        <v>0.0426</v>
       </c>
       <c r="E157">
-        <v>0.0133</v>
+        <v>0.0023</v>
       </c>
       <c r="F157">
-        <v>0.4903</v>
+        <v>0.4976</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4428,22 +4431,22 @@
         <v>124</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>44</v>
       </c>
       <c r="C158">
-        <v>0.4749</v>
+        <v>0.4896</v>
       </c>
       <c r="D158">
-        <v>0.1307</v>
+        <v>0.0737</v>
       </c>
       <c r="E158">
-        <v>0.6899999999999999</v>
+        <v>0.011</v>
       </c>
       <c r="F158">
-        <v>0.4901</v>
+        <v>0.4967</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4451,22 +4454,22 @@
         <v>124</v>
       </c>
       <c r="B159" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C159">
-        <v>0.483</v>
+        <v>0.4772</v>
       </c>
       <c r="D159">
-        <v>0.0554</v>
+        <v>0.1207</v>
       </c>
       <c r="E159">
-        <v>0.0107</v>
+        <v>0.6545</v>
       </c>
       <c r="F159">
-        <v>0.4894</v>
+        <v>0.4888</v>
       </c>
       <c r="G159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4474,22 +4477,22 @@
         <v>124</v>
       </c>
       <c r="B160" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C160">
-        <v>0.4858</v>
+        <v>0.4818</v>
       </c>
       <c r="D160">
-        <v>0.0229</v>
+        <v>0.0677</v>
       </c>
       <c r="E160">
-        <v>0.0008</v>
+        <v>0.0158</v>
       </c>
       <c r="F160">
-        <v>0.4885</v>
+        <v>0.4883</v>
       </c>
       <c r="G160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4497,22 +4500,22 @@
         <v>124</v>
       </c>
       <c r="B161" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="C161">
-        <v>0.4851</v>
+        <v>0.4855</v>
       </c>
       <c r="D161">
-        <v>0.0106</v>
+        <v>0.0255</v>
       </c>
       <c r="E161">
-        <v>0.0119</v>
+        <v>0.001</v>
       </c>
       <c r="F161">
-        <v>0.4863</v>
+        <v>0.4879</v>
       </c>
       <c r="G161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4520,22 +4523,22 @@
         <v>124</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C162">
-        <v>0.4755</v>
+        <v>0.4854</v>
       </c>
       <c r="D162">
-        <v>0.0464</v>
+        <v>0.0164</v>
       </c>
       <c r="E162">
-        <v>0.06759999999999999</v>
+        <v>0.0178</v>
       </c>
       <c r="F162">
-        <v>0.4809</v>
+        <v>0.487</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4543,22 +4546,91 @@
         <v>124</v>
       </c>
       <c r="B163" t="s">
-        <v>89</v>
+        <v>41</v>
       </c>
       <c r="C163">
+        <v>0.4812</v>
+      </c>
+      <c r="D163">
+        <v>0.0594</v>
+      </c>
+      <c r="E163">
+        <v>0.0916</v>
+      </c>
+      <c r="F163">
+        <v>0.4869</v>
+      </c>
+      <c r="G163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164">
         <v>0.4781</v>
       </c>
-      <c r="D163">
-        <v>0.0147</v>
-      </c>
-      <c r="E163">
-        <v>0.0069</v>
-      </c>
-      <c r="F163">
-        <v>0.4798</v>
-      </c>
-      <c r="G163" t="s">
-        <v>47</v>
+      <c r="D164">
+        <v>0.058</v>
+      </c>
+      <c r="E164">
+        <v>0.0165</v>
+      </c>
+      <c r="F164">
+        <v>0.4837</v>
+      </c>
+      <c r="G164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>124</v>
+      </c>
+      <c r="B165" t="s">
+        <v>86</v>
+      </c>
+      <c r="C165">
+        <v>0.4814</v>
+      </c>
+      <c r="D165">
+        <v>0.0177</v>
+      </c>
+      <c r="E165">
+        <v>0.008200000000000001</v>
+      </c>
+      <c r="F165">
+        <v>0.4831</v>
+      </c>
+      <c r="G165" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>124</v>
+      </c>
+      <c r="B166" t="s">
+        <v>98</v>
+      </c>
+      <c r="C166">
+        <v>0.4731</v>
+      </c>
+      <c r="D166">
+        <v>0.0136</v>
+      </c>
+      <c r="E166">
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="F166">
+        <v>0.4744</v>
+      </c>
+      <c r="G166" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4571,7 +4643,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G105"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4605,22 +4677,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>0.8333</v>
+        <v>0.6622</v>
       </c>
       <c r="D2">
-        <v>0.0108</v>
+        <v>0.0105</v>
       </c>
       <c r="E2">
-        <v>0.0018</v>
+        <v>0.0095</v>
       </c>
       <c r="F2">
-        <v>0.8426</v>
+        <v>0.6669</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4628,22 +4700,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>0.6329</v>
+        <v>0.5431</v>
       </c>
       <c r="D3">
-        <v>0.1416</v>
+        <v>0.102</v>
       </c>
       <c r="E3">
-        <v>0.3674</v>
+        <v>0.0027</v>
       </c>
       <c r="F3">
-        <v>0.7544</v>
+        <v>0.5888</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4651,22 +4723,22 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>0.6842</v>
+        <v>0.5742</v>
       </c>
       <c r="D4">
-        <v>0.034</v>
+        <v>0.0296</v>
       </c>
       <c r="E4">
-        <v>0.0018</v>
+        <v>0.0167</v>
       </c>
       <c r="F4">
-        <v>0.7134</v>
+        <v>0.5875</v>
       </c>
       <c r="G4" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4674,22 +4746,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.6667</v>
+        <v>0.5138</v>
       </c>
       <c r="D5">
-        <v>0.0215</v>
+        <v>0.139</v>
       </c>
       <c r="E5">
-        <v>0.0287</v>
+        <v>0.0747</v>
       </c>
       <c r="F5">
-        <v>0.6852</v>
+        <v>0.5760999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4697,22 +4769,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C6">
-        <v>0.6471</v>
+        <v>0.5602</v>
       </c>
       <c r="D6">
-        <v>0.0305</v>
+        <v>0.0306</v>
       </c>
       <c r="E6">
-        <v>0.0018</v>
+        <v>0.2856</v>
       </c>
       <c r="F6">
-        <v>0.6733</v>
+        <v>0.5739</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4720,19 +4792,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>0.5333</v>
+        <v>0.5375</v>
       </c>
       <c r="D7">
-        <v>0.1075</v>
+        <v>0.0793</v>
       </c>
       <c r="E7">
-        <v>0.0233</v>
+        <v>0.0119</v>
       </c>
       <c r="F7">
-        <v>0.6256</v>
+        <v>0.573</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -4743,19 +4815,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>0.5556</v>
+        <v>0.5099</v>
       </c>
       <c r="D8">
-        <v>0.0806</v>
+        <v>0.1292</v>
       </c>
       <c r="E8">
-        <v>0.0376</v>
+        <v>0.4286</v>
       </c>
       <c r="F8">
-        <v>0.6248</v>
+        <v>0.5678</v>
       </c>
       <c r="G8" t="s">
         <v>15</v>
@@ -4766,22 +4838,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>0.5139</v>
+        <v>0.5452</v>
       </c>
       <c r="D9">
-        <v>0.129</v>
+        <v>0.0486</v>
       </c>
       <c r="E9">
-        <v>0.1075</v>
+        <v>0.0003</v>
       </c>
       <c r="F9">
-        <v>0.6246</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4789,22 +4861,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>0.5256999999999999</v>
       </c>
       <c r="D10">
-        <v>0.0269</v>
+        <v>0.09080000000000001</v>
       </c>
       <c r="E10">
-        <v>0.3692</v>
+        <v>0.0173</v>
       </c>
       <c r="F10">
-        <v>0.6231</v>
+        <v>0.5664</v>
       </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4812,22 +4884,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C11">
-        <v>0.4831</v>
+        <v>0.5299</v>
       </c>
       <c r="D11">
-        <v>0.1595</v>
+        <v>0.0759</v>
       </c>
       <c r="E11">
-        <v>0.08599999999999999</v>
+        <v>0.0179</v>
       </c>
       <c r="F11">
-        <v>0.62</v>
+        <v>0.5639</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4835,22 +4907,22 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>0.5881999999999999</v>
+        <v>0.5474</v>
       </c>
       <c r="D12">
-        <v>0.0305</v>
+        <v>0.0269</v>
       </c>
       <c r="E12">
-        <v>0.0125</v>
+        <v>0.0004</v>
       </c>
       <c r="F12">
-        <v>0.6143999999999999</v>
+        <v>0.5595</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4858,22 +4930,22 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C13">
-        <v>0.4932</v>
+        <v>0.5475</v>
       </c>
       <c r="D13">
-        <v>0.1308</v>
+        <v>0.0254</v>
       </c>
       <c r="E13">
-        <v>0.06809999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="F13">
-        <v>0.6055</v>
+        <v>0.5589</v>
       </c>
       <c r="G13" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4881,22 +4953,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.5482</v>
       </c>
       <c r="D14">
-        <v>0.09320000000000001</v>
+        <v>0.0235</v>
       </c>
       <c r="E14">
-        <v>0.0573</v>
+        <v>0.3443</v>
       </c>
       <c r="F14">
-        <v>0.58</v>
+        <v>0.5587</v>
       </c>
       <c r="G14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4904,22 +4976,22 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>0.4894</v>
+        <v>0.5478</v>
       </c>
       <c r="D15">
-        <v>0.0842</v>
+        <v>0.0222</v>
       </c>
       <c r="E15">
-        <v>0.052</v>
+        <v>0.0247</v>
       </c>
       <c r="F15">
-        <v>0.5617</v>
+        <v>0.5578</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4927,22 +4999,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C16">
-        <v>0.5263</v>
+        <v>0.4975</v>
       </c>
       <c r="D16">
-        <v>0.034</v>
+        <v>0.1116</v>
       </c>
       <c r="E16">
-        <v>0.0072</v>
+        <v>0.031</v>
       </c>
       <c r="F16">
-        <v>0.5555</v>
+        <v>0.5475</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4950,22 +5022,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C17">
-        <v>0.4722</v>
+        <v>0.5272</v>
       </c>
       <c r="D17">
-        <v>0.0645</v>
+        <v>0.0417</v>
       </c>
       <c r="E17">
-        <v>0.0018</v>
+        <v>0.003</v>
       </c>
       <c r="F17">
-        <v>0.5276</v>
+        <v>0.5459000000000001</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4973,22 +5045,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0.4231</v>
+        <v>0.4882</v>
       </c>
       <c r="D18">
-        <v>0.09320000000000001</v>
+        <v>0.1138</v>
       </c>
       <c r="E18">
-        <v>0.0591</v>
+        <v>0.0897</v>
       </c>
       <c r="F18">
-        <v>0.5031</v>
+        <v>0.5392</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4996,22 +5068,22 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C19">
-        <v>0.4706</v>
+        <v>0.5202</v>
       </c>
       <c r="D19">
-        <v>0.0305</v>
+        <v>0.0316</v>
       </c>
       <c r="E19">
-        <v>0.4373</v>
+        <v>0.0316</v>
       </c>
       <c r="F19">
-        <v>0.4968</v>
+        <v>0.5344</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5019,22 +5091,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C20">
-        <v>0.4667</v>
+        <v>0.4895</v>
       </c>
       <c r="D20">
-        <v>0.0269</v>
+        <v>0.0944</v>
       </c>
       <c r="E20">
-        <v>0.0036</v>
+        <v>0.0579</v>
       </c>
       <c r="F20">
-        <v>0.4898</v>
+        <v>0.5318000000000001</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5042,22 +5114,22 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
-        <v>0.4444</v>
+        <v>0.4846</v>
       </c>
       <c r="D21">
-        <v>0.0484</v>
+        <v>0.0646</v>
       </c>
       <c r="E21">
-        <v>0.1022</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="F21">
-        <v>0.4859</v>
+        <v>0.5135999999999999</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5065,22 +5137,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="C22">
-        <v>0.4615</v>
+        <v>0.4675</v>
       </c>
       <c r="D22">
-        <v>0.0233</v>
+        <v>0.0958</v>
       </c>
       <c r="E22">
-        <v>0.7437</v>
+        <v>0.0021</v>
       </c>
       <c r="F22">
-        <v>0.4815</v>
+        <v>0.5104</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5088,19 +5160,19 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C23">
-        <v>0.3864</v>
+        <v>0.4771</v>
       </c>
       <c r="D23">
-        <v>0.0789</v>
+        <v>0.068</v>
       </c>
       <c r="E23">
-        <v>0.008999999999999999</v>
+        <v>0.0235</v>
       </c>
       <c r="F23">
-        <v>0.4541</v>
+        <v>0.5076000000000001</v>
       </c>
       <c r="G23" t="s">
         <v>35</v>
@@ -5111,19 +5183,19 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>0.4211</v>
+        <v>0.4614</v>
       </c>
       <c r="D24">
-        <v>0.034</v>
+        <v>0.09180000000000001</v>
       </c>
       <c r="E24">
-        <v>0.0054</v>
+        <v>0.0146</v>
       </c>
       <c r="F24">
-        <v>0.4503</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="G24" t="s">
         <v>35</v>
@@ -5134,19 +5206,19 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C25">
-        <v>0.3939</v>
+        <v>0.4895</v>
       </c>
       <c r="D25">
-        <v>0.0591</v>
+        <v>0.0269</v>
       </c>
       <c r="E25">
-        <v>0.0287</v>
+        <v>0.0048</v>
       </c>
       <c r="F25">
-        <v>0.4446</v>
+        <v>0.5016</v>
       </c>
       <c r="G25" t="s">
         <v>35</v>
@@ -5157,1080 +5229,1080 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C26">
-        <v>0.2857</v>
+        <v>0.4692</v>
       </c>
       <c r="D26">
-        <v>0.0125</v>
+        <v>0.0414</v>
       </c>
       <c r="E26">
-        <v>0.0018</v>
+        <v>0.0075</v>
       </c>
       <c r="F26">
-        <v>0.2964</v>
+        <v>0.4878</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C27">
-        <v>0.7143</v>
+        <v>0.4591</v>
       </c>
       <c r="D27">
-        <v>0.0251</v>
+        <v>0.0485</v>
       </c>
       <c r="E27">
-        <v>0.0054</v>
+        <v>0.0016</v>
       </c>
       <c r="F27">
-        <v>0.7251</v>
+        <v>0.4808</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C28">
-        <v>0.6452</v>
+        <v>0.4598</v>
       </c>
       <c r="D28">
-        <v>0.0556</v>
+        <v>0.0123</v>
       </c>
       <c r="E28">
-        <v>0.0233</v>
+        <v>0.0007</v>
       </c>
       <c r="F28">
-        <v>0.6692</v>
+        <v>0.4653</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
+        <v>16</v>
       </c>
       <c r="C29">
-        <v>0.6102</v>
+        <v>0.4505</v>
       </c>
       <c r="D29">
-        <v>0.1057</v>
+        <v>0.0286</v>
       </c>
       <c r="E29">
-        <v>0.008999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="F29">
-        <v>0.6559</v>
+        <v>0.4633</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="C30">
-        <v>0.6364</v>
+        <v>0.4545</v>
       </c>
       <c r="D30">
-        <v>0.0197</v>
+        <v>0.0125</v>
       </c>
       <c r="E30">
-        <v>0.0072</v>
+        <v>0.0021</v>
       </c>
       <c r="F30">
-        <v>0.6449</v>
+        <v>0.4601</v>
       </c>
       <c r="G30" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="C31">
-        <v>0.5366</v>
+        <v>0.4298</v>
       </c>
       <c r="D31">
-        <v>0.2204</v>
+        <v>0.0514</v>
       </c>
       <c r="E31">
-        <v>0.1631</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F31">
-        <v>0.6319</v>
+        <v>0.4528</v>
       </c>
       <c r="G31" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="C32">
-        <v>0.6111</v>
+        <v>0.4273</v>
       </c>
       <c r="D32">
-        <v>0.0323</v>
+        <v>0.0156</v>
       </c>
       <c r="E32">
-        <v>0.0376</v>
+        <v>0.8174</v>
       </c>
       <c r="F32">
-        <v>0.6251</v>
+        <v>0.4343</v>
       </c>
       <c r="G32" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C33">
-        <v>0.5938</v>
+        <v>0.413</v>
       </c>
       <c r="D33">
-        <v>0.0573</v>
+        <v>0.013</v>
       </c>
       <c r="E33">
-        <v>0.0054</v>
+        <v>0.0008</v>
       </c>
       <c r="F33">
-        <v>0.6186</v>
+        <v>0.4188</v>
       </c>
       <c r="G33" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>0.5741000000000001</v>
+        <v>0.6545</v>
       </c>
       <c r="D34">
-        <v>0.0968</v>
+        <v>0.0156</v>
       </c>
       <c r="E34">
-        <v>0.3746</v>
+        <v>0.0747</v>
       </c>
       <c r="F34">
-        <v>0.6159</v>
+        <v>0.6587</v>
       </c>
       <c r="G34" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="C35">
-        <v>0.5881999999999999</v>
+        <v>0.5931999999999999</v>
       </c>
       <c r="D35">
-        <v>0.0305</v>
+        <v>0.0373</v>
       </c>
       <c r="E35">
-        <v>0.08599999999999999</v>
+        <v>0.0052</v>
       </c>
       <c r="F35">
-        <v>0.6014</v>
+        <v>0.6032</v>
       </c>
       <c r="G35" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>0.5632</v>
       </c>
       <c r="D36">
-        <v>0.1685</v>
+        <v>0.0392</v>
       </c>
       <c r="E36">
-        <v>0.3692</v>
+        <v>0.0132</v>
       </c>
       <c r="F36">
-        <v>0.5728</v>
+        <v>0.5737</v>
       </c>
       <c r="G36" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
+        <v>0.5024</v>
       </c>
       <c r="D37">
-        <v>0.0287</v>
+        <v>0.2389</v>
       </c>
       <c r="E37">
-        <v>0.0036</v>
+        <v>0.1835</v>
       </c>
       <c r="F37">
-        <v>0.5124</v>
+        <v>0.5664</v>
       </c>
       <c r="G37" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C38">
-        <v>0.5</v>
+        <v>0.5551</v>
       </c>
       <c r="D38">
-        <v>0.0179</v>
+        <v>0.0347</v>
       </c>
       <c r="E38">
-        <v>0.008999999999999999</v>
+        <v>0.1985</v>
       </c>
       <c r="F38">
-        <v>0.5077</v>
+        <v>0.5644</v>
       </c>
       <c r="G38" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>0.5269</v>
       </c>
       <c r="D39">
-        <v>0.0143</v>
+        <v>0.1213</v>
       </c>
       <c r="E39">
-        <v>0.0072</v>
+        <v>0.3443</v>
       </c>
       <c r="F39">
-        <v>0.5062</v>
+        <v>0.5594</v>
       </c>
       <c r="G39" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="C40">
-        <v>0.4507</v>
+        <v>0.5521</v>
       </c>
       <c r="D40">
-        <v>0.1272</v>
+        <v>0.0231</v>
       </c>
       <c r="E40">
-        <v>0.1075</v>
+        <v>0.0013</v>
       </c>
       <c r="F40">
-        <v>0.5057</v>
+        <v>0.5583</v>
       </c>
       <c r="G40" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="C41">
-        <v>0.45</v>
+        <v>0.5484</v>
       </c>
       <c r="D41">
-        <v>0.1075</v>
+        <v>0.0176</v>
       </c>
       <c r="E41">
-        <v>0.0125</v>
+        <v>0.001</v>
       </c>
       <c r="F41">
-        <v>0.4965</v>
+        <v>0.5531</v>
       </c>
       <c r="G41" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C42">
-        <v>0.45</v>
+        <v>0.5251</v>
       </c>
       <c r="D42">
-        <v>0.0717</v>
+        <v>0.0988</v>
       </c>
       <c r="E42">
-        <v>0.0502</v>
+        <v>0.0092</v>
       </c>
       <c r="F42">
-        <v>0.481</v>
+        <v>0.5515</v>
       </c>
       <c r="G42" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="C43">
-        <v>0.4412</v>
+        <v>0.5377999999999999</v>
       </c>
       <c r="D43">
-        <v>0.0609</v>
+        <v>0.0469</v>
       </c>
       <c r="E43">
-        <v>0.233</v>
+        <v>0.0247</v>
       </c>
       <c r="F43">
-        <v>0.4675</v>
+        <v>0.5504</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C44">
-        <v>0.4242</v>
+        <v>0.536</v>
       </c>
       <c r="D44">
-        <v>0.0591</v>
+        <v>0.0315</v>
       </c>
       <c r="E44">
-        <v>0.0358</v>
+        <v>0.0064</v>
       </c>
       <c r="F44">
-        <v>0.4497</v>
+        <v>0.5444</v>
       </c>
       <c r="G44" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C45">
-        <v>0.3898</v>
+        <v>0.5368000000000001</v>
       </c>
       <c r="D45">
-        <v>0.1057</v>
+        <v>0.0193</v>
       </c>
       <c r="E45">
-        <v>0.0072</v>
+        <v>0.0179</v>
       </c>
       <c r="F45">
-        <v>0.4355</v>
+        <v>0.542</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C46">
-        <v>0.4</v>
+        <v>0.512</v>
       </c>
       <c r="D46">
-        <v>0.0269</v>
+        <v>0.1118</v>
       </c>
       <c r="E46">
-        <v>0.0573</v>
+        <v>0.0897</v>
       </c>
       <c r="F46">
-        <v>0.4116</v>
+        <v>0.5419</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C47">
-        <v>0.3784</v>
+        <v>0.5087</v>
       </c>
       <c r="D47">
-        <v>0.0663</v>
+        <v>0.1142</v>
       </c>
       <c r="E47">
-        <v>0.0197</v>
+        <v>0.0105</v>
       </c>
       <c r="F47">
-        <v>0.4071</v>
+        <v>0.5393</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C48">
-        <v>0.3889</v>
+        <v>0.5172</v>
       </c>
       <c r="D48">
-        <v>0.0323</v>
+        <v>0.0575</v>
       </c>
       <c r="E48">
-        <v>0.0018</v>
+        <v>0.0186</v>
       </c>
       <c r="F48">
-        <v>0.4029</v>
+        <v>0.5326</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="C49">
-        <v>0.3438</v>
+        <v>0.512</v>
       </c>
       <c r="D49">
-        <v>0.0573</v>
+        <v>0.0473</v>
       </c>
       <c r="E49">
-        <v>0.3674</v>
+        <v>0.0004</v>
       </c>
       <c r="F49">
-        <v>0.3686</v>
+        <v>0.5247000000000001</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="C50">
-        <v>0.3333</v>
+        <v>0.5194</v>
       </c>
       <c r="D50">
-        <v>0.0269</v>
+        <v>0.0183</v>
       </c>
       <c r="E50">
-        <v>0.0125</v>
+        <v>0.0008</v>
       </c>
       <c r="F50">
-        <v>0.3449</v>
+        <v>0.5243</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="C51">
-        <v>0.8125</v>
+        <v>0.4934</v>
       </c>
       <c r="D51">
-        <v>0.0287</v>
+        <v>0.0973</v>
       </c>
       <c r="E51">
-        <v>0.06809999999999999</v>
+        <v>0.4209</v>
       </c>
       <c r="F51">
-        <v>0.8565</v>
+        <v>0.5194</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="C52">
-        <v>0.7272999999999999</v>
+        <v>0.5011</v>
       </c>
       <c r="D52">
-        <v>0.0591</v>
+        <v>0.06279999999999999</v>
       </c>
       <c r="E52">
-        <v>0.1022</v>
+        <v>0.4286</v>
       </c>
       <c r="F52">
-        <v>0.8178</v>
+        <v>0.5179</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>0.7272999999999999</v>
+        <v>0.5132</v>
       </c>
       <c r="D53">
-        <v>0.0197</v>
+        <v>0.0108</v>
       </c>
       <c r="E53">
-        <v>0.0233</v>
+        <v>0.003</v>
       </c>
       <c r="F53">
-        <v>0.7575</v>
+        <v>0.5161</v>
       </c>
       <c r="G53" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C54">
-        <v>0.7</v>
+        <v>0.4978</v>
       </c>
       <c r="D54">
-        <v>0.0358</v>
+        <v>0.0646</v>
       </c>
       <c r="E54">
-        <v>0.0036</v>
+        <v>0.0222</v>
       </c>
       <c r="F54">
-        <v>0.7548</v>
+        <v>0.5151</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C55">
-        <v>0.7143</v>
+        <v>0.4953</v>
       </c>
       <c r="D55">
-        <v>0.0251</v>
+        <v>0.0452</v>
       </c>
       <c r="E55">
-        <v>0.0233</v>
+        <v>0.0095</v>
       </c>
       <c r="F55">
-        <v>0.7527</v>
+        <v>0.5074</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C56">
-        <v>0.5493</v>
+        <v>0.4913</v>
       </c>
       <c r="D56">
-        <v>0.1272</v>
+        <v>0.0571</v>
       </c>
       <c r="E56">
-        <v>0.1219</v>
+        <v>0.0011</v>
       </c>
       <c r="F56">
-        <v>0.7442</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B57" t="s">
         <v>44</v>
       </c>
       <c r="C57">
-        <v>0.5405</v>
+        <v>0.5</v>
       </c>
       <c r="D57">
-        <v>0.1326</v>
+        <v>0.0142</v>
       </c>
       <c r="E57">
-        <v>0.7437</v>
+        <v>0.0422</v>
       </c>
       <c r="F57">
-        <v>0.7436</v>
+        <v>0.5038</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B58" t="s">
-        <v>128</v>
+        <v>59</v>
       </c>
       <c r="C58">
-        <v>0.65</v>
+        <v>0.4885</v>
       </c>
       <c r="D58">
-        <v>0.0358</v>
+        <v>0.0557</v>
       </c>
       <c r="E58">
-        <v>0.0179</v>
+        <v>0.0275</v>
       </c>
       <c r="F58">
-        <v>0.7048</v>
+        <v>0.5034</v>
       </c>
       <c r="G58" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="C59">
-        <v>0.5556</v>
+        <v>0.4932</v>
       </c>
       <c r="D59">
-        <v>0.0968</v>
+        <v>0.021</v>
       </c>
       <c r="E59">
-        <v>0.0072</v>
+        <v>0.0003</v>
       </c>
       <c r="F59">
-        <v>0.7039</v>
+        <v>0.4988</v>
       </c>
       <c r="G59" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="C60">
-        <v>0.5814</v>
+        <v>0.4924</v>
       </c>
       <c r="D60">
-        <v>0.0771</v>
+        <v>0.0187</v>
       </c>
       <c r="E60">
-        <v>0.052</v>
+        <v>0.0001</v>
       </c>
       <c r="F60">
-        <v>0.6995</v>
+        <v>0.4974</v>
       </c>
       <c r="G60" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B61" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C61">
-        <v>0.6667</v>
+        <v>0.4723</v>
       </c>
       <c r="D61">
-        <v>0.0161</v>
+        <v>0.0921</v>
       </c>
       <c r="E61">
-        <v>0.0072</v>
+        <v>0.0055</v>
       </c>
       <c r="F61">
-        <v>0.6914</v>
+        <v>0.497</v>
       </c>
       <c r="G61" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C62">
-        <v>0.5714</v>
+        <v>0.4823</v>
       </c>
       <c r="D62">
-        <v>0.07530000000000001</v>
+        <v>0.052</v>
       </c>
       <c r="E62">
-        <v>0.0036</v>
+        <v>0.0003</v>
       </c>
       <c r="F62">
-        <v>0.6867</v>
+        <v>0.4962</v>
       </c>
       <c r="G62" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="C63">
-        <v>0.5769</v>
+        <v>0.4808</v>
       </c>
       <c r="D63">
-        <v>0.0466</v>
+        <v>0.0221</v>
       </c>
       <c r="E63">
-        <v>0.0287</v>
+        <v>0.0013</v>
       </c>
       <c r="F63">
-        <v>0.6483</v>
+        <v>0.4867</v>
       </c>
       <c r="G63" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>0.5517</v>
+        <v>0.4536</v>
       </c>
       <c r="D64">
-        <v>0.052</v>
+        <v>0.0412</v>
       </c>
       <c r="E64">
-        <v>0.0018</v>
+        <v>0.0007</v>
       </c>
       <c r="F64">
-        <v>0.6314</v>
+        <v>0.4646</v>
       </c>
       <c r="G64" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B65" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C65">
-        <v>0.463</v>
+        <v>0.4524</v>
       </c>
       <c r="D65">
-        <v>0.0968</v>
+        <v>0.0238</v>
       </c>
       <c r="E65">
-        <v>0.0538</v>
+        <v>0.0004</v>
       </c>
       <c r="F65">
-        <v>0.6113</v>
+        <v>0.4588</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B66" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="C66">
-        <v>0.5714</v>
+        <v>0.4486</v>
       </c>
       <c r="D66">
-        <v>0.0251</v>
+        <v>0.0262</v>
       </c>
       <c r="E66">
-        <v>0.3746</v>
+        <v>0.0316</v>
       </c>
       <c r="F66">
-        <v>0.6098</v>
+        <v>0.4556</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C67">
-        <v>0.5625</v>
+        <v>0.4307</v>
       </c>
       <c r="D67">
-        <v>0.0287</v>
+        <v>0.0286</v>
       </c>
       <c r="E67">
-        <v>0.0018</v>
+        <v>0.0004</v>
       </c>
       <c r="F67">
-        <v>0.6065</v>
+        <v>0.4384</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>0.5625</v>
+        <v>0.4265</v>
       </c>
       <c r="D68">
-        <v>0.0287</v>
+        <v>0.0289</v>
       </c>
       <c r="E68">
-        <v>0.0018</v>
+        <v>0.0016</v>
       </c>
       <c r="F68">
-        <v>0.6065</v>
+        <v>0.4342</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="C69">
-        <v>0.5455</v>
+        <v>0.4167</v>
       </c>
       <c r="D69">
-        <v>0.0394</v>
+        <v>0.0102</v>
       </c>
       <c r="E69">
-        <v>0.0108</v>
+        <v>0.0021</v>
       </c>
       <c r="F69">
-        <v>0.6059</v>
+        <v>0.4194</v>
       </c>
       <c r="G69" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B70" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="C70">
-        <v>0.4872</v>
+        <v>0.408</v>
       </c>
       <c r="D70">
-        <v>0.0699</v>
+        <v>0.0177</v>
       </c>
       <c r="E70">
-        <v>0.0072</v>
+        <v>0.0146</v>
       </c>
       <c r="F70">
-        <v>0.5943000000000001</v>
+        <v>0.4127</v>
       </c>
       <c r="G70" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C71">
-        <v>0.4348</v>
+        <v>0.4077</v>
       </c>
       <c r="D71">
-        <v>0.0824</v>
+        <v>0.0184</v>
       </c>
       <c r="E71">
-        <v>0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="F71">
-        <v>0.5610000000000001</v>
+        <v>0.4126</v>
       </c>
       <c r="G71" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="C72">
-        <v>0.3594</v>
+        <v>0.3987</v>
       </c>
       <c r="D72">
-        <v>0.1147</v>
+        <v>0.0448</v>
       </c>
       <c r="E72">
-        <v>0.0054</v>
+        <v>0.0242</v>
       </c>
       <c r="F72">
-        <v>0.5351</v>
+        <v>0.4107</v>
       </c>
       <c r="G72" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6238,22 +6310,22 @@
         <v>82</v>
       </c>
       <c r="B73" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
       <c r="C73">
-        <v>0.3846</v>
+        <v>0.5921999999999999</v>
       </c>
       <c r="D73">
-        <v>0.0466</v>
+        <v>0.08690000000000001</v>
       </c>
       <c r="E73">
-        <v>0.4373</v>
+        <v>0.0564</v>
       </c>
       <c r="F73">
-        <v>0.456</v>
+        <v>0.6328</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6261,22 +6333,22 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C74">
-        <v>0.3571</v>
+        <v>0.5551</v>
       </c>
       <c r="D74">
-        <v>0.0502</v>
+        <v>0.1131</v>
       </c>
       <c r="E74">
-        <v>0.0358</v>
+        <v>0.0014</v>
       </c>
       <c r="F74">
-        <v>0.434</v>
+        <v>0.608</v>
       </c>
       <c r="G74" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -6284,22 +6356,22 @@
         <v>82</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="C75">
-        <v>0.3636</v>
+        <v>0.5843</v>
       </c>
       <c r="D75">
-        <v>0.0197</v>
+        <v>0.0252</v>
       </c>
       <c r="E75">
-        <v>0.0054</v>
+        <v>0.0007</v>
       </c>
       <c r="F75">
-        <v>0.3938</v>
+        <v>0.5961</v>
       </c>
       <c r="G75" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -6307,22 +6379,22 @@
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>131</v>
       </c>
       <c r="C76">
-        <v>0.3125</v>
+        <v>0.5829</v>
       </c>
       <c r="D76">
-        <v>0.0287</v>
+        <v>0.0265</v>
       </c>
       <c r="E76">
-        <v>0.0125</v>
+        <v>0.012</v>
       </c>
       <c r="F76">
-        <v>0.3565</v>
+        <v>0.5953000000000001</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -6330,22 +6402,22 @@
         <v>82</v>
       </c>
       <c r="B77" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="C77">
-        <v>0.2857</v>
+        <v>0.5875</v>
       </c>
       <c r="D77">
-        <v>0.0376</v>
+        <v>0.0113</v>
       </c>
       <c r="E77">
-        <v>0.0054</v>
+        <v>0.031</v>
       </c>
       <c r="F77">
-        <v>0.3433</v>
+        <v>0.5928</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -6353,22 +6425,22 @@
         <v>82</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>0.2778</v>
+        <v>0.5618</v>
       </c>
       <c r="D78">
-        <v>0.0323</v>
+        <v>0.0356</v>
       </c>
       <c r="E78">
-        <v>0.0125</v>
+        <v>0.0167</v>
       </c>
       <c r="F78">
-        <v>0.3273</v>
+        <v>0.5784</v>
       </c>
       <c r="G78" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -6376,88 +6448,88 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.25</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="D79">
-        <v>0.0215</v>
+        <v>0.0225</v>
       </c>
       <c r="E79">
-        <v>0.0143</v>
+        <v>0.0027</v>
       </c>
       <c r="F79">
-        <v>0.2829</v>
+        <v>0.5765</v>
       </c>
       <c r="G79" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C80">
-        <v>0.6173</v>
+        <v>0.5682</v>
       </c>
       <c r="D80">
-        <v>0.1452</v>
+        <v>0.0125</v>
       </c>
       <c r="E80">
-        <v>0.0125</v>
+        <v>0.0237</v>
       </c>
       <c r="F80">
-        <v>0.6479</v>
+        <v>0.574</v>
       </c>
       <c r="G80" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B81" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="C81">
-        <v>0.5495</v>
+        <v>0.5556</v>
       </c>
       <c r="D81">
-        <v>0.1631</v>
+        <v>0.0319</v>
       </c>
       <c r="E81">
-        <v>0.0018</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="F81">
-        <v>0.5839</v>
+        <v>0.5705</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="C82">
-        <v>0.5155</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="D82">
-        <v>0.1738</v>
+        <v>0.1384</v>
       </c>
       <c r="E82">
-        <v>0.0305</v>
+        <v>0.0465</v>
       </c>
       <c r="F82">
-        <v>0.5521</v>
+        <v>0.5652</v>
       </c>
       <c r="G82" t="s">
         <v>15</v>
@@ -6465,22 +6537,22 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="C83">
-        <v>0.5333</v>
+        <v>0.5451</v>
       </c>
       <c r="D83">
-        <v>0.0538</v>
+        <v>0.0392</v>
       </c>
       <c r="E83">
-        <v>0.0018</v>
+        <v>0.002</v>
       </c>
       <c r="F83">
-        <v>0.5446</v>
+        <v>0.5634</v>
       </c>
       <c r="G83" t="s">
         <v>15</v>
@@ -6488,508 +6560,1612 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C84">
-        <v>0.5</v>
+        <v>0.5188</v>
       </c>
       <c r="D84">
-        <v>0.1613</v>
+        <v>0.0907</v>
       </c>
       <c r="E84">
-        <v>0.0143</v>
+        <v>0.0259</v>
       </c>
       <c r="F84">
-        <v>0.534</v>
+        <v>0.5612</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C85">
-        <v>0.4851</v>
+        <v>0.5415</v>
       </c>
       <c r="D85">
-        <v>0.181</v>
+        <v>0.0358</v>
       </c>
       <c r="E85">
-        <v>0.0036</v>
+        <v>0.0004</v>
       </c>
       <c r="F85">
-        <v>0.5232</v>
+        <v>0.5582</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C86">
-        <v>0.4844</v>
+        <v>0.5205</v>
       </c>
       <c r="D86">
-        <v>0.1147</v>
+        <v>0.0517</v>
       </c>
       <c r="E86">
-        <v>0.0036</v>
+        <v>0.0037</v>
       </c>
       <c r="F86">
-        <v>0.5086000000000001</v>
+        <v>0.5447</v>
       </c>
       <c r="G86" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B87" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>0.5145</v>
       </c>
       <c r="D87">
-        <v>0.0108</v>
+        <v>0.0633</v>
       </c>
       <c r="E87">
-        <v>0.0287</v>
+        <v>0.0262</v>
       </c>
       <c r="F87">
-        <v>0.5023</v>
+        <v>0.5441</v>
       </c>
       <c r="G87" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B88" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
       <c r="C88">
-        <v>0.4426</v>
+        <v>0.5251</v>
       </c>
       <c r="D88">
-        <v>0.2186</v>
+        <v>0.031</v>
       </c>
       <c r="E88">
-        <v>0.06809999999999999</v>
+        <v>0.0003</v>
       </c>
       <c r="F88">
-        <v>0.4887</v>
+        <v>0.5396</v>
       </c>
       <c r="G88" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C89">
-        <v>0.433</v>
+        <v>0.506</v>
       </c>
       <c r="D89">
-        <v>0.1738</v>
+        <v>0.0708</v>
       </c>
       <c r="E89">
-        <v>0.0108</v>
+        <v>0.2856</v>
       </c>
       <c r="F89">
-        <v>0.4696</v>
+        <v>0.5391</v>
       </c>
       <c r="G89" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C90">
-        <v>0.8571</v>
+        <v>0.5219</v>
       </c>
       <c r="D90">
-        <v>0.0125</v>
+        <v>0.0356</v>
       </c>
       <c r="E90">
-        <v>0.0018</v>
+        <v>0.0017</v>
       </c>
       <c r="F90">
-        <v>0.8655</v>
+        <v>0.5385</v>
       </c>
       <c r="G90" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B91" t="s">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="C91">
-        <v>0.5738</v>
+        <v>0.5238</v>
       </c>
       <c r="D91">
-        <v>0.2186</v>
+        <v>0.0119</v>
       </c>
       <c r="E91">
-        <v>0.2832</v>
+        <v>0.0037</v>
       </c>
       <c r="F91">
-        <v>0.7204</v>
+        <v>0.5294</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B92" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="C92">
-        <v>0.6119</v>
+        <v>0.4745</v>
       </c>
       <c r="D92">
-        <v>0.1201</v>
+        <v>0.1054</v>
       </c>
       <c r="E92">
-        <v>0.0018</v>
+        <v>0.8174</v>
       </c>
       <c r="F92">
-        <v>0.6924</v>
+        <v>0.5238</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B93" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C93">
-        <v>0.5758</v>
+        <v>0.4759</v>
       </c>
       <c r="D93">
-        <v>0.1183</v>
+        <v>0.1</v>
       </c>
       <c r="E93">
-        <v>0.1147</v>
+        <v>0.0101</v>
       </c>
       <c r="F93">
-        <v>0.6551</v>
+        <v>0.5227000000000001</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B94" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C94">
-        <v>0.6</v>
+        <v>0.5161</v>
       </c>
       <c r="D94">
-        <v>0.06270000000000001</v>
+        <v>0.0132</v>
       </c>
       <c r="E94">
-        <v>0.0036</v>
+        <v>0.0003</v>
       </c>
       <c r="F94">
-        <v>0.642</v>
+        <v>0.5223</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>27</v>
       </c>
       <c r="C95">
-        <v>0.5789</v>
+        <v>0.5089</v>
       </c>
       <c r="D95">
-        <v>0.06809999999999999</v>
+        <v>0.0159</v>
       </c>
       <c r="E95">
-        <v>0.0125</v>
+        <v>0.003</v>
       </c>
       <c r="F95">
-        <v>0.6246</v>
+        <v>0.5163</v>
       </c>
       <c r="G95" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B96" t="s">
-        <v>126</v>
+        <v>71</v>
       </c>
       <c r="C96">
-        <v>0.5286</v>
+        <v>0.4975</v>
       </c>
       <c r="D96">
-        <v>0.1254</v>
+        <v>0.0282</v>
       </c>
       <c r="E96">
-        <v>0.0287</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="F96">
-        <v>0.6127</v>
+        <v>0.5107</v>
       </c>
       <c r="G96" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B97" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="C97">
-        <v>0.4835</v>
+        <v>0.483</v>
       </c>
       <c r="D97">
-        <v>0.1631</v>
+        <v>0.0499</v>
       </c>
       <c r="E97">
-        <v>0.1738</v>
+        <v>0.0014</v>
       </c>
       <c r="F97">
-        <v>0.5929</v>
+        <v>0.5063</v>
       </c>
       <c r="G97" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B98" t="s">
-        <v>18</v>
+        <v>86</v>
       </c>
       <c r="C98">
-        <v>0.5179</v>
+        <v>0.4647</v>
       </c>
       <c r="D98">
-        <v>0.1004</v>
+        <v>0.08840000000000001</v>
       </c>
       <c r="E98">
-        <v>0.052</v>
+        <v>0.0021</v>
       </c>
       <c r="F98">
-        <v>0.5852000000000001</v>
+        <v>0.506</v>
       </c>
       <c r="G98" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B99" t="s">
-        <v>137</v>
+        <v>66</v>
       </c>
       <c r="C99">
-        <v>0.4824</v>
+        <v>0.4904</v>
       </c>
       <c r="D99">
-        <v>0.1523</v>
+        <v>0.0222</v>
       </c>
       <c r="E99">
-        <v>0.0179</v>
+        <v>0.4209</v>
       </c>
       <c r="F99">
-        <v>0.5845</v>
+        <v>0.5008</v>
       </c>
       <c r="G99" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B100" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C100">
-        <v>0.5122</v>
+        <v>0.4717</v>
       </c>
       <c r="D100">
-        <v>0.0735</v>
+        <v>0.0526</v>
       </c>
       <c r="E100">
-        <v>0.0179</v>
+        <v>0.0062</v>
       </c>
       <c r="F100">
-        <v>0.5615</v>
+        <v>0.4963</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B101" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>0.4821</v>
+        <v>0.4614</v>
       </c>
       <c r="D101">
-        <v>0.1004</v>
+        <v>0.0697</v>
       </c>
       <c r="E101">
-        <v>0.0143</v>
+        <v>0.0078</v>
       </c>
       <c r="F101">
-        <v>0.5494</v>
+        <v>0.494</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="C102">
-        <v>0.4643</v>
+        <v>0.4416</v>
       </c>
       <c r="D102">
-        <v>0.0502</v>
+        <v>0.1007</v>
       </c>
       <c r="E102">
-        <v>0.0018</v>
+        <v>0.0279</v>
       </c>
       <c r="F102">
-        <v>0.498</v>
+        <v>0.4887</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="C103">
-        <v>0.4</v>
+        <v>0.4759</v>
       </c>
       <c r="D103">
-        <v>0.0538</v>
+        <v>0.0235</v>
       </c>
       <c r="E103">
-        <v>0.0018</v>
+        <v>0.0004</v>
       </c>
       <c r="F103">
-        <v>0.4361</v>
+        <v>0.4869</v>
       </c>
       <c r="G103" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>139</v>
+        <v>11</v>
       </c>
       <c r="C104">
-        <v>0.2708</v>
+        <v>0.4796</v>
       </c>
       <c r="D104">
-        <v>0.172</v>
+        <v>0.0139</v>
       </c>
       <c r="E104">
-        <v>0.5789</v>
+        <v>0.0004</v>
       </c>
       <c r="F104">
-        <v>0.3861</v>
+        <v>0.4861</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
+        <v>82</v>
+      </c>
+      <c r="B105" t="s">
+        <v>28</v>
+      </c>
+      <c r="C105">
+        <v>0.4526</v>
+      </c>
+      <c r="D105">
+        <v>0.0329</v>
+      </c>
+      <c r="E105">
+        <v>0.0016</v>
+      </c>
+      <c r="F105">
+        <v>0.468</v>
+      </c>
+      <c r="G105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>82</v>
+      </c>
+      <c r="B106" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106">
+        <v>0.4608</v>
+      </c>
+      <c r="D106">
+        <v>0.0145</v>
+      </c>
+      <c r="E106">
+        <v>0.0007</v>
+      </c>
+      <c r="F106">
+        <v>0.4676</v>
+      </c>
+      <c r="G106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s">
+        <v>100</v>
+      </c>
+      <c r="C107">
+        <v>0.4461</v>
+      </c>
+      <c r="D107">
+        <v>0.0289</v>
+      </c>
+      <c r="E107">
+        <v>0.0068</v>
+      </c>
+      <c r="F107">
+        <v>0.4596</v>
+      </c>
+      <c r="G107" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>82</v>
+      </c>
+      <c r="B108" t="s">
+        <v>97</v>
+      </c>
+      <c r="C108">
+        <v>0.4409</v>
+      </c>
+      <c r="D108">
+        <v>0.036</v>
+      </c>
+      <c r="E108">
+        <v>0.001</v>
+      </c>
+      <c r="F108">
+        <v>0.4577</v>
+      </c>
+      <c r="G108" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>82</v>
+      </c>
+      <c r="B109" t="s">
+        <v>98</v>
+      </c>
+      <c r="C109">
+        <v>0.4471</v>
+      </c>
+      <c r="D109">
+        <v>0.012</v>
+      </c>
+      <c r="E109">
+        <v>0.0008</v>
+      </c>
+      <c r="F109">
+        <v>0.4527</v>
+      </c>
+      <c r="G109" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>82</v>
+      </c>
+      <c r="B110" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110">
+        <v>0.4317</v>
+      </c>
+      <c r="D110">
+        <v>0.0259</v>
+      </c>
+      <c r="E110">
+        <v>0.0193</v>
+      </c>
+      <c r="F110">
+        <v>0.4438</v>
+      </c>
+      <c r="G110" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>82</v>
+      </c>
+      <c r="B111" t="s">
+        <v>59</v>
+      </c>
+      <c r="C111">
+        <v>0.4202</v>
+      </c>
+      <c r="D111">
+        <v>0.0169</v>
+      </c>
+      <c r="E111">
+        <v>0.0275</v>
+      </c>
+      <c r="F111">
+        <v>0.4281</v>
+      </c>
+      <c r="G111" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>82</v>
+      </c>
+      <c r="B112" t="s">
+        <v>95</v>
+      </c>
+      <c r="C112">
+        <v>0.373</v>
+      </c>
+      <c r="D112">
+        <v>0.0179</v>
+      </c>
+      <c r="E112">
+        <v>0.0008</v>
+      </c>
+      <c r="F112">
+        <v>0.3814</v>
+      </c>
+      <c r="G112" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>109</v>
+      </c>
+      <c r="B113" t="s">
+        <v>100</v>
+      </c>
+      <c r="C113">
+        <v>0.5626</v>
+      </c>
+      <c r="D113">
+        <v>0.1312</v>
+      </c>
+      <c r="E113">
+        <v>0.0068</v>
+      </c>
+      <c r="F113">
+        <v>0.5805</v>
+      </c>
+      <c r="G113" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>109</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114">
+        <v>0.549</v>
+      </c>
+      <c r="D114">
+        <v>0.1272</v>
+      </c>
+      <c r="E114">
+        <v>0.0014</v>
+      </c>
+      <c r="F114">
+        <v>0.5663</v>
+      </c>
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>109</v>
+      </c>
+      <c r="B115" t="s">
+        <v>30</v>
+      </c>
+      <c r="C115">
+        <v>0.531</v>
+      </c>
+      <c r="D115">
+        <v>0.167</v>
+      </c>
+      <c r="E115">
+        <v>0.015</v>
+      </c>
+      <c r="F115">
+        <v>0.5537</v>
+      </c>
+      <c r="G115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" t="s">
+        <v>120</v>
+      </c>
+      <c r="C116">
+        <v>0.5247000000000001</v>
+      </c>
+      <c r="D116">
+        <v>0.0718</v>
+      </c>
+      <c r="E116">
+        <v>0.0014</v>
+      </c>
+      <c r="F116">
+        <v>0.5345</v>
+      </c>
+      <c r="G116" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>109</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117">
+        <v>0.5212</v>
+      </c>
+      <c r="D117">
+        <v>0.0536</v>
+      </c>
+      <c r="E117">
+        <v>0.0008</v>
+      </c>
+      <c r="F117">
+        <v>0.5285</v>
+      </c>
+      <c r="G117" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" t="s">
+        <v>108</v>
+      </c>
+      <c r="C118">
+        <v>0.5063</v>
+      </c>
+      <c r="D118">
+        <v>0.1567</v>
+      </c>
+      <c r="E118">
+        <v>0.0023</v>
+      </c>
+      <c r="F118">
+        <v>0.5276</v>
+      </c>
+      <c r="G118" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119">
+        <v>0.5091</v>
+      </c>
+      <c r="D119">
+        <v>0.133</v>
+      </c>
+      <c r="E119">
+        <v>0.001</v>
+      </c>
+      <c r="F119">
+        <v>0.5272</v>
+      </c>
+      <c r="G119" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>109</v>
+      </c>
+      <c r="B120" t="s">
+        <v>106</v>
+      </c>
+      <c r="C120">
+        <v>0.4955</v>
+      </c>
+      <c r="D120">
+        <v>0.1899</v>
+      </c>
+      <c r="E120">
+        <v>0.013</v>
+      </c>
+      <c r="F120">
+        <v>0.5214</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>109</v>
+      </c>
+      <c r="B121" t="s">
+        <v>116</v>
+      </c>
+      <c r="C121">
+        <v>0.5068</v>
+      </c>
+      <c r="D121">
+        <v>0.0827</v>
+      </c>
+      <c r="E121">
+        <v>0.0001</v>
+      </c>
+      <c r="F121">
+        <v>0.5181</v>
+      </c>
+      <c r="G121" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>109</v>
+      </c>
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122">
+        <v>0.4935</v>
+      </c>
+      <c r="D122">
+        <v>0.1631</v>
+      </c>
+      <c r="E122">
+        <v>0.0003</v>
+      </c>
+      <c r="F122">
+        <v>0.5157</v>
+      </c>
+      <c r="G122" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123">
+        <v>0.4885</v>
+      </c>
+      <c r="D123">
+        <v>0.1917</v>
+      </c>
+      <c r="E123">
+        <v>0.0115</v>
+      </c>
+      <c r="F123">
+        <v>0.5145999999999999</v>
+      </c>
+      <c r="G123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" t="s">
+        <v>119</v>
+      </c>
+      <c r="C124">
+        <v>0.4957</v>
+      </c>
+      <c r="D124">
+        <v>0.0332</v>
+      </c>
+      <c r="E124">
+        <v>0.0001</v>
+      </c>
+      <c r="F124">
+        <v>0.5002</v>
+      </c>
+      <c r="G124" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>109</v>
+      </c>
+      <c r="B125" t="s">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <v>0.4599</v>
+      </c>
+      <c r="D125">
+        <v>0.2529</v>
+      </c>
+      <c r="E125">
+        <v>0.0486</v>
+      </c>
+      <c r="F125">
+        <v>0.4944</v>
+      </c>
+      <c r="G125" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>109</v>
+      </c>
+      <c r="B126" t="s">
+        <v>111</v>
+      </c>
+      <c r="C126">
+        <v>0.4865</v>
+      </c>
+      <c r="D126">
+        <v>0.0472</v>
+      </c>
+      <c r="E126">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="F126">
+        <v>0.4929</v>
+      </c>
+      <c r="G126" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
         <v>124</v>
       </c>
-      <c r="B105" t="s">
-        <v>76</v>
-      </c>
-      <c r="C105">
-        <v>0.3333</v>
-      </c>
-      <c r="D105">
+      <c r="B127" t="s">
+        <v>58</v>
+      </c>
+      <c r="C127">
+        <v>0.6413</v>
+      </c>
+      <c r="D127">
+        <v>0.013</v>
+      </c>
+      <c r="E127">
+        <v>0.0132</v>
+      </c>
+      <c r="F127">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="G127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>124</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128">
+        <v>0.5866</v>
+      </c>
+      <c r="D128">
+        <v>0.135</v>
+      </c>
+      <c r="E128">
         <v>0.0108</v>
       </c>
-      <c r="E105">
-        <v>0.0018</v>
-      </c>
-      <c r="F105">
-        <v>0.3405</v>
-      </c>
-      <c r="G105" t="s">
-        <v>47</v>
+      <c r="F128">
+        <v>0.6217</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>124</v>
+      </c>
+      <c r="B129" t="s">
+        <v>131</v>
+      </c>
+      <c r="C129">
+        <v>0.5707</v>
+      </c>
+      <c r="D129">
+        <v>0.0581</v>
+      </c>
+      <c r="E129">
+        <v>0.012</v>
+      </c>
+      <c r="F129">
+        <v>0.5858</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <v>0.5514</v>
+      </c>
+      <c r="D130">
+        <v>0.1254</v>
+      </c>
+      <c r="E130">
+        <v>0.0016</v>
+      </c>
+      <c r="F130">
+        <v>0.584</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>124</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>0.5511</v>
+      </c>
+      <c r="D131">
+        <v>0.0499</v>
+      </c>
+      <c r="E131">
+        <v>0.0119</v>
+      </c>
+      <c r="F131">
+        <v>0.5641</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+      <c r="C132">
+        <v>0.5065</v>
+      </c>
+      <c r="D132">
+        <v>0.1843</v>
+      </c>
+      <c r="E132">
+        <v>0.2233</v>
+      </c>
+      <c r="F132">
+        <v>0.5544</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>124</v>
+      </c>
+      <c r="B133" t="s">
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <v>0.5192</v>
+      </c>
+      <c r="D133">
+        <v>0.08840000000000001</v>
+      </c>
+      <c r="E133">
+        <v>0.0027</v>
+      </c>
+      <c r="F133">
+        <v>0.5422</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>124</v>
+      </c>
+      <c r="B134" t="s">
+        <v>128</v>
+      </c>
+      <c r="C134">
+        <v>0.5109</v>
+      </c>
+      <c r="D134">
+        <v>0.1101</v>
+      </c>
+      <c r="E134">
+        <v>0.0011</v>
+      </c>
+      <c r="F134">
+        <v>0.5395</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>124</v>
+      </c>
+      <c r="B135" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135">
+        <v>0.4994</v>
+      </c>
+      <c r="D135">
+        <v>0.1095</v>
+      </c>
+      <c r="E135">
+        <v>0.0266</v>
+      </c>
+      <c r="F135">
+        <v>0.5279</v>
+      </c>
+      <c r="G135" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>124</v>
+      </c>
+      <c r="B136" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136">
+        <v>0.5067</v>
+      </c>
+      <c r="D136">
+        <v>0.07439999999999999</v>
+      </c>
+      <c r="E136">
+        <v>0.0422</v>
+      </c>
+      <c r="F136">
+        <v>0.526</v>
+      </c>
+      <c r="G136" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" t="s">
+        <v>138</v>
+      </c>
+      <c r="C137">
+        <v>0.5104</v>
+      </c>
+      <c r="D137">
+        <v>0.0475</v>
+      </c>
+      <c r="E137">
+        <v>0.0017</v>
+      </c>
+      <c r="F137">
+        <v>0.5227000000000001</v>
+      </c>
+      <c r="G137" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>124</v>
+      </c>
+      <c r="B138" t="s">
+        <v>136</v>
+      </c>
+      <c r="C138">
+        <v>0.4588</v>
+      </c>
+      <c r="D138">
+        <v>0.2427</v>
+      </c>
+      <c r="E138">
+        <v>0.2958</v>
+      </c>
+      <c r="F138">
+        <v>0.5219</v>
+      </c>
+      <c r="G138" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>124</v>
+      </c>
+      <c r="B139" t="s">
+        <v>87</v>
+      </c>
+      <c r="C139">
+        <v>0.4945</v>
+      </c>
+      <c r="D139">
+        <v>0.0776</v>
+      </c>
+      <c r="E139">
+        <v>0.0193</v>
+      </c>
+      <c r="F139">
+        <v>0.5147</v>
+      </c>
+      <c r="G139" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>124</v>
+      </c>
+      <c r="B140" t="s">
+        <v>133</v>
+      </c>
+      <c r="C140">
+        <v>0.5034</v>
+      </c>
+      <c r="D140">
+        <v>0.0419</v>
+      </c>
+      <c r="E140">
+        <v>0.001</v>
+      </c>
+      <c r="F140">
+        <v>0.5143</v>
+      </c>
+      <c r="G140" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>124</v>
+      </c>
+      <c r="B141" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141">
+        <v>0.5014999999999999</v>
+      </c>
+      <c r="D141">
+        <v>0.0458</v>
+      </c>
+      <c r="E141">
+        <v>0.0033</v>
+      </c>
+      <c r="F141">
+        <v>0.5134</v>
+      </c>
+      <c r="G141" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>124</v>
+      </c>
+      <c r="B142" t="s">
+        <v>137</v>
+      </c>
+      <c r="C142">
+        <v>0.4837</v>
+      </c>
+      <c r="D142">
+        <v>0.0955</v>
+      </c>
+      <c r="E142">
+        <v>0.0146</v>
+      </c>
+      <c r="F142">
+        <v>0.5085</v>
+      </c>
+      <c r="G142" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>124</v>
+      </c>
+      <c r="B143" t="s">
+        <v>141</v>
+      </c>
+      <c r="C143">
+        <v>0.5</v>
+      </c>
+      <c r="D143">
+        <v>0.019</v>
+      </c>
+      <c r="E143">
+        <v>0.0003</v>
+      </c>
+      <c r="F143">
+        <v>0.5049</v>
+      </c>
+      <c r="G143" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>124</v>
+      </c>
+      <c r="B144" t="s">
+        <v>139</v>
+      </c>
+      <c r="C144">
+        <v>0.458</v>
+      </c>
+      <c r="D144">
+        <v>0.1383</v>
+      </c>
+      <c r="E144">
+        <v>0.72</v>
+      </c>
+      <c r="F144">
+        <v>0.494</v>
+      </c>
+      <c r="G144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>124</v>
+      </c>
+      <c r="B145" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145">
+        <v>0.4613</v>
+      </c>
+      <c r="D145">
+        <v>0.1226</v>
+      </c>
+      <c r="E145">
+        <v>0.0001</v>
+      </c>
+      <c r="F145">
+        <v>0.4932</v>
+      </c>
+      <c r="G145" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>0.4865</v>
+      </c>
+      <c r="D146">
+        <v>0.0105</v>
+      </c>
+      <c r="E146">
+        <v>0.0167</v>
+      </c>
+      <c r="F146">
+        <v>0.4892</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>124</v>
+      </c>
+      <c r="B147" t="s">
+        <v>94</v>
+      </c>
+      <c r="C147">
+        <v>0.4828</v>
+      </c>
+      <c r="D147">
+        <v>0.0164</v>
+      </c>
+      <c r="E147">
+        <v>0.0037</v>
+      </c>
+      <c r="F147">
+        <v>0.4871</v>
+      </c>
+      <c r="G147" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>124</v>
+      </c>
+      <c r="B148" t="s">
+        <v>129</v>
+      </c>
+      <c r="C148">
+        <v>0.468</v>
+      </c>
+      <c r="D148">
+        <v>0.0554</v>
+      </c>
+      <c r="E148">
+        <v>0.0071</v>
+      </c>
+      <c r="F148">
+        <v>0.4824</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>124</v>
+      </c>
+      <c r="B149" t="s">
+        <v>41</v>
+      </c>
+      <c r="C149">
+        <v>0.473</v>
+      </c>
+      <c r="D149">
+        <v>0.0105</v>
+      </c>
+      <c r="E149">
+        <v>0.0048</v>
+      </c>
+      <c r="F149">
+        <v>0.4757</v>
+      </c>
+      <c r="G149" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>124</v>
+      </c>
+      <c r="B150" t="s">
+        <v>71</v>
+      </c>
+      <c r="C150">
+        <v>0.4646</v>
+      </c>
+      <c r="D150">
+        <v>0.014</v>
+      </c>
+      <c r="E150">
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="F150">
+        <v>0.4682</v>
+      </c>
+      <c r="G150" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>124</v>
+      </c>
+      <c r="B151" t="s">
+        <v>86</v>
+      </c>
+      <c r="C151">
+        <v>0.4177</v>
+      </c>
+      <c r="D151">
+        <v>0.0112</v>
+      </c>
+      <c r="E151">
+        <v>0.0021</v>
+      </c>
+      <c r="F151">
+        <v>0.4206</v>
+      </c>
+      <c r="G151" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>124</v>
+      </c>
+      <c r="B152" t="s">
+        <v>135</v>
+      </c>
+      <c r="C152">
+        <v>0.4149</v>
+      </c>
+      <c r="D152">
+        <v>0.0133</v>
+      </c>
+      <c r="E152">
+        <v>0.001</v>
+      </c>
+      <c r="F152">
+        <v>0.4184</v>
+      </c>
+      <c r="G152" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>124</v>
+      </c>
+      <c r="B153" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153">
+        <v>0.4068</v>
+      </c>
+      <c r="D153">
+        <v>0.0167</v>
+      </c>
+      <c r="E153">
+        <v>0.0004</v>
+      </c>
+      <c r="F153">
+        <v>0.4111</v>
+      </c>
+      <c r="G153" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/res/wrdata.xlsx
+++ b/res/wrdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="143">
   <si>
     <t>Lane</t>
   </si>
@@ -49,129 +49,129 @@
     <t>S+</t>
   </si>
   <si>
+    <t>Nasus</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Gnar</t>
+  </si>
+  <si>
     <t>Kayle</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Gnar</t>
-  </si>
-  <si>
-    <t>Nasus</t>
+    <t>Singed</t>
+  </si>
+  <si>
+    <t>Teemo</t>
+  </si>
+  <si>
+    <t>Shen</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
   <si>
     <t>Olaf</t>
   </si>
   <si>
-    <t>Singed</t>
-  </si>
-  <si>
-    <t>Shen</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Teemo</t>
-  </si>
-  <si>
     <t>Rumble</t>
   </si>
   <si>
+    <t>Ornn</t>
+  </si>
+  <si>
+    <t>Darius</t>
+  </si>
+  <si>
     <t>Volibear</t>
   </si>
   <si>
-    <t>Ornn</t>
-  </si>
-  <si>
-    <t>Darius</t>
+    <t>Aatrox</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
+    <t>Poppy</t>
+  </si>
+  <si>
+    <t>Vayne</t>
+  </si>
+  <si>
+    <t>Kennen</t>
+  </si>
+  <si>
+    <t>Yone</t>
+  </si>
+  <si>
     <t>Camille</t>
   </si>
   <si>
-    <t>Poppy</t>
-  </si>
-  <si>
-    <t>Vayne</t>
-  </si>
-  <si>
-    <t>Aatrox</t>
+    <t>Ryze</t>
+  </si>
+  <si>
+    <t>Sett</t>
   </si>
   <si>
     <t>Dr. Mundo</t>
   </si>
   <si>
-    <t>Ryze</t>
-  </si>
-  <si>
-    <t>Yone</t>
+    <t>Jax</t>
+  </si>
+  <si>
+    <t>Mordekaiser</t>
   </si>
   <si>
     <t>Irelia</t>
   </si>
   <si>
+    <t>Urgot</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Renekton</t>
+  </si>
+  <si>
+    <t>Tryndamere</t>
+  </si>
+  <si>
     <t>Fiora</t>
   </si>
   <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Sett</t>
-  </si>
-  <si>
     <t>Malphite</t>
   </si>
   <si>
     <t>Yasuo</t>
   </si>
   <si>
-    <t>Renekton</t>
+    <t>Nautilus</t>
+  </si>
+  <si>
+    <t>Maokai</t>
+  </si>
+  <si>
+    <t>Garen</t>
   </si>
   <si>
     <t>Gwen</t>
   </si>
   <si>
-    <t>Mordekaiser</t>
-  </si>
-  <si>
-    <t>Jax</t>
-  </si>
-  <si>
-    <t>Urgot</t>
-  </si>
-  <si>
-    <t>Garen</t>
-  </si>
-  <si>
-    <t>Tryndamere</t>
-  </si>
-  <si>
-    <t>Nautilus</t>
-  </si>
-  <si>
-    <t>Kennen</t>
-  </si>
-  <si>
-    <t>Maokai</t>
+    <t>Riven</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
+    <t>Sion</t>
+  </si>
+  <si>
     <t>Jayce</t>
   </si>
   <si>
-    <t>Riven</t>
-  </si>
-  <si>
-    <t>Sion</t>
-  </si>
-  <si>
     <t>Jungle</t>
   </si>
   <si>
@@ -181,268 +181,271 @@
     <t>Rammus</t>
   </si>
   <si>
+    <t>Warwick</t>
+  </si>
+  <si>
+    <t>Morgana</t>
+  </si>
+  <si>
+    <t>Lillia</t>
+  </si>
+  <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Master Yi</t>
+  </si>
+  <si>
     <t>Nilah</t>
   </si>
   <si>
-    <t>Warwick</t>
-  </si>
-  <si>
-    <t>Graves</t>
+    <t>Jarvan IV</t>
   </si>
   <si>
     <t>Ekko</t>
   </si>
   <si>
+    <t>Lee Sin</t>
+  </si>
+  <si>
+    <t>Nunu &amp; Willump</t>
+  </si>
+  <si>
+    <t>Zed</t>
+  </si>
+  <si>
+    <t>Gragas</t>
+  </si>
+  <si>
+    <t>Rengar</t>
+  </si>
+  <si>
     <t>Kindred</t>
   </si>
   <si>
-    <t>Gragas</t>
-  </si>
-  <si>
-    <t>Lillia</t>
-  </si>
-  <si>
-    <t>Zed</t>
-  </si>
-  <si>
-    <t>Lee Sin</t>
-  </si>
-  <si>
-    <t>Master Yi</t>
-  </si>
-  <si>
-    <t>Jarvan IV</t>
-  </si>
-  <si>
-    <t>Morgana</t>
-  </si>
-  <si>
-    <t>Rengar</t>
-  </si>
-  <si>
     <t>Fiddlesticks</t>
   </si>
   <si>
+    <t>Kha'Zix</t>
+  </si>
+  <si>
+    <t>Fizz</t>
+  </si>
+  <si>
     <t>Xin Zhao</t>
   </si>
   <si>
-    <t>Kha'Zix</t>
+    <t>Shyvana</t>
+  </si>
+  <si>
+    <t>Pantheon</t>
   </si>
   <si>
     <t>Hecarim</t>
   </si>
   <si>
+    <t>Diana</t>
+  </si>
+  <si>
+    <t>Kayn</t>
+  </si>
+  <si>
     <t>Talon</t>
   </si>
   <si>
-    <t>Nunu &amp; Willump</t>
-  </si>
-  <si>
-    <t>Diana</t>
-  </si>
-  <si>
-    <t>Pantheon</t>
-  </si>
-  <si>
-    <t>Fizz</t>
-  </si>
-  <si>
-    <t>Kayn</t>
+    <t>Viego</t>
+  </si>
+  <si>
+    <t>Ambessa</t>
   </si>
   <si>
     <t>Vi</t>
   </si>
   <si>
-    <t>Ambessa</t>
-  </si>
-  <si>
-    <t>Shyvana</t>
-  </si>
-  <si>
-    <t>Viego</t>
+    <t>Mid</t>
+  </si>
+  <si>
+    <t>Viktor</t>
+  </si>
+  <si>
+    <t>Zyra</t>
+  </si>
+  <si>
+    <t>Zoe</t>
+  </si>
+  <si>
+    <t>Syndra</t>
+  </si>
+  <si>
+    <t>Lux</t>
+  </si>
+  <si>
+    <t>Veigar</t>
+  </si>
+  <si>
+    <t>Orianna</t>
+  </si>
+  <si>
+    <t>Galio</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Lissandra</t>
+  </si>
+  <si>
+    <t>Swain</t>
+  </si>
+  <si>
+    <t>Ahri</t>
+  </si>
+  <si>
+    <t>Heimerdinger</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Ziggs</t>
+  </si>
+  <si>
+    <t>Vladimir</t>
+  </si>
+  <si>
+    <t>Twisted Fate</t>
+  </si>
+  <si>
+    <t>Corki</t>
+  </si>
+  <si>
+    <t>Aurelion Sol</t>
+  </si>
+  <si>
+    <t>Vex</t>
+  </si>
+  <si>
+    <t>Kassadin</t>
+  </si>
+  <si>
+    <t>Akshan</t>
+  </si>
+  <si>
+    <t>Katarina</t>
+  </si>
+  <si>
+    <t>Akali</t>
+  </si>
+  <si>
+    <t>Varus</t>
+  </si>
+  <si>
+    <t>Seraphine</t>
+  </si>
+  <si>
+    <t>Ezreal</t>
+  </si>
+  <si>
+    <t>Lucian</t>
+  </si>
+  <si>
+    <t>Bot</t>
+  </si>
+  <si>
+    <t>Sivir</t>
+  </si>
+  <si>
+    <t>Miss Fortune</t>
+  </si>
+  <si>
+    <t>Jinx</t>
+  </si>
+  <si>
+    <t>Jhin</t>
+  </si>
+  <si>
+    <t>Ashe</t>
+  </si>
+  <si>
+    <t>Caitlyn</t>
+  </si>
+  <si>
+    <t>Xayah</t>
+  </si>
+  <si>
+    <t>Zeri</t>
+  </si>
+  <si>
+    <t>Twitch</t>
+  </si>
+  <si>
+    <t>Tristana</t>
+  </si>
+  <si>
+    <t>Samira</t>
+  </si>
+  <si>
+    <t>Kai'Sa</t>
+  </si>
+  <si>
+    <t>Draven</t>
+  </si>
+  <si>
+    <t>Kalista</t>
+  </si>
+  <si>
+    <t>Sup</t>
+  </si>
+  <si>
+    <t>Blitzcrank</t>
+  </si>
+  <si>
+    <t>Sona</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>Soraka</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>Janna</t>
+  </si>
+  <si>
+    <t>Milio</t>
+  </si>
+  <si>
+    <t>Rakan</t>
+  </si>
+  <si>
+    <t>Alistar</t>
+  </si>
+  <si>
+    <t>Pyke</t>
+  </si>
+  <si>
+    <t>Braum</t>
+  </si>
+  <si>
+    <t>Lulu</t>
+  </si>
+  <si>
+    <t>Yuumi</t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Thresh</t>
+  </si>
+  <si>
+    <t>Senna</t>
   </si>
   <si>
     <t>Evelynn</t>
-  </si>
-  <si>
-    <t>Mid</t>
-  </si>
-  <si>
-    <t>Viktor</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Syndra</t>
-  </si>
-  <si>
-    <t>Heimerdinger</t>
-  </si>
-  <si>
-    <t>Zyra</t>
-  </si>
-  <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Lux</t>
-  </si>
-  <si>
-    <t>Orianna</t>
-  </si>
-  <si>
-    <t>Ahri</t>
-  </si>
-  <si>
-    <t>Lissandra</t>
-  </si>
-  <si>
-    <t>Veigar</t>
-  </si>
-  <si>
-    <t>Brand</t>
-  </si>
-  <si>
-    <t>Galio</t>
-  </si>
-  <si>
-    <t>Swain</t>
-  </si>
-  <si>
-    <t>Twisted Fate</t>
-  </si>
-  <si>
-    <t>Ziggs</t>
-  </si>
-  <si>
-    <t>Vladimir</t>
-  </si>
-  <si>
-    <t>Corki</t>
-  </si>
-  <si>
-    <t>Aurelion Sol</t>
-  </si>
-  <si>
-    <t>Vex</t>
-  </si>
-  <si>
-    <t>Kassadin</t>
-  </si>
-  <si>
-    <t>Katarina</t>
-  </si>
-  <si>
-    <t>Akali</t>
-  </si>
-  <si>
-    <t>Varus</t>
-  </si>
-  <si>
-    <t>Ezreal</t>
-  </si>
-  <si>
-    <t>Akshan</t>
-  </si>
-  <si>
-    <t>Lucian</t>
-  </si>
-  <si>
-    <t>Bot</t>
-  </si>
-  <si>
-    <t>Sivir</t>
-  </si>
-  <si>
-    <t>Miss Fortune</t>
-  </si>
-  <si>
-    <t>Jinx</t>
-  </si>
-  <si>
-    <t>Jhin</t>
-  </si>
-  <si>
-    <t>Ashe</t>
-  </si>
-  <si>
-    <t>Xayah</t>
-  </si>
-  <si>
-    <t>Caitlyn</t>
-  </si>
-  <si>
-    <t>Zeri</t>
-  </si>
-  <si>
-    <t>Twitch</t>
-  </si>
-  <si>
-    <t>Samira</t>
-  </si>
-  <si>
-    <t>Tristana</t>
-  </si>
-  <si>
-    <t>Kai'Sa</t>
-  </si>
-  <si>
-    <t>Draven</t>
-  </si>
-  <si>
-    <t>Sup</t>
-  </si>
-  <si>
-    <t>Blitzcrank</t>
-  </si>
-  <si>
-    <t>Seraphine</t>
-  </si>
-  <si>
-    <t>Sona</t>
-  </si>
-  <si>
-    <t>Milio</t>
-  </si>
-  <si>
-    <t>Karma</t>
-  </si>
-  <si>
-    <t>Soraka</t>
-  </si>
-  <si>
-    <t>Pyke</t>
-  </si>
-  <si>
-    <t>Nami</t>
-  </si>
-  <si>
-    <t>Rakan</t>
-  </si>
-  <si>
-    <t>Alistar</t>
-  </si>
-  <si>
-    <t>Janna</t>
-  </si>
-  <si>
-    <t>Lulu</t>
-  </si>
-  <si>
-    <t>Braum</t>
-  </si>
-  <si>
-    <t>Thresh</t>
-  </si>
-  <si>
-    <t>Yuumi</t>
-  </si>
-  <si>
-    <t>Leona</t>
-  </si>
-  <si>
-    <t>Senna</t>
   </si>
 </sst>
 </file>
@@ -490,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G163" totalsRowShown="0">
-  <autoFilter ref="A1:G163"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G165" totalsRowShown="0">
+  <autoFilter ref="A1:G165"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Lane"/>
     <tableColumn id="2" name="Champion"/>
@@ -506,8 +509,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G155" totalsRowShown="0">
-  <autoFilter ref="A1:G155"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G162" totalsRowShown="0">
+  <autoFilter ref="A1:G162"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Lane"/>
     <tableColumn id="2" name="Champion"/>
@@ -806,7 +809,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -843,16 +846,16 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.5459000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="D2">
-        <v>0.1006</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="E2">
-        <v>0.377</v>
+        <v>0.3705</v>
       </c>
       <c r="F2">
-        <v>0.5646</v>
+        <v>0.5681</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -866,16 +869,16 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.5443</v>
+        <v>0.5292</v>
       </c>
       <c r="D3">
-        <v>0.0403</v>
+        <v>0.1082</v>
       </c>
       <c r="E3">
-        <v>0.0024</v>
+        <v>0.0059</v>
       </c>
       <c r="F3">
-        <v>0.5518</v>
+        <v>0.5501</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -889,16 +892,16 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>0.5272</v>
+        <v>0.5264</v>
       </c>
       <c r="D4">
-        <v>0.1165</v>
+        <v>0.1126</v>
       </c>
       <c r="E4">
-        <v>0.105</v>
+        <v>0.0994</v>
       </c>
       <c r="F4">
-        <v>0.5489000000000001</v>
+        <v>0.5482</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -912,16 +915,16 @@
         <v>13</v>
       </c>
       <c r="C5">
-        <v>0.5254</v>
+        <v>0.5374</v>
       </c>
       <c r="D5">
-        <v>0.1033</v>
+        <v>0.0428</v>
       </c>
       <c r="E5">
-        <v>0.0051</v>
+        <v>0.0027</v>
       </c>
       <c r="F5">
-        <v>0.5446</v>
+        <v>0.5457</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -935,16 +938,16 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>0.5419</v>
+        <v>0.5363</v>
       </c>
       <c r="D6">
-        <v>0.0116</v>
+        <v>0.0161</v>
       </c>
       <c r="E6">
-        <v>0.0103</v>
+        <v>0.0046</v>
       </c>
       <c r="F6">
-        <v>0.5441</v>
+        <v>0.5394</v>
       </c>
       <c r="G6" t="s">
         <v>11</v>
@@ -958,16 +961,16 @@
         <v>15</v>
       </c>
       <c r="C7">
-        <v>0.5371</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="D7">
-        <v>0.0168</v>
+        <v>0.0471</v>
       </c>
       <c r="E7">
-        <v>0.0049</v>
+        <v>0.1012</v>
       </c>
       <c r="F7">
-        <v>0.5402</v>
+        <v>0.5377999999999999</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -981,16 +984,16 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0.5271</v>
+        <v>0.5275</v>
       </c>
       <c r="D8">
-        <v>0.022</v>
+        <v>0.0209</v>
       </c>
       <c r="E8">
         <v>0.0007</v>
       </c>
       <c r="F8">
-        <v>0.5312</v>
+        <v>0.5315</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1004,16 +1007,16 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>0.5228</v>
+        <v>0.5291</v>
       </c>
       <c r="D9">
-        <v>0.0438</v>
+        <v>0.0114</v>
       </c>
       <c r="E9">
-        <v>0.0917</v>
+        <v>0.01</v>
       </c>
       <c r="F9">
-        <v>0.531</v>
+        <v>0.5313</v>
       </c>
       <c r="G9" t="s">
         <v>17</v>
@@ -1027,16 +1030,16 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>0.5112</v>
+        <v>0.5102</v>
       </c>
       <c r="D10">
-        <v>0.0741</v>
+        <v>0.074</v>
       </c>
       <c r="E10">
-        <v>0.0612</v>
+        <v>0.0588</v>
       </c>
       <c r="F10">
-        <v>0.525</v>
+        <v>0.5245</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -1050,16 +1053,16 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>0.5044</v>
+        <v>0.5118</v>
       </c>
       <c r="D11">
-        <v>0.0922</v>
+        <v>0.0436</v>
       </c>
       <c r="E11">
-        <v>0.0461</v>
+        <v>0.0015</v>
       </c>
       <c r="F11">
-        <v>0.5216</v>
+        <v>0.5202</v>
       </c>
       <c r="G11" t="s">
         <v>17</v>
@@ -1073,16 +1076,16 @@
         <v>21</v>
       </c>
       <c r="C12">
-        <v>0.5113</v>
+        <v>0.4917</v>
       </c>
       <c r="D12">
-        <v>0.0466</v>
+        <v>0.1391</v>
       </c>
       <c r="E12">
-        <v>0.0015</v>
+        <v>0.014</v>
       </c>
       <c r="F12">
-        <v>0.52</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -1096,19 +1099,19 @@
         <v>22</v>
       </c>
       <c r="C13">
-        <v>0.4906</v>
+        <v>0.4999</v>
       </c>
       <c r="D13">
-        <v>0.14</v>
+        <v>0.0881</v>
       </c>
       <c r="E13">
-        <v>0.0137</v>
+        <v>0.0461</v>
       </c>
       <c r="F13">
-        <v>0.5167</v>
+        <v>0.5169</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1116,22 +1119,22 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>0.504</v>
+        <v>0.5019</v>
       </c>
       <c r="D14">
-        <v>0.0348</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="E14">
-        <v>0.003</v>
+        <v>0.041</v>
       </c>
       <c r="F14">
-        <v>0.5105</v>
+        <v>0.5147</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1142,19 +1145,19 @@
         <v>25</v>
       </c>
       <c r="C15">
-        <v>0.4943</v>
+        <v>0.4973</v>
       </c>
       <c r="D15">
-        <v>0.08450000000000001</v>
+        <v>0.0823</v>
       </c>
       <c r="E15">
-        <v>0.1068</v>
+        <v>0.0998</v>
       </c>
       <c r="F15">
-        <v>0.51</v>
+        <v>0.5132</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1165,19 +1168,19 @@
         <v>26</v>
       </c>
       <c r="C16">
-        <v>0.507</v>
+        <v>0.5084</v>
       </c>
       <c r="D16">
-        <v>0.0151</v>
+        <v>0.0161</v>
       </c>
       <c r="E16">
-        <v>0.0224</v>
+        <v>0.0239</v>
       </c>
       <c r="F16">
-        <v>0.5098</v>
+        <v>0.5115</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1188,19 +1191,19 @@
         <v>27</v>
       </c>
       <c r="C17">
-        <v>0.4969</v>
+        <v>0.5082</v>
       </c>
       <c r="D17">
-        <v>0.0673</v>
+        <v>0.0114</v>
       </c>
       <c r="E17">
-        <v>0.0418</v>
+        <v>0.0016</v>
       </c>
       <c r="F17">
-        <v>0.5094</v>
+        <v>0.5104</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1211,19 +1214,19 @@
         <v>28</v>
       </c>
       <c r="C18">
-        <v>0.4989</v>
+        <v>0.4976</v>
       </c>
       <c r="D18">
-        <v>0.0514</v>
+        <v>0.0565</v>
       </c>
       <c r="E18">
-        <v>0.006</v>
+        <v>0.0139</v>
       </c>
       <c r="F18">
         <v>0.5085</v>
       </c>
       <c r="G18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1234,19 +1237,19 @@
         <v>29</v>
       </c>
       <c r="C19">
-        <v>0.5002</v>
+        <v>0.5017</v>
       </c>
       <c r="D19">
-        <v>0.03</v>
+        <v>0.0321</v>
       </c>
       <c r="E19">
-        <v>0.8142</v>
+        <v>0.0024</v>
       </c>
       <c r="F19">
-        <v>0.5058</v>
+        <v>0.5079</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1257,19 +1260,19 @@
         <v>30</v>
       </c>
       <c r="C20">
-        <v>0.4951</v>
+        <v>0.4996</v>
       </c>
       <c r="D20">
-        <v>0.0558</v>
+        <v>0.0301</v>
       </c>
       <c r="E20">
-        <v>0.0138</v>
+        <v>0.8135</v>
       </c>
       <c r="F20">
-        <v>0.5054999999999999</v>
+        <v>0.5054</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1280,19 +1283,19 @@
         <v>31</v>
       </c>
       <c r="C21">
-        <v>0.4976</v>
+        <v>0.4912</v>
       </c>
       <c r="D21">
-        <v>0.0344</v>
+        <v>0.065</v>
       </c>
       <c r="E21">
-        <v>0.0097</v>
+        <v>0.0015</v>
       </c>
       <c r="F21">
-        <v>0.504</v>
+        <v>0.5038</v>
       </c>
       <c r="G21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1303,19 +1306,19 @@
         <v>32</v>
       </c>
       <c r="C22">
-        <v>0.4946</v>
+        <v>0.4922</v>
       </c>
       <c r="D22">
-        <v>0.0375</v>
+        <v>0.0527</v>
       </c>
       <c r="E22">
-        <v>0.0034</v>
+        <v>0.0066</v>
       </c>
       <c r="F22">
-        <v>0.5016</v>
+        <v>0.5024</v>
       </c>
       <c r="G22" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1323,22 +1326,22 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23">
-        <v>0.4885</v>
+        <v>0.492</v>
       </c>
       <c r="D23">
-        <v>0.06759999999999999</v>
+        <v>0.0488</v>
       </c>
       <c r="E23">
-        <v>0.0015</v>
+        <v>0.0021</v>
       </c>
       <c r="F23">
-        <v>0.5011</v>
+        <v>0.5014</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1346,22 +1349,22 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24">
-        <v>0.4919</v>
+        <v>0.4854</v>
       </c>
       <c r="D24">
-        <v>0.0472</v>
+        <v>0.08260000000000001</v>
       </c>
       <c r="E24">
-        <v>0.107</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="F24">
-        <v>0.5007</v>
+        <v>0.5014</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1369,22 +1372,22 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>0.493</v>
+        <v>0.4947</v>
       </c>
       <c r="D25">
-        <v>0.0366</v>
+        <v>0.033</v>
       </c>
       <c r="E25">
-        <v>0.1142</v>
+        <v>0.0092</v>
       </c>
       <c r="F25">
-        <v>0.4998</v>
+        <v>0.5011</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1392,22 +1395,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26">
+        <v>0.4885</v>
+      </c>
+      <c r="D26">
+        <v>0.0519</v>
+      </c>
+      <c r="E26">
+        <v>0.0133</v>
+      </c>
+      <c r="F26">
+        <v>0.4985</v>
+      </c>
+      <c r="G26" t="s">
         <v>37</v>
-      </c>
-      <c r="C26">
-        <v>0.4924</v>
-      </c>
-      <c r="D26">
-        <v>0.0341</v>
-      </c>
-      <c r="E26">
-        <v>0.0011</v>
-      </c>
-      <c r="F26">
-        <v>0.4988</v>
-      </c>
-      <c r="G26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1418,19 +1421,19 @@
         <v>38</v>
       </c>
       <c r="C27">
-        <v>0.4914</v>
+        <v>0.4895</v>
       </c>
       <c r="D27">
-        <v>0.0279</v>
+        <v>0.0345</v>
       </c>
       <c r="E27">
-        <v>0.0041</v>
+        <v>0.001</v>
       </c>
       <c r="F27">
-        <v>0.4966</v>
+        <v>0.4962</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1441,19 +1444,19 @@
         <v>39</v>
       </c>
       <c r="C28">
-        <v>0.481</v>
+        <v>0.4895</v>
       </c>
       <c r="D28">
-        <v>0.0827</v>
+        <v>0.0325</v>
       </c>
       <c r="E28">
-        <v>0.0738</v>
+        <v>0.0823</v>
       </c>
       <c r="F28">
-        <v>0.4964</v>
+        <v>0.4958</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1464,19 +1467,19 @@
         <v>40</v>
       </c>
       <c r="C29">
-        <v>0.4866</v>
+        <v>0.4881</v>
       </c>
       <c r="D29">
-        <v>0.0505</v>
+        <v>0.0358</v>
       </c>
       <c r="E29">
-        <v>0.0022</v>
+        <v>0.0031</v>
       </c>
       <c r="F29">
-        <v>0.496</v>
+        <v>0.495</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1490,16 +1493,16 @@
         <v>0.4851</v>
       </c>
       <c r="D30">
-        <v>0.0498</v>
+        <v>0.0488</v>
       </c>
       <c r="E30">
-        <v>0.0118</v>
+        <v>0.1161</v>
       </c>
       <c r="F30">
-        <v>0.4944</v>
+        <v>0.4945</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1510,19 +1513,19 @@
         <v>42</v>
       </c>
       <c r="C31">
-        <v>0.4748</v>
+        <v>0.4873</v>
       </c>
       <c r="D31">
-        <v>0.1036</v>
+        <v>0.0369</v>
       </c>
       <c r="E31">
-        <v>0.004</v>
+        <v>0.1089</v>
       </c>
       <c r="F31">
-        <v>0.4941</v>
+        <v>0.4944</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1533,19 +1536,19 @@
         <v>43</v>
       </c>
       <c r="C32">
-        <v>0.4849</v>
+        <v>0.4918</v>
       </c>
       <c r="D32">
-        <v>0.0317</v>
+        <v>0.0125</v>
       </c>
       <c r="E32">
-        <v>0.074</v>
+        <v>0.0108</v>
       </c>
       <c r="F32">
-        <v>0.4908</v>
+        <v>0.4942</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1556,19 +1559,19 @@
         <v>44</v>
       </c>
       <c r="C33">
-        <v>0.4872</v>
+        <v>0.4917</v>
       </c>
       <c r="D33">
-        <v>0.0119</v>
+        <v>0.0125</v>
       </c>
       <c r="E33">
-        <v>0.0106</v>
+        <v>0.0101</v>
       </c>
       <c r="F33">
-        <v>0.4894</v>
+        <v>0.4941</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1579,19 +1582,19 @@
         <v>45</v>
       </c>
       <c r="C34">
-        <v>0.4871</v>
+        <v>0.4716</v>
       </c>
       <c r="D34">
-        <v>0.0112</v>
+        <v>0.105</v>
       </c>
       <c r="E34">
-        <v>0.0016</v>
+        <v>0.0043</v>
       </c>
       <c r="F34">
-        <v>0.4892</v>
+        <v>0.4919</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1602,19 +1605,19 @@
         <v>46</v>
       </c>
       <c r="C35">
-        <v>0.4831</v>
+        <v>0.485</v>
       </c>
       <c r="D35">
-        <v>0.0127</v>
+        <v>0.0295</v>
       </c>
       <c r="E35">
-        <v>0.0102</v>
+        <v>0.0043</v>
       </c>
       <c r="F35">
-        <v>0.4855</v>
+        <v>0.4907</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1622,22 +1625,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>0.4752</v>
+      </c>
+      <c r="D36">
+        <v>0.0254</v>
+      </c>
+      <c r="E36">
+        <v>0.0789</v>
+      </c>
+      <c r="F36">
+        <v>0.4801</v>
+      </c>
+      <c r="G36" t="s">
         <v>48</v>
-      </c>
-      <c r="C36">
-        <v>0.4701</v>
-      </c>
-      <c r="D36">
-        <v>0.0193</v>
-      </c>
-      <c r="E36">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="F36">
-        <v>0.4737</v>
-      </c>
-      <c r="G36" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1648,19 +1651,19 @@
         <v>49</v>
       </c>
       <c r="C37">
-        <v>0.4689</v>
+        <v>0.4756</v>
       </c>
       <c r="D37">
-        <v>0.0257</v>
+        <v>0.0225</v>
       </c>
       <c r="E37">
-        <v>0.0911</v>
+        <v>0.0013</v>
       </c>
       <c r="F37">
-        <v>0.4737</v>
+        <v>0.48</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1671,19 +1674,19 @@
         <v>50</v>
       </c>
       <c r="C38">
-        <v>0.4673</v>
+        <v>0.4613</v>
       </c>
       <c r="D38">
-        <v>0.0218</v>
+        <v>0.019</v>
       </c>
       <c r="E38">
-        <v>0.0011</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F38">
-        <v>0.4714</v>
+        <v>0.465</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1694,16 +1697,16 @@
         <v>52</v>
       </c>
       <c r="C39">
-        <v>0.5678</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="D39">
-        <v>0.0886</v>
+        <v>0.0881</v>
       </c>
       <c r="E39">
-        <v>0.0311</v>
+        <v>0.0296</v>
       </c>
       <c r="F39">
-        <v>0.5854</v>
+        <v>0.5861</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
@@ -1717,19 +1720,19 @@
         <v>8</v>
       </c>
       <c r="C40">
-        <v>0.535</v>
+        <v>0.5335</v>
       </c>
       <c r="D40">
-        <v>0.08459999999999999</v>
+        <v>0.08550000000000001</v>
       </c>
       <c r="E40">
-        <v>0.377</v>
+        <v>0.3705</v>
       </c>
       <c r="F40">
-        <v>0.5518</v>
+        <v>0.55</v>
       </c>
       <c r="G40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1740,16 +1743,16 @@
         <v>53</v>
       </c>
       <c r="C41">
-        <v>0.5423</v>
+        <v>0.5362</v>
       </c>
       <c r="D41">
-        <v>0.0287</v>
+        <v>0.0281</v>
       </c>
       <c r="E41">
         <v>0.0043</v>
       </c>
       <c r="F41">
-        <v>0.548</v>
+        <v>0.5416</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -1763,16 +1766,16 @@
         <v>54</v>
       </c>
       <c r="C42">
-        <v>0.5396</v>
+        <v>0.5255</v>
       </c>
       <c r="D42">
-        <v>0.0165</v>
+        <v>0.0523</v>
       </c>
       <c r="E42">
-        <v>0.0343</v>
+        <v>0.0265</v>
       </c>
       <c r="F42">
-        <v>0.5429</v>
+        <v>0.5356</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -1786,16 +1789,16 @@
         <v>55</v>
       </c>
       <c r="C43">
-        <v>0.5275</v>
+        <v>0.5291</v>
       </c>
       <c r="D43">
-        <v>0.0528</v>
+        <v>0.0157</v>
       </c>
       <c r="E43">
-        <v>0.027</v>
+        <v>0.1033</v>
       </c>
       <c r="F43">
-        <v>0.538</v>
+        <v>0.5321</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -1809,16 +1812,16 @@
         <v>56</v>
       </c>
       <c r="C44">
-        <v>0.5072</v>
+        <v>0.5162</v>
       </c>
       <c r="D44">
-        <v>0.0945</v>
+        <v>0.0498</v>
       </c>
       <c r="E44">
-        <v>0.0044</v>
+        <v>0.016</v>
       </c>
       <c r="F44">
-        <v>0.526</v>
+        <v>0.5258</v>
       </c>
       <c r="G44" t="s">
         <v>17</v>
@@ -1832,13 +1835,13 @@
         <v>57</v>
       </c>
       <c r="C45">
-        <v>0.5132</v>
+        <v>0.5062</v>
       </c>
       <c r="D45">
-        <v>0.0603</v>
+        <v>0.09859999999999999</v>
       </c>
       <c r="E45">
-        <v>0.0413</v>
+        <v>0.0046</v>
       </c>
       <c r="F45">
         <v>0.5252</v>
@@ -1855,16 +1858,16 @@
         <v>58</v>
       </c>
       <c r="C46">
-        <v>0.5214</v>
+        <v>0.4955</v>
       </c>
       <c r="D46">
-        <v>0.0189</v>
+        <v>0.1395</v>
       </c>
       <c r="E46">
-        <v>0.0011</v>
+        <v>0.2486</v>
       </c>
       <c r="F46">
-        <v>0.5252</v>
+        <v>0.5224</v>
       </c>
       <c r="G46" t="s">
         <v>17</v>
@@ -1878,16 +1881,16 @@
         <v>59</v>
       </c>
       <c r="C47">
-        <v>0.5194</v>
+        <v>0.5187</v>
       </c>
       <c r="D47">
-        <v>0.0183</v>
+        <v>0.0177</v>
       </c>
       <c r="E47">
-        <v>0.0008</v>
+        <v>0.0303</v>
       </c>
       <c r="F47">
-        <v>0.523</v>
+        <v>0.5221</v>
       </c>
       <c r="G47" t="s">
         <v>17</v>
@@ -1901,16 +1904,16 @@
         <v>60</v>
       </c>
       <c r="C48">
-        <v>0.5128</v>
+        <v>0.5088</v>
       </c>
       <c r="D48">
-        <v>0.0503</v>
+        <v>0.0638</v>
       </c>
       <c r="E48">
-        <v>0.0174</v>
+        <v>0.0016</v>
       </c>
       <c r="F48">
-        <v>0.5228</v>
+        <v>0.5211</v>
       </c>
       <c r="G48" t="s">
         <v>17</v>
@@ -1924,16 +1927,16 @@
         <v>61</v>
       </c>
       <c r="C49">
-        <v>0.5108</v>
+        <v>0.5094</v>
       </c>
       <c r="D49">
-        <v>0.0562</v>
+        <v>0.0578</v>
       </c>
       <c r="E49">
-        <v>0.1524</v>
+        <v>0.0362</v>
       </c>
       <c r="F49">
-        <v>0.522</v>
+        <v>0.5206</v>
       </c>
       <c r="G49" t="s">
         <v>17</v>
@@ -1947,16 +1950,16 @@
         <v>62</v>
       </c>
       <c r="C50">
-        <v>0.4851</v>
+        <v>0.4814</v>
       </c>
       <c r="D50">
-        <v>0.1799</v>
+        <v>0.174</v>
       </c>
       <c r="E50">
-        <v>0.0704</v>
+        <v>0.06610000000000001</v>
       </c>
       <c r="F50">
-        <v>0.5209</v>
+        <v>0.515</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -1970,16 +1973,16 @@
         <v>63</v>
       </c>
       <c r="C51">
-        <v>0.4929</v>
+        <v>0.511</v>
       </c>
       <c r="D51">
-        <v>0.1347</v>
+        <v>0.0176</v>
       </c>
       <c r="E51">
-        <v>0.2317</v>
+        <v>0.0005</v>
       </c>
       <c r="F51">
-        <v>0.5197000000000001</v>
+        <v>0.5144</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -1993,16 +1996,16 @@
         <v>64</v>
       </c>
       <c r="C52">
-        <v>0.5068</v>
+        <v>0.5043</v>
       </c>
       <c r="D52">
-        <v>0.0636</v>
+        <v>0.0521</v>
       </c>
       <c r="E52">
-        <v>0.0015</v>
+        <v>0.1293</v>
       </c>
       <c r="F52">
-        <v>0.5195</v>
+        <v>0.5144</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -2016,16 +2019,16 @@
         <v>65</v>
       </c>
       <c r="C53">
-        <v>0.515</v>
+        <v>0.5103</v>
       </c>
       <c r="D53">
-        <v>0.0147</v>
+        <v>0.0176</v>
       </c>
       <c r="E53">
-        <v>0.09619999999999999</v>
+        <v>0.0007</v>
       </c>
       <c r="F53">
-        <v>0.5179</v>
+        <v>0.5137</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -2036,19 +2039,19 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C54">
+        <v>0.5004999999999999</v>
+      </c>
+      <c r="D54">
+        <v>0.06469999999999999</v>
+      </c>
+      <c r="E54">
+        <v>0.0823</v>
+      </c>
+      <c r="F54">
         <v>0.513</v>
-      </c>
-      <c r="D54">
-        <v>0.0212</v>
-      </c>
-      <c r="E54">
-        <v>0.0095</v>
-      </c>
-      <c r="F54">
-        <v>0.5172</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -2059,22 +2062,22 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C55">
-        <v>0.506</v>
+        <v>0.5082</v>
       </c>
       <c r="D55">
-        <v>0.0417</v>
+        <v>0.0203</v>
       </c>
       <c r="E55">
-        <v>0.0418</v>
+        <v>0.0091</v>
       </c>
       <c r="F55">
-        <v>0.5143</v>
+        <v>0.5121</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2085,19 +2088,19 @@
         <v>67</v>
       </c>
       <c r="C56">
-        <v>0.5079</v>
+        <v>0.5076000000000001</v>
       </c>
       <c r="D56">
-        <v>0.0278</v>
+        <v>0.0194</v>
       </c>
       <c r="E56">
-        <v>0.0047</v>
+        <v>0.0011</v>
       </c>
       <c r="F56">
-        <v>0.5134</v>
+        <v>0.5113</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2108,19 +2111,19 @@
         <v>68</v>
       </c>
       <c r="C57">
-        <v>0.4974</v>
+        <v>0.506</v>
       </c>
       <c r="D57">
-        <v>0.06900000000000001</v>
+        <v>0.0269</v>
       </c>
       <c r="E57">
-        <v>0.0042</v>
+        <v>0.004</v>
       </c>
       <c r="F57">
-        <v>0.5111</v>
+        <v>0.5112</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2128,22 +2131,22 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C58">
-        <v>0.5003</v>
+        <v>0.5022</v>
       </c>
       <c r="D58">
-        <v>0.0455</v>
+        <v>0.0397</v>
       </c>
       <c r="E58">
-        <v>0.0005999999999999999</v>
+        <v>0.041</v>
       </c>
       <c r="F58">
-        <v>0.5094</v>
+        <v>0.5099</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2151,22 +2154,22 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C59">
-        <v>0.4967</v>
+        <v>0.4991</v>
       </c>
       <c r="D59">
-        <v>0.0605</v>
+        <v>0.0513</v>
       </c>
       <c r="E59">
-        <v>0.074</v>
+        <v>0.0789</v>
       </c>
       <c r="F59">
-        <v>0.5087</v>
+        <v>0.509</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2174,22 +2177,22 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="C60">
-        <v>0.4978</v>
+        <v>0.5002</v>
       </c>
       <c r="D60">
-        <v>0.0537</v>
+        <v>0.0447</v>
       </c>
       <c r="E60">
-        <v>0.0911</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F60">
-        <v>0.5085</v>
+        <v>0.5088</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2200,19 +2203,19 @@
         <v>70</v>
       </c>
       <c r="C61">
-        <v>0.4982</v>
+        <v>0.5011</v>
       </c>
       <c r="D61">
-        <v>0.0431</v>
+        <v>0.0397</v>
       </c>
       <c r="E61">
-        <v>0.0067</v>
+        <v>0.0205</v>
       </c>
       <c r="F61">
-        <v>0.5068</v>
+        <v>0.5088</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2223,19 +2226,19 @@
         <v>71</v>
       </c>
       <c r="C62">
-        <v>0.501</v>
+        <v>0.492</v>
       </c>
       <c r="D62">
-        <v>0.0283</v>
+        <v>0.0708</v>
       </c>
       <c r="E62">
-        <v>0.0042</v>
+        <v>0.0045</v>
       </c>
       <c r="F62">
-        <v>0.5066000000000001</v>
+        <v>0.5057</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2246,19 +2249,19 @@
         <v>72</v>
       </c>
       <c r="C63">
-        <v>0.5019</v>
+        <v>0.4965</v>
       </c>
       <c r="D63">
-        <v>0.0183</v>
+        <v>0.0468</v>
       </c>
       <c r="E63">
-        <v>0.0007</v>
+        <v>0.0021</v>
       </c>
       <c r="F63">
         <v>0.5054999999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2269,19 +2272,19 @@
         <v>73</v>
       </c>
       <c r="C64">
-        <v>0.4964</v>
+        <v>0.4951</v>
       </c>
       <c r="D64">
-        <v>0.0279</v>
+        <v>0.0492</v>
       </c>
       <c r="E64">
-        <v>0.0038</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="F64">
-        <v>0.502</v>
+        <v>0.5046</v>
       </c>
       <c r="G64" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2289,22 +2292,22 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="C65">
-        <v>0.4962</v>
+        <v>0.4959</v>
       </c>
       <c r="D65">
-        <v>0.02</v>
+        <v>0.0401</v>
       </c>
       <c r="E65">
-        <v>0.0103</v>
+        <v>0.0059</v>
       </c>
       <c r="F65">
-        <v>0.5002</v>
+        <v>0.5036</v>
       </c>
       <c r="G65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2312,22 +2315,22 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66">
-        <v>0.4905</v>
+        <v>0.4984</v>
       </c>
       <c r="D66">
-        <v>0.0484</v>
+        <v>0.0261</v>
       </c>
       <c r="E66">
-        <v>0.008800000000000001</v>
+        <v>0.0039</v>
       </c>
       <c r="F66">
-        <v>0.5001</v>
+        <v>0.5034</v>
       </c>
       <c r="G66" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2335,22 +2338,22 @@
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C67">
-        <v>0.4923</v>
+        <v>0.4946</v>
       </c>
       <c r="D67">
-        <v>0.0384</v>
+        <v>0.0358</v>
       </c>
       <c r="E67">
-        <v>0.0189</v>
+        <v>0.0019</v>
       </c>
       <c r="F67">
-        <v>0.4999</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="G67" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2358,22 +2361,22 @@
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C68">
-        <v>0.4923</v>
+        <v>0.4954</v>
       </c>
       <c r="D68">
-        <v>0.036</v>
+        <v>0.0273</v>
       </c>
       <c r="E68">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="F68">
-        <v>0.4995</v>
+        <v>0.5007</v>
       </c>
       <c r="G68" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2381,22 +2384,22 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C69">
-        <v>0.4868</v>
+        <v>0.4867</v>
       </c>
       <c r="D69">
-        <v>0.0572</v>
+        <v>0.0655</v>
       </c>
       <c r="E69">
-        <v>0.0015</v>
+        <v>0.0217</v>
       </c>
       <c r="F69">
-        <v>0.4982</v>
+        <v>0.4993</v>
       </c>
       <c r="G69" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2404,22 +2407,22 @@
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C70">
-        <v>0.4888</v>
+        <v>0.4896</v>
       </c>
       <c r="D70">
-        <v>0.0394</v>
+        <v>0.0389</v>
       </c>
       <c r="E70">
-        <v>0.0334</v>
+        <v>0.0305</v>
       </c>
       <c r="F70">
-        <v>0.4966</v>
+        <v>0.4971</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2427,22 +2430,22 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>0.4858</v>
       </c>
       <c r="D71">
-        <v>0.0453</v>
+        <v>0.0583</v>
       </c>
       <c r="E71">
-        <v>0.0023</v>
+        <v>0.0015</v>
       </c>
       <c r="F71">
-        <v>0.4948</v>
+        <v>0.4971</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2450,22 +2453,22 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="C72">
-        <v>0.4806</v>
+        <v>0.4888</v>
       </c>
       <c r="D72">
-        <v>0.0665</v>
+        <v>0.0301</v>
       </c>
       <c r="E72">
-        <v>0.022</v>
+        <v>0.0461</v>
       </c>
       <c r="F72">
-        <v>0.4938</v>
+        <v>0.4946</v>
       </c>
       <c r="G72" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2473,22 +2476,22 @@
         <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C73">
-        <v>0.4835</v>
+        <v>0.491</v>
       </c>
       <c r="D73">
-        <v>0.0186</v>
+        <v>0.0176</v>
       </c>
       <c r="E73">
-        <v>0.0138</v>
+        <v>0.0139</v>
       </c>
       <c r="F73">
-        <v>0.4872</v>
+        <v>0.4944</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2496,22 +2499,22 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C74">
-        <v>0.4801</v>
+        <v>0.4903</v>
       </c>
       <c r="D74">
-        <v>0.0291</v>
+        <v>0.0202</v>
       </c>
       <c r="E74">
-        <v>0.0461</v>
+        <v>0.01</v>
       </c>
       <c r="F74">
-        <v>0.4859</v>
+        <v>0.4942</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2519,22 +2522,22 @@
         <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75">
-        <v>0.4763</v>
+        <v>0.4732</v>
       </c>
       <c r="D75">
-        <v>0.0241</v>
+        <v>0.0243</v>
       </c>
       <c r="E75">
-        <v>0.0106</v>
+        <v>0.0108</v>
       </c>
       <c r="F75">
-        <v>0.4811</v>
+        <v>0.4779</v>
       </c>
       <c r="G75" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2542,65 +2545,65 @@
         <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="C76">
-        <v>0.47</v>
+        <v>0.4642</v>
       </c>
       <c r="D76">
-        <v>0.0154</v>
+        <v>0.0269</v>
       </c>
       <c r="E76">
-        <v>0.0017</v>
+        <v>0.014</v>
       </c>
       <c r="F76">
-        <v>0.4731</v>
+        <v>0.4694</v>
       </c>
       <c r="G76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C77">
-        <v>0.4575</v>
+        <v>0.5258</v>
       </c>
       <c r="D77">
-        <v>0.0257</v>
+        <v>0.1533</v>
       </c>
       <c r="E77">
-        <v>0.0137</v>
+        <v>0.1299</v>
       </c>
       <c r="F77">
-        <v>0.4626</v>
+        <v>0.5499000000000001</v>
       </c>
       <c r="G77" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>83</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>0.5223</v>
+        <v>0.5427999999999999</v>
       </c>
       <c r="D78">
-        <v>0.1504</v>
+        <v>0.0102</v>
       </c>
       <c r="E78">
-        <v>0.1237</v>
+        <v>0.0059</v>
       </c>
       <c r="F78">
-        <v>0.5438</v>
+        <v>0.5444</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -2608,22 +2611,22 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C79">
-        <v>0.532</v>
+        <v>0.5234</v>
       </c>
       <c r="D79">
-        <v>0.0186</v>
+        <v>0.06510000000000001</v>
       </c>
       <c r="E79">
-        <v>0.0016</v>
+        <v>0.1033</v>
       </c>
       <c r="F79">
-        <v>0.5347</v>
+        <v>0.5336</v>
       </c>
       <c r="G79" t="s">
         <v>11</v>
@@ -2631,22 +2634,22 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C80">
-        <v>0.5309</v>
+        <v>0.5248</v>
       </c>
       <c r="D80">
-        <v>0.0249</v>
+        <v>0.0398</v>
       </c>
       <c r="E80">
-        <v>0.0083</v>
+        <v>0.2813</v>
       </c>
       <c r="F80">
-        <v>0.5345</v>
+        <v>0.5311</v>
       </c>
       <c r="G80" t="s">
         <v>11</v>
@@ -2654,22 +2657,22 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="C81">
-        <v>0.5212</v>
+        <v>0.5268</v>
       </c>
       <c r="D81">
-        <v>0.063</v>
+        <v>0.0227</v>
       </c>
       <c r="E81">
-        <v>0.09619999999999999</v>
+        <v>0.007</v>
       </c>
       <c r="F81">
-        <v>0.5302</v>
+        <v>0.5304</v>
       </c>
       <c r="G81" t="s">
         <v>11</v>
@@ -2677,68 +2680,68 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
       <c r="C82">
-        <v>0.516</v>
+        <v>0.5273</v>
       </c>
       <c r="D82">
-        <v>0.0939</v>
+        <v>0.0142</v>
       </c>
       <c r="E82">
-        <v>0.0429</v>
+        <v>0.0027</v>
       </c>
       <c r="F82">
         <v>0.5295</v>
       </c>
       <c r="G82" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="C83">
-        <v>0.5227000000000001</v>
+        <v>0.5248</v>
       </c>
       <c r="D83">
-        <v>0.0184</v>
+        <v>0.0178</v>
       </c>
       <c r="E83">
-        <v>0.0114</v>
+        <v>0.0016</v>
       </c>
       <c r="F83">
-        <v>0.5253</v>
+        <v>0.5276</v>
       </c>
       <c r="G83" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C84">
-        <v>0.5174</v>
+        <v>0.5123</v>
       </c>
       <c r="D84">
-        <v>0.039</v>
+        <v>0.0898</v>
       </c>
       <c r="E84">
-        <v>0.2643</v>
+        <v>0.0422</v>
       </c>
       <c r="F84">
-        <v>0.523</v>
+        <v>0.5264</v>
       </c>
       <c r="G84" t="s">
         <v>17</v>
@@ -2746,22 +2749,22 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85">
-        <v>0.5189</v>
+        <v>0.5124</v>
       </c>
       <c r="D85">
-        <v>0.0241</v>
+        <v>0.0786</v>
       </c>
       <c r="E85">
-        <v>0.0005</v>
+        <v>0.2436</v>
       </c>
       <c r="F85">
-        <v>0.5224</v>
+        <v>0.5248</v>
       </c>
       <c r="G85" t="s">
         <v>17</v>
@@ -2769,22 +2772,22 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C86">
-        <v>0.5086000000000001</v>
+        <v>0.5062</v>
       </c>
       <c r="D86">
-        <v>0.07779999999999999</v>
+        <v>0.0997</v>
       </c>
       <c r="E86">
-        <v>0.2292</v>
+        <v>0.8135</v>
       </c>
       <c r="F86">
-        <v>0.5197000000000001</v>
+        <v>0.5219</v>
       </c>
       <c r="G86" t="s">
         <v>17</v>
@@ -2792,22 +2795,22 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C87">
-        <v>0.5044999999999999</v>
+        <v>0.5083</v>
       </c>
       <c r="D87">
-        <v>0.1031</v>
+        <v>0.0837</v>
       </c>
       <c r="E87">
-        <v>0.8142</v>
+        <v>0.0252</v>
       </c>
       <c r="F87">
-        <v>0.5193</v>
+        <v>0.5215</v>
       </c>
       <c r="G87" t="s">
         <v>17</v>
@@ -2815,22 +2818,22 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C88">
-        <v>0.5079</v>
+        <v>0.5099</v>
       </c>
       <c r="D88">
-        <v>0.0702</v>
+        <v>0.0683</v>
       </c>
       <c r="E88">
         <v>0.0023</v>
       </c>
       <c r="F88">
-        <v>0.518</v>
+        <v>0.5206</v>
       </c>
       <c r="G88" t="s">
         <v>17</v>
@@ -2838,22 +2841,22 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="C89">
-        <v>0.5133</v>
+        <v>0.5014999999999999</v>
       </c>
       <c r="D89">
-        <v>0.0221</v>
+        <v>0.1009</v>
       </c>
       <c r="E89">
-        <v>0.0917</v>
+        <v>0.0081</v>
       </c>
       <c r="F89">
-        <v>0.5165</v>
+        <v>0.5174</v>
       </c>
       <c r="G89" t="s">
         <v>17</v>
@@ -2861,22 +2864,22 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C90">
-        <v>0.5074</v>
+        <v>0.5125</v>
       </c>
       <c r="D90">
-        <v>0.0579</v>
+        <v>0.0232</v>
       </c>
       <c r="E90">
         <v>0.0005</v>
       </c>
       <c r="F90">
-        <v>0.5157</v>
+        <v>0.5162</v>
       </c>
       <c r="G90" t="s">
         <v>17</v>
@@ -2884,22 +2887,22 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91">
-        <v>0.5063</v>
+        <v>0.5059</v>
       </c>
       <c r="D91">
-        <v>0.06270000000000001</v>
+        <v>0.0605</v>
       </c>
       <c r="E91">
-        <v>0.036</v>
+        <v>0.0344</v>
       </c>
       <c r="F91">
-        <v>0.5153</v>
+        <v>0.5154</v>
       </c>
       <c r="G91" t="s">
         <v>17</v>
@@ -2907,22 +2910,22 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C92">
-        <v>0.5034999999999999</v>
+        <v>0.5079</v>
       </c>
       <c r="D92">
-        <v>0.07920000000000001</v>
+        <v>0.0476</v>
       </c>
       <c r="E92">
-        <v>0.0228</v>
+        <v>0.0207</v>
       </c>
       <c r="F92">
-        <v>0.5148</v>
+        <v>0.5154</v>
       </c>
       <c r="G92" t="s">
         <v>17</v>
@@ -2930,22 +2933,22 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C93">
-        <v>0.5056</v>
+        <v>0.5037</v>
       </c>
       <c r="D93">
-        <v>0.0623</v>
+        <v>0.0567</v>
       </c>
       <c r="E93">
-        <v>0.012</v>
+        <v>0.0005</v>
       </c>
       <c r="F93">
-        <v>0.5145</v>
+        <v>0.5125999999999999</v>
       </c>
       <c r="G93" t="s">
         <v>17</v>
@@ -2953,22 +2956,22 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C94">
-        <v>0.4999</v>
+        <v>0.5083</v>
       </c>
       <c r="D94">
-        <v>0.1</v>
+        <v>0.0191</v>
       </c>
       <c r="E94">
-        <v>0.007900000000000001</v>
+        <v>0.0132</v>
       </c>
       <c r="F94">
-        <v>0.5142</v>
+        <v>0.5113</v>
       </c>
       <c r="G94" t="s">
         <v>17</v>
@@ -2976,22 +2979,22 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C95">
-        <v>0.5046</v>
+        <v>0.5008</v>
       </c>
       <c r="D95">
-        <v>0.0434</v>
+        <v>0.06469999999999999</v>
       </c>
       <c r="E95">
-        <v>0.0179</v>
+        <v>0.0136</v>
       </c>
       <c r="F95">
-        <v>0.5108</v>
+        <v>0.511</v>
       </c>
       <c r="G95" t="s">
         <v>17</v>
@@ -2999,554 +3002,554 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>10</v>
+        <v>96</v>
       </c>
       <c r="C96">
-        <v>0.5071</v>
+        <v>0.495</v>
       </c>
       <c r="D96">
-        <v>0.0142</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E96">
-        <v>0.0024</v>
+        <v>0.0124</v>
       </c>
       <c r="F96">
-        <v>0.5091</v>
+        <v>0.5087</v>
       </c>
       <c r="G96" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C97">
-        <v>0.5017</v>
+        <v>0.5028</v>
       </c>
       <c r="D97">
-        <v>0.0507</v>
+        <v>0.0338</v>
       </c>
       <c r="E97">
-        <v>0.0009</v>
+        <v>0.0205</v>
       </c>
       <c r="F97">
-        <v>0.509</v>
+        <v>0.5081</v>
       </c>
       <c r="G97" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C98">
-        <v>0.4943</v>
+        <v>0.4979</v>
       </c>
       <c r="D98">
-        <v>0.083</v>
+        <v>0.0588</v>
       </c>
       <c r="E98">
-        <v>0.0111</v>
+        <v>0.0119</v>
       </c>
       <c r="F98">
-        <v>0.5062</v>
+        <v>0.5072</v>
       </c>
       <c r="G98" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C99">
-        <v>0.4973</v>
+        <v>0.4992</v>
       </c>
       <c r="D99">
-        <v>0.0608</v>
+        <v>0.0502</v>
       </c>
       <c r="E99">
-        <v>0.012</v>
+        <v>0.0008</v>
       </c>
       <c r="F99">
-        <v>0.506</v>
+        <v>0.5071</v>
       </c>
       <c r="G99" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="C100">
-        <v>0.499</v>
+        <v>0.4996</v>
       </c>
       <c r="D100">
-        <v>0.0342</v>
+        <v>0.0222</v>
       </c>
       <c r="E100">
-        <v>0.0189</v>
+        <v>0.1012</v>
       </c>
       <c r="F100">
-        <v>0.5039</v>
+        <v>0.5031</v>
       </c>
       <c r="G100" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101">
-        <v>0.4995</v>
+        <v>0.4964</v>
       </c>
       <c r="D101">
-        <v>0.0261</v>
+        <v>0.0258</v>
       </c>
       <c r="E101">
-        <v>0.0021</v>
+        <v>0.0022</v>
       </c>
       <c r="F101">
-        <v>0.5032</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="G101" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="C102">
-        <v>0.4817</v>
+        <v>0.4871</v>
       </c>
       <c r="D102">
-        <v>0.0975</v>
+        <v>0.0745</v>
       </c>
       <c r="E102">
-        <v>0.1142</v>
+        <v>0.0158</v>
       </c>
       <c r="F102">
-        <v>0.4957</v>
+        <v>0.4988</v>
       </c>
       <c r="G102" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="C103">
-        <v>0.4844</v>
+        <v>0.4815</v>
       </c>
       <c r="D103">
-        <v>0.0755</v>
+        <v>0.0977</v>
       </c>
       <c r="E103">
-        <v>0.0156</v>
+        <v>0.1089</v>
       </c>
       <c r="F103">
-        <v>0.4952</v>
+        <v>0.4969</v>
       </c>
       <c r="G103" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104">
-        <v>0.4878</v>
+        <v>0.4856</v>
       </c>
       <c r="D104">
-        <v>0.0214</v>
+        <v>0.0209</v>
       </c>
       <c r="E104">
-        <v>0.0014</v>
+        <v>0.0016</v>
       </c>
       <c r="F104">
-        <v>0.4909</v>
+        <v>0.4889</v>
       </c>
       <c r="G104" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C105">
-        <v>0.4884</v>
+        <v>0.4843</v>
       </c>
       <c r="D105">
-        <v>0.0169</v>
+        <v>0.0236</v>
       </c>
       <c r="E105">
-        <v>0.0038</v>
+        <v>0.0013</v>
       </c>
       <c r="F105">
-        <v>0.4908</v>
+        <v>0.488</v>
       </c>
       <c r="G105" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
         <v>103</v>
       </c>
       <c r="C106">
-        <v>0.4846</v>
+        <v>0.4835</v>
       </c>
       <c r="D106">
-        <v>0.0255</v>
+        <v>0.0107</v>
       </c>
       <c r="E106">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="F106">
-        <v>0.4883</v>
+        <v>0.4852</v>
       </c>
       <c r="G106" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C107">
-        <v>0.4825</v>
+        <v>0.4816</v>
       </c>
       <c r="D107">
-        <v>0.0317</v>
+        <v>0.0164</v>
       </c>
       <c r="E107">
-        <v>0.1524</v>
+        <v>0.0039</v>
       </c>
       <c r="F107">
-        <v>0.487</v>
+        <v>0.4842</v>
       </c>
       <c r="G107" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C108">
-        <v>0.4832</v>
+        <v>0.4803</v>
       </c>
       <c r="D108">
-        <v>0.0217</v>
+        <v>0.0175</v>
       </c>
       <c r="E108">
-        <v>0.0019</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F108">
-        <v>0.4863</v>
+        <v>0.4831</v>
       </c>
       <c r="G108" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="C109">
-        <v>0.4779</v>
+        <v>0.4797</v>
       </c>
       <c r="D109">
-        <v>0.0218</v>
+        <v>0.0195</v>
       </c>
       <c r="E109">
-        <v>0.0097</v>
+        <v>0.0019</v>
       </c>
       <c r="F109">
-        <v>0.481</v>
+        <v>0.4828</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>61</v>
       </c>
       <c r="C110">
-        <v>0.475</v>
+        <v>0.4784</v>
       </c>
       <c r="D110">
-        <v>0.0324</v>
+        <v>0.0261</v>
       </c>
       <c r="E110">
-        <v>0.0036</v>
+        <v>0.0362</v>
       </c>
       <c r="F110">
-        <v>0.4796</v>
+        <v>0.4825</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C111">
-        <v>0.4761</v>
+        <v>0.4767</v>
       </c>
       <c r="D111">
-        <v>0.0185</v>
+        <v>0.0313</v>
       </c>
       <c r="E111">
-        <v>0.0005999999999999999</v>
+        <v>0.1293</v>
       </c>
       <c r="F111">
-        <v>0.4788</v>
+        <v>0.4816</v>
       </c>
       <c r="G111" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C112">
-        <v>0.4771</v>
+        <v>0.4715</v>
       </c>
       <c r="D112">
-        <v>0.0102</v>
+        <v>0.0316</v>
       </c>
       <c r="E112">
-        <v>0.0232</v>
+        <v>0.0034</v>
       </c>
       <c r="F112">
-        <v>0.4786</v>
+        <v>0.4765</v>
       </c>
       <c r="G112" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C113">
-        <v>0.4738</v>
+        <v>0.469</v>
       </c>
       <c r="D113">
-        <v>0.0258</v>
+        <v>0.0422</v>
       </c>
       <c r="E113">
-        <v>0.0413</v>
+        <v>0.0139</v>
       </c>
       <c r="F113">
-        <v>0.4775</v>
+        <v>0.4756</v>
       </c>
       <c r="G113" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C114">
-        <v>0.4744</v>
+        <v>0.4716</v>
       </c>
       <c r="D114">
-        <v>0.0114</v>
+        <v>0.0103</v>
       </c>
       <c r="E114">
-        <v>0.0029</v>
+        <v>0.0223</v>
       </c>
       <c r="F114">
-        <v>0.476</v>
+        <v>0.4732</v>
       </c>
       <c r="G114" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C115">
-        <v>0.4729</v>
+        <v>0.4687</v>
       </c>
       <c r="D115">
-        <v>0.0113</v>
+        <v>0.0216</v>
       </c>
       <c r="E115">
-        <v>0.0005</v>
+        <v>0.0092</v>
       </c>
       <c r="F115">
-        <v>0.4745</v>
+        <v>0.4721</v>
       </c>
       <c r="G115" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>30</v>
+        <v>107</v>
       </c>
       <c r="C116">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="D116">
-        <v>0.0415</v>
+        <v>0.0102</v>
       </c>
       <c r="E116">
-        <v>0.0138</v>
+        <v>0.005</v>
       </c>
       <c r="F116">
-        <v>0.4699</v>
+        <v>0.4676</v>
       </c>
       <c r="G116" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>35</v>
+        <v>108</v>
       </c>
       <c r="C117">
-        <v>0.4506</v>
+        <v>0.462</v>
       </c>
       <c r="D117">
-        <v>0.0224</v>
+        <v>0.0119</v>
       </c>
       <c r="E117">
-        <v>0.107</v>
+        <v>0.003</v>
       </c>
       <c r="F117">
-        <v>0.4538</v>
+        <v>0.4639</v>
       </c>
       <c r="G117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B118" t="s">
         <v>109</v>
       </c>
       <c r="C118">
-        <v>0.4458</v>
+        <v>0.4482</v>
       </c>
       <c r="D118">
-        <v>0.013</v>
+        <v>0.0137</v>
       </c>
       <c r="E118">
-        <v>0.0007</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F118">
-        <v>0.4477</v>
+        <v>0.4504</v>
       </c>
       <c r="G118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B119" t="s">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="C119">
-        <v>0.5468</v>
+        <v>0.4463</v>
       </c>
       <c r="D119">
-        <v>0.047</v>
+        <v>0.0236</v>
       </c>
       <c r="E119">
-        <v>0.0021</v>
+        <v>0.1161</v>
       </c>
       <c r="F119">
-        <v>0.5528</v>
+        <v>0.45</v>
       </c>
       <c r="G119" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3557,16 +3560,16 @@
         <v>111</v>
       </c>
       <c r="C120">
-        <v>0.5263</v>
+        <v>0.532</v>
       </c>
       <c r="D120">
-        <v>0.169</v>
+        <v>0.1668</v>
       </c>
       <c r="E120">
-        <v>0.0105</v>
+        <v>0.0101</v>
       </c>
       <c r="F120">
-        <v>0.5479000000000001</v>
+        <v>0.5521</v>
       </c>
       <c r="G120" t="s">
         <v>11</v>
@@ -3577,22 +3580,22 @@
         <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="C121">
-        <v>0.5159</v>
+        <v>0.5405</v>
       </c>
       <c r="D121">
-        <v>0.1626</v>
+        <v>0.0505</v>
       </c>
       <c r="E121">
-        <v>0.0073</v>
+        <v>0.0022</v>
       </c>
       <c r="F121">
-        <v>0.5367</v>
+        <v>0.5466</v>
       </c>
       <c r="G121" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3600,22 +3603,22 @@
         <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C122">
-        <v>0.5095</v>
+        <v>0.5179</v>
       </c>
       <c r="D122">
-        <v>0.1499</v>
+        <v>0.175</v>
       </c>
       <c r="E122">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="F122">
-        <v>0.5286</v>
+        <v>0.539</v>
       </c>
       <c r="G122" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3623,22 +3626,22 @@
         <v>110</v>
       </c>
       <c r="B123" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C123">
-        <v>0.5058</v>
+        <v>0.508</v>
       </c>
       <c r="D123">
-        <v>0.1609</v>
+        <v>0.1647</v>
       </c>
       <c r="E123">
-        <v>0.0232</v>
+        <v>0.003</v>
       </c>
       <c r="F123">
-        <v>0.5263</v>
+        <v>0.5278</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3646,22 +3649,22 @@
         <v>110</v>
       </c>
       <c r="B124" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C124">
-        <v>0.5114</v>
+        <v>0.5066000000000001</v>
       </c>
       <c r="D124">
-        <v>0.0982</v>
+        <v>0.1598</v>
       </c>
       <c r="E124">
-        <v>0.0008</v>
+        <v>0.0223</v>
       </c>
       <c r="F124">
-        <v>0.5239</v>
+        <v>0.5258</v>
       </c>
       <c r="G124" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3669,22 +3672,22 @@
         <v>110</v>
       </c>
       <c r="B125" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C125">
-        <v>0.5027</v>
+        <v>0.5069</v>
       </c>
       <c r="D125">
-        <v>0.1602</v>
+        <v>0.1459</v>
       </c>
       <c r="E125">
-        <v>0.0029</v>
+        <v>0.002</v>
       </c>
       <c r="F125">
-        <v>0.5231</v>
+        <v>0.5245</v>
       </c>
       <c r="G125" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3692,22 +3695,22 @@
         <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C126">
-        <v>0.5062</v>
+        <v>0.5111</v>
       </c>
       <c r="D126">
-        <v>0.1141</v>
+        <v>0.0974</v>
       </c>
       <c r="E126">
-        <v>0.0224</v>
+        <v>0.0007</v>
       </c>
       <c r="F126">
-        <v>0.5208</v>
+        <v>0.5228</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3715,22 +3718,22 @@
         <v>110</v>
       </c>
       <c r="B127" t="s">
-        <v>115</v>
+        <v>26</v>
       </c>
       <c r="C127">
-        <v>0.5108</v>
+        <v>0.5053</v>
       </c>
       <c r="D127">
-        <v>0.0451</v>
+        <v>0.1109</v>
       </c>
       <c r="E127">
-        <v>0.0005</v>
+        <v>0.0239</v>
       </c>
       <c r="F127">
-        <v>0.5165999999999999</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="G127" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3738,22 +3741,22 @@
         <v>110</v>
       </c>
       <c r="B128" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C128">
-        <v>0.4991</v>
+        <v>0.513</v>
       </c>
       <c r="D128">
-        <v>0.0868</v>
+        <v>0.0467</v>
       </c>
       <c r="E128">
-        <v>0.002</v>
+        <v>0.0005</v>
       </c>
       <c r="F128">
-        <v>0.5102</v>
+        <v>0.5185999999999999</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3761,22 +3764,22 @@
         <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C129">
-        <v>0.4868</v>
+        <v>0.488</v>
       </c>
       <c r="D129">
-        <v>0.1709</v>
+        <v>0.1766</v>
       </c>
       <c r="E129">
-        <v>0.0113</v>
+        <v>0.0128</v>
       </c>
       <c r="F129">
-        <v>0.5086000000000001</v>
+        <v>0.5092</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3784,22 +3787,22 @@
         <v>110</v>
       </c>
       <c r="B130" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C130">
-        <v>0.4961</v>
+        <v>0.4974</v>
       </c>
       <c r="D130">
-        <v>0.0914</v>
+        <v>0.0837</v>
       </c>
       <c r="E130">
-        <v>0.0007</v>
+        <v>0.0019</v>
       </c>
       <c r="F130">
-        <v>0.5078</v>
+        <v>0.5075</v>
       </c>
       <c r="G130" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3810,19 +3813,19 @@
         <v>118</v>
       </c>
       <c r="C131">
-        <v>0.503</v>
+        <v>0.4987</v>
       </c>
       <c r="D131">
-        <v>0.0364</v>
+        <v>0.0333</v>
       </c>
       <c r="E131">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="F131">
-        <v>0.5076000000000001</v>
+        <v>0.5027</v>
       </c>
       <c r="G131" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3830,22 +3833,22 @@
         <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C132">
-        <v>0.5</v>
+        <v>0.4919</v>
       </c>
       <c r="D132">
-        <v>0.0276</v>
+        <v>0.0864</v>
       </c>
       <c r="E132">
-        <v>0.0005</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F132">
-        <v>0.5034999999999999</v>
+        <v>0.5023</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3853,22 +3856,22 @@
         <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C133">
-        <v>0.4847</v>
+        <v>0.4957</v>
       </c>
       <c r="D133">
-        <v>0.0989</v>
+        <v>0.0265</v>
       </c>
       <c r="E133">
-        <v>0.0189</v>
+        <v>0.0005</v>
       </c>
       <c r="F133">
-        <v>0.4973</v>
+        <v>0.4989</v>
       </c>
       <c r="G133" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3876,22 +3879,22 @@
         <v>110</v>
       </c>
       <c r="B134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C134">
-        <v>0.4834</v>
+        <v>0.4827</v>
       </c>
       <c r="D134">
-        <v>0.0849</v>
+        <v>0.0891</v>
       </c>
       <c r="E134">
-        <v>0.0007</v>
+        <v>0.0008</v>
       </c>
       <c r="F134">
-        <v>0.4942</v>
+        <v>0.4934</v>
       </c>
       <c r="G134" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3899,22 +3902,22 @@
         <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C135">
-        <v>0.4692</v>
+        <v>0.478</v>
       </c>
       <c r="D135">
-        <v>0.172</v>
+        <v>0.0984</v>
       </c>
       <c r="E135">
-        <v>0.0103</v>
+        <v>0.0205</v>
       </c>
       <c r="F135">
-        <v>0.4911</v>
+        <v>0.4898</v>
       </c>
       <c r="G135" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3922,88 +3925,88 @@
         <v>110</v>
       </c>
       <c r="B136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C136">
-        <v>0.4801</v>
+        <v>0.4671</v>
       </c>
       <c r="D136">
-        <v>0.0706</v>
+        <v>0.1619</v>
       </c>
       <c r="E136">
-        <v>0.0111</v>
+        <v>0.009299999999999999</v>
       </c>
       <c r="F136">
-        <v>0.4891</v>
+        <v>0.4866</v>
       </c>
       <c r="G136" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B137" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C137">
-        <v>0.5389</v>
+        <v>0.4778</v>
       </c>
       <c r="D137">
-        <v>0.1197</v>
+        <v>0.0701</v>
       </c>
       <c r="E137">
-        <v>0.0393</v>
+        <v>0.0132</v>
       </c>
       <c r="F137">
-        <v>0.549</v>
+        <v>0.4862</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
+        <v>110</v>
+      </c>
+      <c r="B138" t="s">
         <v>124</v>
       </c>
-      <c r="B138" t="s">
-        <v>126</v>
-      </c>
       <c r="C138">
-        <v>0.5316</v>
+        <v>0.4555</v>
       </c>
       <c r="D138">
-        <v>0.1122</v>
+        <v>0.0223</v>
       </c>
       <c r="E138">
-        <v>0.0046</v>
+        <v>0.0071</v>
       </c>
       <c r="F138">
-        <v>0.541</v>
+        <v>0.4582</v>
       </c>
       <c r="G138" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C139">
-        <v>0.5334</v>
+        <v>0.539</v>
       </c>
       <c r="D139">
-        <v>0.0474</v>
+        <v>0.1213</v>
       </c>
       <c r="E139">
-        <v>0.0005999999999999999</v>
+        <v>0.0388</v>
       </c>
       <c r="F139">
-        <v>0.5374</v>
+        <v>0.551</v>
       </c>
       <c r="G139" t="s">
         <v>11</v>
@@ -4011,554 +4014,600 @@
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>46</v>
+        <v>107</v>
       </c>
       <c r="C140">
-        <v>0.5149</v>
+        <v>0.531</v>
       </c>
       <c r="D140">
-        <v>0.06510000000000001</v>
+        <v>0.1178</v>
       </c>
       <c r="E140">
-        <v>0.0102</v>
+        <v>0.005</v>
       </c>
       <c r="F140">
-        <v>0.5204</v>
+        <v>0.5426</v>
       </c>
       <c r="G140" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B141" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="C141">
-        <v>0.5107</v>
+        <v>0.5348000000000001</v>
       </c>
       <c r="D141">
-        <v>0.0848</v>
+        <v>0.0452</v>
       </c>
       <c r="E141">
-        <v>0.2643</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F141">
-        <v>0.5178</v>
+        <v>0.5393</v>
       </c>
       <c r="G141" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>44</v>
       </c>
       <c r="C142">
-        <v>0.5092</v>
+        <v>0.5164</v>
       </c>
       <c r="D142">
-        <v>0.0672</v>
+        <v>0.06519999999999999</v>
       </c>
       <c r="E142">
-        <v>0.06950000000000001</v>
+        <v>0.0101</v>
       </c>
       <c r="F142">
-        <v>0.5148</v>
+        <v>0.5228</v>
       </c>
       <c r="G142" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B143" t="s">
-        <v>129</v>
+        <v>83</v>
       </c>
       <c r="C143">
-        <v>0.5073</v>
+        <v>0.5135999999999999</v>
       </c>
       <c r="D143">
-        <v>0.08840000000000001</v>
+        <v>0.089</v>
       </c>
       <c r="E143">
-        <v>0.0045</v>
+        <v>0.2813</v>
       </c>
       <c r="F143">
-        <v>0.5147</v>
+        <v>0.5224</v>
       </c>
       <c r="G143" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C144">
-        <v>0.5014</v>
+        <v>0.5076000000000001</v>
       </c>
       <c r="D144">
-        <v>0.1475</v>
+        <v>0.1487</v>
       </c>
       <c r="E144">
-        <v>0.2292</v>
+        <v>0.2436</v>
       </c>
       <c r="F144">
-        <v>0.5138</v>
+        <v>0.5223</v>
       </c>
       <c r="G144" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C145">
-        <v>0.5052</v>
+        <v>0.5097</v>
       </c>
       <c r="D145">
-        <v>0.0764</v>
+        <v>0.0851</v>
       </c>
       <c r="E145">
-        <v>0.026</v>
+        <v>0.0048</v>
       </c>
       <c r="F145">
-        <v>0.5116000000000001</v>
+        <v>0.5181</v>
       </c>
       <c r="G145" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C146">
-        <v>0.5073</v>
+        <v>0.5092</v>
       </c>
       <c r="D146">
-        <v>0.0405</v>
+        <v>0.07389999999999999</v>
       </c>
       <c r="E146">
-        <v>0.0157</v>
+        <v>0.026</v>
       </c>
       <c r="F146">
-        <v>0.5107</v>
+        <v>0.5165</v>
       </c>
       <c r="G146" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C147">
-        <v>0.5009</v>
+        <v>0.503</v>
       </c>
       <c r="D147">
-        <v>0.0924</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E147">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="F147">
-        <v>0.5087</v>
+        <v>0.5115</v>
       </c>
       <c r="G147" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B148" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C148">
-        <v>0.5023</v>
+        <v>0.5054</v>
       </c>
       <c r="D148">
-        <v>0.0385</v>
+        <v>0.0423</v>
       </c>
       <c r="E148">
-        <v>0.0022</v>
+        <v>0.0016</v>
       </c>
       <c r="F148">
-        <v>0.5054999999999999</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="C149">
-        <v>0.4999</v>
+        <v>0.5034999999999999</v>
       </c>
       <c r="D149">
-        <v>0.0457</v>
+        <v>0.0567</v>
       </c>
       <c r="E149">
-        <v>0.0036</v>
+        <v>0.1033</v>
       </c>
       <c r="F149">
-        <v>0.5037</v>
+        <v>0.5091</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C150">
-        <v>0.499</v>
+        <v>0.5016</v>
       </c>
       <c r="D150">
-        <v>0.0459</v>
+        <v>0.0598</v>
       </c>
       <c r="E150">
-        <v>0.0017</v>
+        <v>0.0619</v>
       </c>
       <c r="F150">
-        <v>0.5029</v>
+        <v>0.5075</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C151">
-        <v>0.4879</v>
+        <v>0.5024999999999999</v>
       </c>
       <c r="D151">
-        <v>0.1703</v>
+        <v>0.038</v>
       </c>
       <c r="E151">
-        <v>0.1426</v>
+        <v>0.0022</v>
       </c>
       <c r="F151">
-        <v>0.5022</v>
+        <v>0.5063</v>
       </c>
       <c r="G151" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
-        <v>65</v>
+        <v>134</v>
       </c>
       <c r="C152">
-        <v>0.4972</v>
+        <v>0.4992</v>
       </c>
       <c r="D152">
-        <v>0.0527</v>
+        <v>0.0461</v>
       </c>
       <c r="E152">
-        <v>0.09619999999999999</v>
+        <v>0.0036</v>
       </c>
       <c r="F152">
-        <v>0.5016</v>
+        <v>0.5038</v>
       </c>
       <c r="G152" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B153" t="s">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="C153">
-        <v>0.4953</v>
+        <v>0.4995</v>
       </c>
       <c r="D153">
-        <v>0.0193</v>
+        <v>0.0399</v>
       </c>
       <c r="E153">
-        <v>0.0228</v>
+        <v>0.0158</v>
       </c>
       <c r="F153">
-        <v>0.4969</v>
+        <v>0.5034</v>
       </c>
       <c r="G153" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B154" t="s">
-        <v>35</v>
+        <v>136</v>
       </c>
       <c r="C154">
-        <v>0.4903</v>
+        <v>0.4973</v>
       </c>
       <c r="D154">
-        <v>0.068</v>
+        <v>0.03</v>
       </c>
       <c r="E154">
-        <v>0.107</v>
+        <v>0.0034</v>
       </c>
       <c r="F154">
-        <v>0.496</v>
+        <v>0.5003</v>
       </c>
       <c r="G154" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B155" t="s">
         <v>137</v>
       </c>
       <c r="C155">
-        <v>0.4916</v>
+        <v>0.4841</v>
       </c>
       <c r="D155">
-        <v>0.0298</v>
+        <v>0.1555</v>
       </c>
       <c r="E155">
-        <v>0.0033</v>
+        <v>0.1311</v>
       </c>
       <c r="F155">
-        <v>0.4941</v>
+        <v>0.4995</v>
       </c>
       <c r="G155" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B156" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="C156">
-        <v>0.4834</v>
+        <v>0.495</v>
       </c>
       <c r="D156">
-        <v>0.1134</v>
+        <v>0.0219</v>
       </c>
       <c r="E156">
-        <v>0.0351</v>
+        <v>0.0252</v>
       </c>
       <c r="F156">
-        <v>0.4929</v>
+        <v>0.4972</v>
       </c>
       <c r="G156" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B157" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C157">
-        <v>0.4912</v>
+        <v>0.4901</v>
       </c>
       <c r="D157">
-        <v>0.0172</v>
+        <v>0.066</v>
       </c>
       <c r="E157">
-        <v>0.007900000000000001</v>
+        <v>0.0207</v>
       </c>
       <c r="F157">
-        <v>0.4926</v>
+        <v>0.4966</v>
       </c>
       <c r="G157" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B158" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="C158">
-        <v>0.4821</v>
+        <v>0.4885</v>
       </c>
       <c r="D158">
-        <v>0.1233</v>
+        <v>0.0735</v>
       </c>
       <c r="E158">
-        <v>0.6263</v>
+        <v>0.1161</v>
       </c>
       <c r="F158">
-        <v>0.4925</v>
+        <v>0.4958</v>
       </c>
       <c r="G158" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B159" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C159">
-        <v>0.4846</v>
+        <v>0.4785</v>
       </c>
       <c r="D159">
-        <v>0.0605</v>
+        <v>0.1196</v>
       </c>
       <c r="E159">
-        <v>0.0179</v>
+        <v>0.608</v>
       </c>
       <c r="F159">
-        <v>0.4897</v>
+        <v>0.4903</v>
       </c>
       <c r="G159" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B160" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C160">
-        <v>0.4831</v>
+        <v>0.4818</v>
       </c>
       <c r="D160">
-        <v>0.0742</v>
+        <v>0.0794</v>
       </c>
       <c r="E160">
-        <v>0.0186</v>
+        <v>0.0208</v>
       </c>
       <c r="F160">
-        <v>0.4893</v>
+        <v>0.4896</v>
       </c>
       <c r="G160" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B161" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C161">
-        <v>0.4826</v>
+        <v>0.4816</v>
       </c>
       <c r="D161">
-        <v>0.0745</v>
+        <v>0.07770000000000001</v>
       </c>
       <c r="E161">
-        <v>0.0106</v>
+        <v>0.0108</v>
       </c>
       <c r="F161">
-        <v>0.4889</v>
+        <v>0.4893</v>
       </c>
       <c r="G161" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B162" t="s">
-        <v>94</v>
+        <v>140</v>
       </c>
       <c r="C162">
-        <v>0.4848</v>
+        <v>0.4776</v>
       </c>
       <c r="D162">
-        <v>0.0163</v>
+        <v>0.1122</v>
       </c>
       <c r="E162">
-        <v>0.012</v>
+        <v>0.0352</v>
       </c>
       <c r="F162">
-        <v>0.4862</v>
+        <v>0.4887</v>
       </c>
       <c r="G162" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B163" t="s">
+        <v>89</v>
+      </c>
+      <c r="C163">
+        <v>0.4838</v>
+      </c>
+      <c r="D163">
+        <v>0.0178</v>
+      </c>
+      <c r="E163">
+        <v>0.0081</v>
+      </c>
+      <c r="F163">
+        <v>0.4856</v>
+      </c>
+      <c r="G163" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>125</v>
+      </c>
+      <c r="B164" t="s">
         <v>141</v>
       </c>
-      <c r="C163">
-        <v>0.4817</v>
-      </c>
-      <c r="D163">
-        <v>0.0259</v>
-      </c>
-      <c r="E163">
-        <v>0.0009</v>
-      </c>
-      <c r="F163">
-        <v>0.4839</v>
-      </c>
-      <c r="G163" t="s">
-        <v>47</v>
+      <c r="C164">
+        <v>0.4794</v>
+      </c>
+      <c r="D164">
+        <v>0.0271</v>
+      </c>
+      <c r="E164">
+        <v>0.0011</v>
+      </c>
+      <c r="F164">
+        <v>0.4821</v>
+      </c>
+      <c r="G164" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>125</v>
+      </c>
+      <c r="B165" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165">
+        <v>0.4781</v>
+      </c>
+      <c r="D165">
+        <v>0.0179</v>
+      </c>
+      <c r="E165">
+        <v>0.0136</v>
+      </c>
+      <c r="F165">
+        <v>0.4799</v>
+      </c>
+      <c r="G165" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -4571,7 +4620,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4605,19 +4654,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>0.5318000000000001</v>
+        <v>0.5423</v>
       </c>
       <c r="D2">
-        <v>0.1245</v>
+        <v>0.1065</v>
       </c>
       <c r="E2">
-        <v>0.0052</v>
+        <v>0.5518</v>
       </c>
       <c r="F2">
-        <v>0.5722</v>
+        <v>0.5623</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -4628,19 +4677,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>0.5611</v>
+        <v>0.5536</v>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.0158</v>
       </c>
       <c r="E3">
-        <v>0.0155</v>
+        <v>0.0262</v>
       </c>
       <c r="F3">
-        <v>0.5708</v>
+        <v>0.5566</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -4651,19 +4700,19 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C4">
-        <v>0.5275</v>
+        <v>0.5455</v>
       </c>
       <c r="D4">
-        <v>0.1157</v>
+        <v>0.0308</v>
       </c>
       <c r="E4">
-        <v>0.5105</v>
+        <v>0.0136</v>
       </c>
       <c r="F4">
-        <v>0.5651</v>
+        <v>0.5513</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -4674,19 +4723,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>0.555</v>
+        <v>0.5235</v>
       </c>
       <c r="D5">
-        <v>0.0184</v>
+        <v>0.1323</v>
       </c>
       <c r="E5">
-        <v>0.0249</v>
+        <v>0.0075</v>
       </c>
       <c r="F5">
-        <v>0.5610000000000001</v>
+        <v>0.5483</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
@@ -4697,22 +4746,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>0.5531</v>
+        <v>0.5259</v>
       </c>
       <c r="D6">
-        <v>0.0223</v>
+        <v>0.0718</v>
       </c>
       <c r="E6">
-        <v>0.019</v>
+        <v>0.0049</v>
       </c>
       <c r="F6">
-        <v>0.5603</v>
+        <v>0.5394</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4720,22 +4769,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="C7">
-        <v>0.5087</v>
+        <v>0.5261</v>
       </c>
       <c r="D7">
-        <v>0.1384</v>
+        <v>0.0572</v>
       </c>
       <c r="E7">
-        <v>0.0772</v>
+        <v>0.0098</v>
       </c>
       <c r="F7">
-        <v>0.5536</v>
+        <v>0.5368000000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4743,22 +4792,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>0.5198</v>
+        <v>0.5101</v>
       </c>
       <c r="D8">
-        <v>0.0867</v>
+        <v>0.1354</v>
       </c>
       <c r="E8">
-        <v>0.015</v>
+        <v>0.0801</v>
       </c>
       <c r="F8">
-        <v>0.548</v>
+        <v>0.5355</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4766,22 +4815,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
-        <v>0.5211</v>
+        <v>0.5296</v>
       </c>
       <c r="D9">
-        <v>0.0711</v>
+        <v>0.0212</v>
       </c>
       <c r="E9">
-        <v>0.0679</v>
+        <v>0.0169</v>
       </c>
       <c r="F9">
-        <v>0.5442</v>
+        <v>0.5336</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4789,22 +4838,22 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C10">
-        <v>0.5163</v>
+        <v>0.5197000000000001</v>
       </c>
       <c r="D10">
-        <v>0.0857</v>
+        <v>0.0711</v>
       </c>
       <c r="E10">
-        <v>0.0056</v>
+        <v>0.0106</v>
       </c>
       <c r="F10">
-        <v>0.5441</v>
+        <v>0.533</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4812,22 +4861,22 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.5223</v>
+        <v>0.5138</v>
       </c>
       <c r="D11">
-        <v>0.066</v>
+        <v>0.098</v>
       </c>
       <c r="E11">
-        <v>0.0116</v>
+        <v>0.0741</v>
       </c>
       <c r="F11">
-        <v>0.5437</v>
+        <v>0.5322</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4835,19 +4884,19 @@
         <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>0.5231</v>
+        <v>0.5212</v>
       </c>
       <c r="D12">
-        <v>0.0303</v>
+        <v>0.0296</v>
       </c>
       <c r="E12">
-        <v>0.0002</v>
+        <v>0.0007</v>
       </c>
       <c r="F12">
-        <v>0.5329</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="G12" t="s">
         <v>17</v>
@@ -4858,19 +4907,19 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13">
-        <v>0.5002</v>
+        <v>0.5108</v>
       </c>
       <c r="D13">
-        <v>0.0992</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E13">
-        <v>0.0813</v>
+        <v>0.0641</v>
       </c>
       <c r="F13">
-        <v>0.5324</v>
+        <v>0.5248</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -4881,19 +4930,19 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>0.5034999999999999</v>
+        <v>0.5138</v>
       </c>
       <c r="D14">
-        <v>0.0822</v>
+        <v>0.0313</v>
       </c>
       <c r="E14">
-        <v>0.0308</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F14">
-        <v>0.5302</v>
+        <v>0.5197000000000001</v>
       </c>
       <c r="G14" t="s">
         <v>17</v>
@@ -4904,19 +4953,19 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C15">
-        <v>0.5048</v>
+        <v>0.5013</v>
       </c>
       <c r="D15">
-        <v>0.0761</v>
+        <v>0.09719999999999999</v>
       </c>
       <c r="E15">
-        <v>0.005</v>
+        <v>0.0596</v>
       </c>
       <c r="F15">
-        <v>0.5295</v>
+        <v>0.5195</v>
       </c>
       <c r="G15" t="s">
         <v>17</v>
@@ -4927,22 +4976,22 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C16">
-        <v>0.5161</v>
+        <v>0.5128</v>
       </c>
       <c r="D16">
-        <v>0.039</v>
+        <v>0.0236</v>
       </c>
       <c r="E16">
-        <v>0.0003</v>
+        <v>0.2357</v>
       </c>
       <c r="F16">
-        <v>0.5288</v>
+        <v>0.5172</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4950,22 +4999,22 @@
         <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17">
-        <v>0.5161</v>
+        <v>0.4961</v>
       </c>
       <c r="D17">
-        <v>0.0345</v>
+        <v>0.1116</v>
       </c>
       <c r="E17">
-        <v>0.0047</v>
+        <v>0.0039</v>
       </c>
       <c r="F17">
-        <v>0.5273</v>
+        <v>0.517</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -4973,22 +5022,22 @@
         <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C18">
-        <v>0.5194</v>
+        <v>0.4967</v>
       </c>
       <c r="D18">
-        <v>0.0224</v>
+        <v>0.06809999999999999</v>
       </c>
       <c r="E18">
-        <v>0.2937</v>
+        <v>0.004</v>
       </c>
       <c r="F18">
-        <v>0.5266999999999999</v>
+        <v>0.5095</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -4996,22 +5045,22 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="C19">
-        <v>0.4918</v>
+        <v>0.4994</v>
       </c>
       <c r="D19">
-        <v>0.1064</v>
+        <v>0.0341</v>
       </c>
       <c r="E19">
-        <v>0.0034</v>
+        <v>0.168</v>
       </c>
       <c r="F19">
-        <v>0.5264</v>
+        <v>0.5058</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -5019,22 +5068,22 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C20">
-        <v>0.5141</v>
+        <v>0.4964</v>
       </c>
       <c r="D20">
-        <v>0.0257</v>
+        <v>0.0369</v>
       </c>
       <c r="E20">
-        <v>0.0009</v>
+        <v>0.0003</v>
       </c>
       <c r="F20">
-        <v>0.5224</v>
+        <v>0.5033</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -5042,22 +5091,22 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>0.4856</v>
+        <v>0.4846</v>
       </c>
       <c r="D21">
-        <v>0.1005</v>
+        <v>0.0964</v>
       </c>
       <c r="E21">
-        <v>0.0196</v>
+        <v>0.0228</v>
       </c>
       <c r="F21">
-        <v>0.5182</v>
+        <v>0.5027</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -5065,22 +5114,22 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C22">
-        <v>0.4781</v>
+        <v>0.4929</v>
       </c>
       <c r="D22">
-        <v>0.0949</v>
+        <v>0.0453</v>
       </c>
       <c r="E22">
-        <v>0.0586</v>
+        <v>0.001</v>
       </c>
       <c r="F22">
-        <v>0.5089</v>
+        <v>0.5014</v>
       </c>
       <c r="G22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -5088,22 +5137,22 @@
         <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C23">
-        <v>0.5036</v>
+        <v>0.4985</v>
       </c>
       <c r="D23">
-        <v>0.0133</v>
+        <v>0.0136</v>
       </c>
       <c r="E23">
-        <v>0.0078</v>
+        <v>0.0048</v>
       </c>
       <c r="F23">
-        <v>0.5079</v>
+        <v>0.501</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -5111,22 +5160,22 @@
         <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C24">
-        <v>0.4872</v>
+        <v>0.4881</v>
       </c>
       <c r="D24">
-        <v>0.0489</v>
+        <v>0.0408</v>
       </c>
       <c r="E24">
-        <v>0.0024</v>
+        <v>0.0143</v>
       </c>
       <c r="F24">
-        <v>0.5031</v>
+        <v>0.4957</v>
       </c>
       <c r="G24" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -5134,22 +5183,22 @@
         <v>7</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C25">
-        <v>0.4937</v>
+        <v>0.4858</v>
       </c>
       <c r="D25">
-        <v>0.0114</v>
+        <v>0.0327</v>
       </c>
       <c r="E25">
-        <v>0.0247</v>
+        <v>0.005</v>
       </c>
       <c r="F25">
-        <v>0.4974</v>
+        <v>0.4919</v>
       </c>
       <c r="G25" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -5157,22 +5206,22 @@
         <v>7</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>0.4878</v>
+        <v>0.4813</v>
       </c>
       <c r="D26">
-        <v>0.0217</v>
+        <v>0.0544</v>
       </c>
       <c r="E26">
-        <v>0.0004</v>
+        <v>0.0046</v>
       </c>
       <c r="F26">
-        <v>0.4948</v>
+        <v>0.4915</v>
       </c>
       <c r="G26" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -5180,22 +5229,22 @@
         <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C27">
-        <v>0.4892</v>
+        <v>0.4853</v>
       </c>
       <c r="D27">
-        <v>0.0156</v>
+        <v>0.0309</v>
       </c>
       <c r="E27">
-        <v>0.8484</v>
+        <v>0.0035</v>
       </c>
       <c r="F27">
-        <v>0.4943</v>
+        <v>0.4911</v>
       </c>
       <c r="G27" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -5203,22 +5252,22 @@
         <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C28">
-        <v>0.4892</v>
+        <v>0.4721</v>
       </c>
       <c r="D28">
-        <v>0.0112</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="E28">
-        <v>0.014</v>
+        <v>0.0336</v>
       </c>
       <c r="F28">
-        <v>0.4928</v>
+        <v>0.4868</v>
       </c>
       <c r="G28" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -5226,22 +5275,22 @@
         <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>0.4782</v>
+        <v>0.4748</v>
       </c>
       <c r="D29">
-        <v>0.0432</v>
+        <v>0.0605</v>
       </c>
       <c r="E29">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="F29">
-        <v>0.4922</v>
+        <v>0.4861</v>
       </c>
       <c r="G29" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -5249,22 +5298,22 @@
         <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C30">
-        <v>0.4794</v>
+        <v>0.4814</v>
       </c>
       <c r="D30">
-        <v>0.0364</v>
+        <v>0.0234</v>
       </c>
       <c r="E30">
-        <v>0.008399999999999999</v>
+        <v>0.0119</v>
       </c>
       <c r="F30">
-        <v>0.4912</v>
+        <v>0.4858</v>
       </c>
       <c r="G30" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -5272,22 +5321,22 @@
         <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C31">
-        <v>0.4748</v>
+        <v>0.4684</v>
       </c>
       <c r="D31">
-        <v>0.0306</v>
+        <v>0.016</v>
       </c>
       <c r="E31">
-        <v>0.0041</v>
+        <v>0.012</v>
       </c>
       <c r="F31">
-        <v>0.4847</v>
+        <v>0.4714</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -5295,22 +5344,22 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="C32">
-        <v>0.4679</v>
+        <v>0.4668</v>
       </c>
       <c r="D32">
-        <v>0.0308</v>
+        <v>0.0109</v>
       </c>
       <c r="E32">
-        <v>0.2111</v>
+        <v>0.0185</v>
       </c>
       <c r="F32">
-        <v>0.4779</v>
+        <v>0.4688</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -5318,22 +5367,22 @@
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C33">
-        <v>0.4716</v>
+        <v>0.465</v>
       </c>
       <c r="D33">
-        <v>0.0187</v>
+        <v>0.0199</v>
       </c>
       <c r="E33">
-        <v>0.0058</v>
+        <v>0.0008</v>
       </c>
       <c r="F33">
-        <v>0.4777</v>
+        <v>0.4687</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -5341,22 +5390,22 @@
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C34">
-        <v>0.4577</v>
+        <v>0.4552</v>
       </c>
       <c r="D34">
-        <v>0.0582</v>
+        <v>0.0712</v>
       </c>
       <c r="E34">
-        <v>0.0003</v>
+        <v>0.0005</v>
       </c>
       <c r="F34">
-        <v>0.4766</v>
+        <v>0.4685</v>
       </c>
       <c r="G34" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -5364,22 +5413,22 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C35">
-        <v>0.4486</v>
+        <v>0.4633</v>
       </c>
       <c r="D35">
-        <v>0.0638</v>
+        <v>0.0226</v>
       </c>
       <c r="E35">
-        <v>0.0003</v>
+        <v>0.0008</v>
       </c>
       <c r="F35">
-        <v>0.4693</v>
+        <v>0.4675</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -5387,22 +5436,22 @@
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C36">
-        <v>0.4297</v>
+        <v>0.4588</v>
       </c>
       <c r="D36">
-        <v>0.0179</v>
+        <v>0.0198</v>
       </c>
       <c r="E36">
-        <v>0.0005</v>
+        <v>0.0002</v>
       </c>
       <c r="F36">
-        <v>0.4355</v>
+        <v>0.4625</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -5410,22 +5459,22 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="C37">
-        <v>0.4216</v>
+        <v>0.4521</v>
       </c>
       <c r="D37">
-        <v>0.0179</v>
+        <v>0.016</v>
       </c>
       <c r="E37">
-        <v>0.0002</v>
+        <v>0.8628</v>
       </c>
       <c r="F37">
-        <v>0.4274</v>
+        <v>0.4551</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -5433,19 +5482,19 @@
         <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>0.5514</v>
+        <v>0.5414</v>
       </c>
       <c r="D38">
-        <v>0.0324</v>
+        <v>0.03</v>
       </c>
       <c r="E38">
-        <v>0.0017</v>
+        <v>0.0013</v>
       </c>
       <c r="F38">
-        <v>0.5557</v>
+        <v>0.5451</v>
       </c>
       <c r="G38" t="s">
         <v>11</v>
@@ -5456,19 +5505,19 @@
         <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C39">
-        <v>0.5469000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="D39">
-        <v>0.0335</v>
+        <v>0.0896</v>
       </c>
       <c r="E39">
-        <v>0.0021</v>
+        <v>0.3485</v>
       </c>
       <c r="F39">
-        <v>0.5514</v>
+        <v>0.5411</v>
       </c>
       <c r="G39" t="s">
         <v>11</v>
@@ -5479,19 +5528,19 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C40">
-        <v>0.5466</v>
+        <v>0.5305</v>
       </c>
       <c r="D40">
-        <v>0.0295</v>
+        <v>0.0751</v>
       </c>
       <c r="E40">
-        <v>0.0068</v>
+        <v>0.0202</v>
       </c>
       <c r="F40">
-        <v>0.5505</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="G40" t="s">
         <v>11</v>
@@ -5505,16 +5554,16 @@
         <v>54</v>
       </c>
       <c r="C41">
-        <v>0.5441</v>
+        <v>0.5323</v>
       </c>
       <c r="D41">
-        <v>0.0334</v>
+        <v>0.0603</v>
       </c>
       <c r="E41">
-        <v>0.158</v>
+        <v>0.0262</v>
       </c>
       <c r="F41">
-        <v>0.5485</v>
+        <v>0.5397999999999999</v>
       </c>
       <c r="G41" t="s">
         <v>11</v>
@@ -5525,19 +5574,19 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C42">
-        <v>0.5406</v>
+        <v>0.5318000000000001</v>
       </c>
       <c r="D42">
-        <v>0.019</v>
+        <v>0.0273</v>
       </c>
       <c r="E42">
-        <v>0.0005</v>
+        <v>0.0053</v>
       </c>
       <c r="F42">
-        <v>0.5431</v>
+        <v>0.5352</v>
       </c>
       <c r="G42" t="s">
         <v>11</v>
@@ -5548,19 +5597,19 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C43">
-        <v>0.5219</v>
+        <v>0.5245</v>
       </c>
       <c r="D43">
-        <v>0.1016</v>
+        <v>0.07489999999999999</v>
       </c>
       <c r="E43">
-        <v>0.2937</v>
+        <v>0.5518</v>
       </c>
       <c r="F43">
-        <v>0.5354</v>
+        <v>0.5338000000000001</v>
       </c>
       <c r="G43" t="s">
         <v>11</v>
@@ -5571,22 +5620,22 @@
         <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C44">
-        <v>0.5238</v>
+        <v>0.5303</v>
       </c>
       <c r="D44">
-        <v>0.0721</v>
+        <v>0.0253</v>
       </c>
       <c r="E44">
-        <v>0.5105</v>
+        <v>0.0025</v>
       </c>
       <c r="F44">
         <v>0.5334</v>
       </c>
       <c r="G44" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -5594,22 +5643,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C45">
-        <v>0.5205</v>
+        <v>0.53</v>
       </c>
       <c r="D45">
-        <v>0.09669999999999999</v>
+        <v>0.0172</v>
       </c>
       <c r="E45">
-        <v>0.4067</v>
+        <v>0.0008</v>
       </c>
       <c r="F45">
-        <v>0.5334</v>
+        <v>0.5321</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -5617,22 +5666,22 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="C46">
-        <v>0.5205</v>
+        <v>0.5032</v>
       </c>
       <c r="D46">
-        <v>0.0906</v>
+        <v>0.2273</v>
       </c>
       <c r="E46">
-        <v>0.0136</v>
+        <v>0.1382</v>
       </c>
       <c r="F46">
-        <v>0.5325</v>
+        <v>0.5315</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -5640,22 +5689,22 @@
         <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C47">
-        <v>0.4927</v>
+        <v>0.5271</v>
       </c>
       <c r="D47">
-        <v>0.2407</v>
+        <v>0.0324</v>
       </c>
       <c r="E47">
-        <v>0.1561</v>
+        <v>0.1271</v>
       </c>
       <c r="F47">
-        <v>0.5247000000000001</v>
+        <v>0.5311</v>
       </c>
       <c r="G47" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -5663,22 +5712,22 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C48">
-        <v>0.5162</v>
+        <v>0.5189</v>
       </c>
       <c r="D48">
-        <v>0.0582</v>
+        <v>0.09030000000000001</v>
       </c>
       <c r="E48">
-        <v>0.0249</v>
+        <v>0.2357</v>
       </c>
       <c r="F48">
-        <v>0.5239</v>
+        <v>0.5301</v>
       </c>
       <c r="G48" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -5686,22 +5735,22 @@
         <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="C49">
-        <v>0.5201</v>
+        <v>0.5225</v>
       </c>
       <c r="D49">
-        <v>0.0265</v>
+        <v>0.0287</v>
       </c>
       <c r="E49">
-        <v>0.0042</v>
+        <v>0.0019</v>
       </c>
       <c r="F49">
-        <v>0.5236</v>
+        <v>0.5261</v>
       </c>
       <c r="G49" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -5709,19 +5758,19 @@
         <v>51</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="C50">
-        <v>0.5204</v>
+        <v>0.509</v>
       </c>
       <c r="D50">
-        <v>0.0225</v>
+        <v>0.0693</v>
       </c>
       <c r="E50">
-        <v>0.0024</v>
+        <v>0.0073</v>
       </c>
       <c r="F50">
-        <v>0.5234</v>
+        <v>0.5175999999999999</v>
       </c>
       <c r="G50" t="s">
         <v>17</v>
@@ -5732,19 +5781,19 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C51">
-        <v>0.5175999999999999</v>
+        <v>0.5059</v>
       </c>
       <c r="D51">
-        <v>0.0151</v>
+        <v>0.0799</v>
       </c>
       <c r="E51">
-        <v>0.0116</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F51">
-        <v>0.5196</v>
+        <v>0.5158</v>
       </c>
       <c r="G51" t="s">
         <v>17</v>
@@ -5755,19 +5804,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="C52">
-        <v>0.5107</v>
+        <v>0.5052</v>
       </c>
       <c r="D52">
-        <v>0.0497</v>
+        <v>0.0587</v>
       </c>
       <c r="E52">
-        <v>0.0212</v>
+        <v>0.028</v>
       </c>
       <c r="F52">
-        <v>0.5173</v>
+        <v>0.5125</v>
       </c>
       <c r="G52" t="s">
         <v>17</v>
@@ -5778,19 +5827,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C53">
-        <v>0.5089</v>
+        <v>0.5044999999999999</v>
       </c>
       <c r="D53">
-        <v>0.0624</v>
+        <v>0.0557</v>
       </c>
       <c r="E53">
-        <v>0.014</v>
+        <v>0.0018</v>
       </c>
       <c r="F53">
-        <v>0.5172</v>
+        <v>0.5114</v>
       </c>
       <c r="G53" t="s">
         <v>17</v>
@@ -5801,19 +5850,19 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="C54">
-        <v>0.5125999999999999</v>
+        <v>0.5054</v>
       </c>
       <c r="D54">
-        <v>0.0211</v>
+        <v>0.0264</v>
       </c>
       <c r="E54">
-        <v>0.019</v>
+        <v>0.0013</v>
       </c>
       <c r="F54">
-        <v>0.5154</v>
+        <v>0.5087</v>
       </c>
       <c r="G54" t="s">
         <v>17</v>
@@ -5824,22 +5873,22 @@
         <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C55">
-        <v>0.501</v>
+        <v>0.5008</v>
       </c>
       <c r="D55">
-        <v>0.0956</v>
+        <v>0.0487</v>
       </c>
       <c r="E55">
-        <v>0.0813</v>
+        <v>0.0004</v>
       </c>
       <c r="F55">
-        <v>0.5137</v>
+        <v>0.5069</v>
       </c>
       <c r="G55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -5847,22 +5896,22 @@
         <v>51</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C56">
-        <v>0.5042</v>
+        <v>0.4954</v>
       </c>
       <c r="D56">
-        <v>0.06320000000000001</v>
+        <v>0.0853</v>
       </c>
       <c r="E56">
-        <v>0.0265</v>
+        <v>0.0741</v>
       </c>
       <c r="F56">
-        <v>0.5125999999999999</v>
+        <v>0.506</v>
       </c>
       <c r="G56" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -5870,22 +5919,22 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C57">
-        <v>0.508</v>
+        <v>0.4954</v>
       </c>
       <c r="D57">
-        <v>0.03</v>
+        <v>0.0596</v>
       </c>
       <c r="E57">
-        <v>0.0011</v>
+        <v>0.0165</v>
       </c>
       <c r="F57">
-        <v>0.512</v>
+        <v>0.5028</v>
       </c>
       <c r="G57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -5893,22 +5942,22 @@
         <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>142</v>
       </c>
       <c r="C58">
-        <v>0.5041</v>
+        <v>0.5006</v>
       </c>
       <c r="D58">
-        <v>0.0591</v>
+        <v>0.0168</v>
       </c>
       <c r="E58">
-        <v>0.0011</v>
+        <v>0.001</v>
       </c>
       <c r="F58">
-        <v>0.512</v>
+        <v>0.5027</v>
       </c>
       <c r="G58" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -5916,22 +5965,22 @@
         <v>51</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C59">
-        <v>0.5079</v>
+        <v>0.4991</v>
       </c>
       <c r="D59">
-        <v>0.0243</v>
+        <v>0.0216</v>
       </c>
       <c r="E59">
-        <v>0.0013</v>
+        <v>0.0169</v>
       </c>
       <c r="F59">
-        <v>0.5111</v>
+        <v>0.5018</v>
       </c>
       <c r="G59" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -5939,22 +5988,22 @@
         <v>51</v>
       </c>
       <c r="B60" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C60">
-        <v>0.4972</v>
+        <v>0.4979</v>
       </c>
       <c r="D60">
-        <v>0.0858</v>
+        <v>0.0144</v>
       </c>
       <c r="E60">
-        <v>0.01</v>
+        <v>0.0098</v>
       </c>
       <c r="F60">
-        <v>0.5086000000000001</v>
+        <v>0.4997</v>
       </c>
       <c r="G60" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -5962,22 +6011,22 @@
         <v>51</v>
       </c>
       <c r="B61" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C61">
-        <v>0.4978</v>
+        <v>0.4906</v>
       </c>
       <c r="D61">
-        <v>0.077</v>
+        <v>0.0429</v>
       </c>
       <c r="E61">
-        <v>0.008800000000000001</v>
+        <v>0.0193</v>
       </c>
       <c r="F61">
-        <v>0.508</v>
+        <v>0.4959</v>
       </c>
       <c r="G61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -5985,22 +6034,22 @@
         <v>51</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C62">
-        <v>0.4878</v>
+        <v>0.4847</v>
       </c>
       <c r="D62">
-        <v>0.0473</v>
+        <v>0.08</v>
       </c>
       <c r="E62">
-        <v>0.0003</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F62">
-        <v>0.4941</v>
+        <v>0.4947</v>
       </c>
       <c r="G62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -6008,22 +6057,22 @@
         <v>51</v>
       </c>
       <c r="B63" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C63">
-        <v>0.4916</v>
+        <v>0.489</v>
       </c>
       <c r="D63">
-        <v>0.0144</v>
+        <v>0.0356</v>
       </c>
       <c r="E63">
-        <v>0.0009</v>
+        <v>0.0021</v>
       </c>
       <c r="F63">
-        <v>0.4935</v>
+        <v>0.4934</v>
       </c>
       <c r="G63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -6031,22 +6080,22 @@
         <v>51</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C64">
-        <v>0.4848</v>
+        <v>0.4898</v>
       </c>
       <c r="D64">
-        <v>0.0494</v>
+        <v>0.0238</v>
       </c>
       <c r="E64">
-        <v>0.0001</v>
+        <v>0.002</v>
       </c>
       <c r="F64">
-        <v>0.4914</v>
+        <v>0.4928</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -6054,22 +6103,22 @@
         <v>51</v>
       </c>
       <c r="B65" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C65">
-        <v>0.483</v>
+        <v>0.4788</v>
       </c>
       <c r="D65">
-        <v>0.061</v>
+        <v>0.0791</v>
       </c>
       <c r="E65">
-        <v>0.0175</v>
+        <v>0.065</v>
       </c>
       <c r="F65">
-        <v>0.4911</v>
+        <v>0.4886</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -6077,22 +6126,22 @@
         <v>51</v>
       </c>
       <c r="B66" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C66">
-        <v>0.4768</v>
+        <v>0.4772</v>
       </c>
       <c r="D66">
-        <v>0.0624</v>
+        <v>0.0508</v>
       </c>
       <c r="E66">
-        <v>0.043</v>
+        <v>0.0011</v>
       </c>
       <c r="F66">
-        <v>0.4851</v>
+        <v>0.4835</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -6100,22 +6149,22 @@
         <v>51</v>
       </c>
       <c r="B67" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C67">
-        <v>0.4706</v>
+        <v>0.4763</v>
       </c>
       <c r="D67">
-        <v>0.0181</v>
+        <v>0.0221</v>
       </c>
       <c r="E67">
-        <v>0.0058</v>
+        <v>0.0046</v>
       </c>
       <c r="F67">
-        <v>0.473</v>
+        <v>0.479</v>
       </c>
       <c r="G67" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -6123,22 +6172,22 @@
         <v>51</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C68">
-        <v>0.4684</v>
+        <v>0.4716</v>
       </c>
       <c r="D68">
-        <v>0.0244</v>
+        <v>0.0468</v>
       </c>
       <c r="E68">
-        <v>0.0008</v>
+        <v>0.0007</v>
       </c>
       <c r="F68">
-        <v>0.4716</v>
+        <v>0.4774</v>
       </c>
       <c r="G68" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -6146,22 +6195,22 @@
         <v>51</v>
       </c>
       <c r="B69" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C69">
-        <v>0.4635</v>
+        <v>0.4728</v>
       </c>
       <c r="D69">
-        <v>0.0463</v>
+        <v>0.0293</v>
       </c>
       <c r="E69">
         <v>0.0005999999999999999</v>
       </c>
       <c r="F69">
-        <v>0.4697</v>
+        <v>0.4764</v>
       </c>
       <c r="G69" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -6169,22 +6218,22 @@
         <v>51</v>
       </c>
       <c r="B70" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C70">
-        <v>0.4598</v>
+        <v>0.4707</v>
       </c>
       <c r="D70">
-        <v>0.0192</v>
+        <v>0.0241</v>
       </c>
       <c r="E70">
-        <v>0.0196</v>
+        <v>0.0046</v>
       </c>
       <c r="F70">
-        <v>0.4624</v>
+        <v>0.4737</v>
       </c>
       <c r="G70" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -6192,22 +6241,22 @@
         <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C71">
-        <v>0.4531</v>
+        <v>0.4669</v>
       </c>
       <c r="D71">
-        <v>0.0396</v>
+        <v>0.0534</v>
       </c>
       <c r="E71">
-        <v>0.0009</v>
+        <v>0.0004</v>
       </c>
       <c r="F71">
-        <v>0.4584</v>
+        <v>0.4735</v>
       </c>
       <c r="G71" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -6215,22 +6264,22 @@
         <v>51</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72">
-        <v>0.455</v>
+        <v>0.468</v>
       </c>
       <c r="D72">
-        <v>0.0193</v>
+        <v>0.029</v>
       </c>
       <c r="E72">
-        <v>0.0026</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F72">
-        <v>0.4576</v>
+        <v>0.4716</v>
       </c>
       <c r="G72" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -6238,22 +6287,22 @@
         <v>51</v>
       </c>
       <c r="B73" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="C73">
-        <v>0.4514</v>
+        <v>0.4666</v>
       </c>
       <c r="D73">
-        <v>0.0224</v>
+        <v>0.0187</v>
       </c>
       <c r="E73">
-        <v>0.0013</v>
+        <v>0.0185</v>
       </c>
       <c r="F73">
-        <v>0.4544</v>
+        <v>0.4689</v>
       </c>
       <c r="G73" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -6261,111 +6310,111 @@
         <v>51</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C74">
-        <v>0.4493</v>
+        <v>0.4641</v>
       </c>
       <c r="D74">
-        <v>0.0167</v>
+        <v>0.025</v>
       </c>
       <c r="E74">
-        <v>0.0247</v>
+        <v>0.0119</v>
       </c>
       <c r="F74">
-        <v>0.4515</v>
+        <v>0.4672</v>
       </c>
       <c r="G74" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B75" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C75">
-        <v>0.5923</v>
+        <v>0.4487</v>
       </c>
       <c r="D75">
-        <v>0.0617</v>
+        <v>0.0116</v>
       </c>
       <c r="E75">
-        <v>0.0414</v>
+        <v>0.0039</v>
       </c>
       <c r="F75">
-        <v>0.6138</v>
+        <v>0.4501</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C76">
-        <v>0.5983000000000001</v>
+        <v>0.4283</v>
       </c>
       <c r="D76">
-        <v>0.0224</v>
+        <v>0.0201</v>
       </c>
       <c r="E76">
-        <v>0.0679</v>
+        <v>0.0228</v>
       </c>
       <c r="F76">
-        <v>0.6061</v>
+        <v>0.4308</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C77">
-        <v>0.5802</v>
+        <v>0.5873</v>
       </c>
       <c r="D77">
-        <v>0.037</v>
+        <v>0.0214</v>
       </c>
       <c r="E77">
-        <v>0.0155</v>
+        <v>0.0641</v>
       </c>
       <c r="F77">
-        <v>0.5931</v>
+        <v>0.5927</v>
       </c>
       <c r="G77" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C78">
-        <v>0.53</v>
+        <v>0.5629</v>
       </c>
       <c r="D78">
-        <v>0.1351</v>
+        <v>0.0492</v>
       </c>
       <c r="E78">
-        <v>0.0476</v>
+        <v>0.0285</v>
       </c>
       <c r="F78">
-        <v>0.577</v>
+        <v>0.5752</v>
       </c>
       <c r="G78" t="s">
         <v>11</v>
@@ -6373,922 +6422,922 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="C79">
-        <v>0.5456</v>
+        <v>0.5589</v>
       </c>
       <c r="D79">
-        <v>0.0259</v>
+        <v>0.0293</v>
       </c>
       <c r="E79">
-        <v>0.0001</v>
+        <v>0.0136</v>
       </c>
       <c r="F79">
-        <v>0.5546</v>
+        <v>0.5662</v>
       </c>
       <c r="G79" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>13</v>
       </c>
       <c r="C80">
-        <v>0.5478</v>
+        <v>0.5595</v>
       </c>
       <c r="D80">
-        <v>0.0152</v>
+        <v>0.0121</v>
       </c>
       <c r="E80">
-        <v>0.0076</v>
+        <v>0.0007</v>
       </c>
       <c r="F80">
-        <v>0.5531</v>
+        <v>0.5625</v>
       </c>
       <c r="G80" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>0.5375</v>
+        <v>0.5532</v>
       </c>
       <c r="D81">
-        <v>0.0348</v>
+        <v>0.0234</v>
       </c>
       <c r="E81">
-        <v>0.0015</v>
+        <v>0.0075</v>
       </c>
       <c r="F81">
-        <v>0.5496</v>
+        <v>0.5591</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="C82">
-        <v>0.5389</v>
+        <v>0.5487</v>
       </c>
       <c r="D82">
-        <v>0.018</v>
+        <v>0.0128</v>
       </c>
       <c r="E82">
-        <v>0.0011</v>
+        <v>0.0076</v>
       </c>
       <c r="F82">
-        <v>0.5452</v>
+        <v>0.5518999999999999</v>
       </c>
       <c r="G82" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="C83">
-        <v>0.534</v>
+        <v>0.5158</v>
       </c>
       <c r="D83">
-        <v>0.0206</v>
+        <v>0.1299</v>
       </c>
       <c r="E83">
-        <v>0.0052</v>
+        <v>0.051</v>
       </c>
       <c r="F83">
-        <v>0.5412</v>
+        <v>0.5483</v>
       </c>
       <c r="G83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>0.4939</v>
+        <v>0.5111</v>
       </c>
       <c r="D84">
-        <v>0.1312</v>
+        <v>0.1001</v>
       </c>
       <c r="E84">
-        <v>0.0421</v>
+        <v>0.0022</v>
       </c>
       <c r="F84">
-        <v>0.5395</v>
+        <v>0.5362</v>
       </c>
       <c r="G84" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="C85">
-        <v>0.5303</v>
+        <v>0.5291</v>
       </c>
       <c r="D85">
-        <v>0.0127</v>
+        <v>0.0267</v>
       </c>
       <c r="E85">
-        <v>0.0005999999999999999</v>
+        <v>0.0004</v>
       </c>
       <c r="F85">
-        <v>0.5347</v>
+        <v>0.5358000000000001</v>
       </c>
       <c r="G85" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B86" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C86">
-        <v>0.4977</v>
+        <v>0.5315</v>
       </c>
       <c r="D86">
-        <v>0.1047</v>
+        <v>0.0167</v>
       </c>
       <c r="E86">
         <v>0.0016</v>
       </c>
       <c r="F86">
-        <v>0.5341</v>
+        <v>0.5357</v>
       </c>
       <c r="G86" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
         <v>82</v>
       </c>
-      <c r="B87" t="s">
-        <v>99</v>
-      </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>0.4983</v>
       </c>
       <c r="D87">
-        <v>0.097</v>
+        <v>0.1386</v>
       </c>
       <c r="E87">
-        <v>0.0109</v>
+        <v>0.0562</v>
       </c>
       <c r="F87">
-        <v>0.5337</v>
+        <v>0.533</v>
       </c>
       <c r="G87" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="C88">
-        <v>0.5211</v>
+        <v>0.5222</v>
       </c>
       <c r="D88">
-        <v>0.0344</v>
+        <v>0.0419</v>
       </c>
       <c r="E88">
-        <v>0.0004</v>
+        <v>0.008</v>
       </c>
       <c r="F88">
-        <v>0.5331</v>
+        <v>0.5327</v>
       </c>
       <c r="G88" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C89">
-        <v>0.5242</v>
+        <v>0.5128</v>
       </c>
       <c r="D89">
-        <v>0.0229</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E89">
-        <v>0.0584</v>
+        <v>0.168</v>
       </c>
       <c r="F89">
-        <v>0.5322</v>
+        <v>0.5308</v>
       </c>
       <c r="G89" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B90" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="C90">
-        <v>0.51</v>
+        <v>0.5211</v>
       </c>
       <c r="D90">
-        <v>0.0553</v>
+        <v>0.0282</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>0.0014</v>
       </c>
       <c r="F90">
-        <v>0.5292</v>
+        <v>0.5282</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C91">
-        <v>0.4981</v>
+        <v>0.5117</v>
       </c>
       <c r="D91">
-        <v>0.0872</v>
+        <v>0.06569999999999999</v>
       </c>
       <c r="E91">
-        <v>0.0327</v>
+        <v>0.0008</v>
       </c>
       <c r="F91">
-        <v>0.5284</v>
+        <v>0.5281</v>
       </c>
       <c r="G91" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B92" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="C92">
-        <v>0.5042</v>
+        <v>0.5248</v>
       </c>
       <c r="D92">
-        <v>0.0693</v>
+        <v>0.0122</v>
       </c>
       <c r="E92">
-        <v>0.2111</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F92">
-        <v>0.5283</v>
+        <v>0.5279</v>
       </c>
       <c r="G92" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="C93">
-        <v>0.519</v>
+        <v>0.5052</v>
       </c>
       <c r="D93">
-        <v>0.0178</v>
+        <v>0.0545</v>
       </c>
       <c r="E93">
-        <v>0.0047</v>
+        <v>0.0058</v>
       </c>
       <c r="F93">
-        <v>0.5252</v>
+        <v>0.5188</v>
       </c>
       <c r="G93" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B94" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C94">
-        <v>0.5004</v>
+        <v>0.4965</v>
       </c>
       <c r="D94">
-        <v>0.0595</v>
+        <v>0.0866</v>
       </c>
       <c r="E94">
-        <v>0.003</v>
+        <v>0.0337</v>
       </c>
       <c r="F94">
-        <v>0.5211</v>
+        <v>0.5182</v>
       </c>
       <c r="G94" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C95">
-        <v>0.5125999999999999</v>
+        <v>0.5033</v>
       </c>
       <c r="D95">
-        <v>0.0172</v>
+        <v>0.0584</v>
       </c>
       <c r="E95">
-        <v>0.0013</v>
+        <v>0.0001</v>
       </c>
       <c r="F95">
-        <v>0.5185999999999999</v>
+        <v>0.5179</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C96">
-        <v>0.4929</v>
+        <v>0.5095</v>
       </c>
       <c r="D96">
-        <v>0.0614</v>
+        <v>0.0298</v>
       </c>
       <c r="E96">
-        <v>0.0007</v>
+        <v>0.0002</v>
       </c>
       <c r="F96">
-        <v>0.5143</v>
+        <v>0.517</v>
       </c>
       <c r="G96" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C97">
-        <v>0.5026</v>
+        <v>0.4936</v>
       </c>
       <c r="D97">
-        <v>0.0277</v>
+        <v>0.0916</v>
       </c>
       <c r="E97">
-        <v>0.0056</v>
+        <v>0.0124</v>
       </c>
       <c r="F97">
-        <v>0.5122</v>
+        <v>0.5165</v>
       </c>
       <c r="G97" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="C98">
-        <v>0.4919</v>
+        <v>0.5068</v>
       </c>
       <c r="D98">
-        <v>0.0534</v>
+        <v>0.034</v>
       </c>
       <c r="E98">
-        <v>0.0039</v>
+        <v>0.0046</v>
       </c>
       <c r="F98">
-        <v>0.5105</v>
+        <v>0.5153</v>
       </c>
       <c r="G98" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="C99">
-        <v>0.4924</v>
+        <v>0.5086000000000001</v>
       </c>
       <c r="D99">
-        <v>0.0443</v>
+        <v>0.0247</v>
       </c>
       <c r="E99">
-        <v>0.0128</v>
+        <v>0.0886</v>
       </c>
       <c r="F99">
-        <v>0.5078</v>
+        <v>0.5148</v>
       </c>
       <c r="G99" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B100" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C100">
-        <v>0.4753</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="D100">
-        <v>0.0901</v>
+        <v>0.0278</v>
       </c>
       <c r="E100">
-        <v>0.0024</v>
+        <v>0.0053</v>
       </c>
       <c r="F100">
-        <v>0.5066000000000001</v>
+        <v>0.5125</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B101" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="C101">
-        <v>0.4907</v>
+        <v>0.4849</v>
       </c>
       <c r="D101">
-        <v>0.0338</v>
+        <v>0.0987</v>
       </c>
       <c r="E101">
-        <v>0.0026</v>
+        <v>0.0034</v>
       </c>
       <c r="F101">
-        <v>0.5024999999999999</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>50</v>
       </c>
       <c r="C102">
-        <v>0.4736</v>
+        <v>0.5008</v>
       </c>
       <c r="D102">
-        <v>0.0804</v>
+        <v>0.0252</v>
       </c>
       <c r="E102">
-        <v>0.0095</v>
+        <v>0.0008</v>
       </c>
       <c r="F102">
-        <v>0.5016</v>
+        <v>0.5071</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B103" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C103">
-        <v>0.4843</v>
+        <v>0.4855</v>
       </c>
       <c r="D103">
-        <v>0.0446</v>
+        <v>0.0848</v>
       </c>
       <c r="E103">
-        <v>0.0029</v>
+        <v>0.0117</v>
       </c>
       <c r="F103">
-        <v>0.4998</v>
+        <v>0.5067</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C104">
-        <v>0.4873</v>
+        <v>0.4932</v>
       </c>
       <c r="D104">
-        <v>0.0304</v>
+        <v>0.0399</v>
       </c>
       <c r="E104">
-        <v>0.0004</v>
+        <v>0.0027</v>
       </c>
       <c r="F104">
-        <v>0.4979</v>
+        <v>0.5032</v>
       </c>
       <c r="G104" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B105" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C105">
-        <v>0.4618</v>
+        <v>0.4816</v>
       </c>
       <c r="D105">
-        <v>0.0955</v>
+        <v>0.0813</v>
       </c>
       <c r="E105">
-        <v>0.8484</v>
+        <v>0.8628</v>
       </c>
       <c r="F105">
-        <v>0.495</v>
+        <v>0.502</v>
       </c>
       <c r="G105" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C106">
-        <v>0.4848</v>
+        <v>0.4897</v>
       </c>
       <c r="D106">
-        <v>0.0223</v>
+        <v>0.0431</v>
       </c>
       <c r="E106">
-        <v>0.4067</v>
+        <v>0.0259</v>
       </c>
       <c r="F106">
-        <v>0.4926</v>
+        <v>0.5004999999999999</v>
       </c>
       <c r="G106" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B107" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="C107">
-        <v>0.4809</v>
+        <v>0.4925</v>
       </c>
       <c r="D107">
-        <v>0.0165</v>
+        <v>0.0255</v>
       </c>
       <c r="E107">
-        <v>0.0078</v>
+        <v>0.001</v>
       </c>
       <c r="F107">
-        <v>0.4866</v>
+        <v>0.4989</v>
       </c>
       <c r="G107" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C108">
-        <v>0.4788</v>
+        <v>0.4931</v>
       </c>
       <c r="D108">
-        <v>0.0125</v>
+        <v>0.0176</v>
       </c>
       <c r="E108">
-        <v>0.0009</v>
+        <v>0.012</v>
       </c>
       <c r="F108">
-        <v>0.4831</v>
+        <v>0.4975</v>
       </c>
       <c r="G108" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C109">
-        <v>0.4676</v>
+        <v>0.4749</v>
       </c>
       <c r="D109">
-        <v>0.0417</v>
+        <v>0.0502</v>
       </c>
       <c r="E109">
-        <v>0.0376</v>
+        <v>0.0566</v>
       </c>
       <c r="F109">
-        <v>0.4821</v>
+        <v>0.4875</v>
       </c>
       <c r="G109" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B110" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C110">
-        <v>0.4756</v>
+        <v>0.4677</v>
       </c>
       <c r="D110">
-        <v>0.0158</v>
+        <v>0.0703</v>
       </c>
       <c r="E110">
-        <v>0.0007</v>
+        <v>0.0043</v>
       </c>
       <c r="F110">
-        <v>0.4811</v>
+        <v>0.4853</v>
       </c>
       <c r="G110" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B111" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="C111">
-        <v>0.4634</v>
+        <v>0.4818</v>
       </c>
       <c r="D111">
-        <v>0.039</v>
+        <v>0.0105</v>
       </c>
       <c r="E111">
-        <v>0.0176</v>
+        <v>0.0192</v>
       </c>
       <c r="F111">
-        <v>0.477</v>
+        <v>0.4844</v>
       </c>
       <c r="G111" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B112" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C112">
-        <v>0.4674</v>
+        <v>0.4755</v>
       </c>
       <c r="D112">
-        <v>0.0274</v>
+        <v>0.0247</v>
       </c>
       <c r="E112">
-        <v>0.0014</v>
+        <v>0.3485</v>
       </c>
       <c r="F112">
-        <v>0.4769</v>
+        <v>0.4817</v>
       </c>
       <c r="G112" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B113" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="C113">
-        <v>0.4671</v>
+        <v>0.4713</v>
       </c>
       <c r="D113">
-        <v>0.022</v>
+        <v>0.0366</v>
       </c>
       <c r="E113">
-        <v>0.0005999999999999999</v>
+        <v>0.0019</v>
       </c>
       <c r="F113">
-        <v>0.4748</v>
+        <v>0.4805</v>
       </c>
       <c r="G113" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B114" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C114">
-        <v>0.5701000000000001</v>
+        <v>0.4731</v>
       </c>
       <c r="D114">
-        <v>0.1064</v>
+        <v>0.0161</v>
       </c>
       <c r="E114">
-        <v>0.0056</v>
+        <v>0.0005</v>
       </c>
       <c r="F114">
-        <v>0.5821</v>
+        <v>0.4771</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B115" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C115">
-        <v>0.5319</v>
+        <v>0.4579</v>
       </c>
       <c r="D115">
-        <v>0.1618</v>
+        <v>0.0354</v>
       </c>
       <c r="E115">
-        <v>0.0125</v>
+        <v>0.0046</v>
       </c>
       <c r="F115">
-        <v>0.5501</v>
+        <v>0.4668</v>
       </c>
       <c r="G115" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B116" t="s">
-        <v>123</v>
+        <v>61</v>
       </c>
       <c r="C116">
-        <v>0.5377999999999999</v>
+        <v>0.4592</v>
       </c>
       <c r="D116">
-        <v>0.0575</v>
+        <v>0.0215</v>
       </c>
       <c r="E116">
-        <v>0.0016</v>
+        <v>0.028</v>
       </c>
       <c r="F116">
-        <v>0.5443</v>
+        <v>0.4646</v>
       </c>
       <c r="G116" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="C117">
-        <v>0.5197000000000001</v>
+        <v>0.457</v>
       </c>
       <c r="D117">
-        <v>0.151</v>
+        <v>0.0169</v>
       </c>
       <c r="E117">
-        <v>0.0012</v>
+        <v>0.0013</v>
       </c>
       <c r="F117">
-        <v>0.5367</v>
+        <v>0.4612</v>
       </c>
       <c r="G117" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B118" t="s">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="C118">
-        <v>0.5201</v>
+        <v>0.4485</v>
       </c>
       <c r="D118">
-        <v>0.0624</v>
+        <v>0.0161</v>
       </c>
       <c r="E118">
-        <v>0.0002</v>
+        <v>0.005</v>
       </c>
       <c r="F118">
-        <v>0.5271</v>
+        <v>0.4525</v>
       </c>
       <c r="G118" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -7296,22 +7345,22 @@
         <v>110</v>
       </c>
       <c r="B119" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C119">
-        <v>0.502</v>
+        <v>0.5455</v>
       </c>
       <c r="D119">
-        <v>0.2004</v>
+        <v>0.1098</v>
       </c>
       <c r="E119">
-        <v>0.0105</v>
+        <v>0.0053</v>
       </c>
       <c r="F119">
-        <v>0.5246</v>
+        <v>0.5569</v>
       </c>
       <c r="G119" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -7319,19 +7368,19 @@
         <v>110</v>
       </c>
       <c r="B120" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C120">
-        <v>0.5008</v>
+        <v>0.518</v>
       </c>
       <c r="D120">
-        <v>0.1556</v>
+        <v>0.1528</v>
       </c>
       <c r="E120">
-        <v>0.0015</v>
+        <v>0.0012</v>
       </c>
       <c r="F120">
-        <v>0.5183</v>
+        <v>0.5338000000000001</v>
       </c>
       <c r="G120" t="s">
         <v>17</v>
@@ -7342,22 +7391,22 @@
         <v>110</v>
       </c>
       <c r="B121" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C121">
-        <v>0.4942</v>
+        <v>0.5159</v>
       </c>
       <c r="D121">
-        <v>0.184</v>
+        <v>0.1508</v>
       </c>
       <c r="E121">
-        <v>0.0183</v>
+        <v>0.0148</v>
       </c>
       <c r="F121">
-        <v>0.5149</v>
+        <v>0.5315</v>
       </c>
       <c r="G121" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -7365,22 +7414,22 @@
         <v>110</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C122">
-        <v>0.511</v>
+        <v>0.51</v>
       </c>
       <c r="D122">
-        <v>0.0284</v>
+        <v>0.2013</v>
       </c>
       <c r="E122">
-        <v>0.0002</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="F122">
-        <v>0.5142</v>
+        <v>0.5308</v>
       </c>
       <c r="G122" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -7388,22 +7437,22 @@
         <v>110</v>
       </c>
       <c r="B123" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C123">
-        <v>0.4969</v>
+        <v>0.509</v>
       </c>
       <c r="D123">
-        <v>0.1414</v>
+        <v>0.1812</v>
       </c>
       <c r="E123">
-        <v>0.0003</v>
+        <v>0.0192</v>
       </c>
       <c r="F123">
-        <v>0.5128</v>
+        <v>0.5278</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -7411,22 +7460,22 @@
         <v>110</v>
       </c>
       <c r="B124" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C124">
-        <v>0.4989</v>
+        <v>0.5076000000000001</v>
       </c>
       <c r="D124">
-        <v>0.0683</v>
+        <v>0.1283</v>
       </c>
       <c r="E124">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="F124">
-        <v>0.5066000000000001</v>
+        <v>0.5209</v>
       </c>
       <c r="G124" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -7434,22 +7483,22 @@
         <v>110</v>
       </c>
       <c r="B125" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C125">
-        <v>0.4942</v>
+        <v>0.5016</v>
       </c>
       <c r="D125">
-        <v>0.0711</v>
+        <v>0.1562</v>
       </c>
       <c r="E125">
-        <v>0.0003</v>
+        <v>0.0012</v>
       </c>
       <c r="F125">
-        <v>0.5022</v>
+        <v>0.5178</v>
       </c>
       <c r="G125" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -7457,22 +7506,22 @@
         <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C126">
-        <v>0.4726</v>
+        <v>0.5089</v>
       </c>
       <c r="D126">
-        <v>0.2493</v>
+        <v>0.07820000000000001</v>
       </c>
       <c r="E126">
-        <v>0.0415</v>
+        <v>0.0007</v>
       </c>
       <c r="F126">
-        <v>0.5007</v>
+        <v>0.517</v>
       </c>
       <c r="G126" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -7480,22 +7529,22 @@
         <v>110</v>
       </c>
       <c r="B127" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C127">
-        <v>0.4792</v>
+        <v>0.5058</v>
       </c>
       <c r="D127">
-        <v>0.1078</v>
+        <v>0.0572</v>
       </c>
       <c r="E127">
-        <v>0.0014</v>
+        <v>0.0017</v>
       </c>
       <c r="F127">
-        <v>0.4914</v>
+        <v>0.5117</v>
       </c>
       <c r="G127" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -7503,22 +7552,22 @@
         <v>110</v>
       </c>
       <c r="B128" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C128">
-        <v>0.4837</v>
+        <v>0.4962</v>
       </c>
       <c r="D128">
-        <v>0.0594</v>
+        <v>0.1047</v>
       </c>
       <c r="E128">
-        <v>0.0021</v>
+        <v>0.0009</v>
       </c>
       <c r="F128">
-        <v>0.4904</v>
+        <v>0.507</v>
       </c>
       <c r="G128" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -7526,22 +7575,22 @@
         <v>110</v>
       </c>
       <c r="B129" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C129">
-        <v>0.4846</v>
+        <v>0.5031</v>
       </c>
       <c r="D129">
-        <v>0.0377</v>
+        <v>0.0263</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F129">
-        <v>0.4888</v>
+        <v>0.5058</v>
       </c>
       <c r="G129" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -7549,597 +7598,758 @@
         <v>110</v>
       </c>
       <c r="B130" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C130">
-        <v>0.4577</v>
+        <v>0.4919</v>
       </c>
       <c r="D130">
-        <v>0.0788</v>
+        <v>0.0726</v>
       </c>
       <c r="E130">
-        <v>0.0008</v>
+        <v>0.0002</v>
       </c>
       <c r="F130">
-        <v>0.4666</v>
+        <v>0.4994</v>
       </c>
       <c r="G130" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B131" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="C131">
-        <v>0.6166</v>
+        <v>0.4912</v>
       </c>
       <c r="D131">
-        <v>0.0315</v>
+        <v>0.0608</v>
       </c>
       <c r="E131">
-        <v>0.0056</v>
+        <v>0.0002</v>
       </c>
       <c r="F131">
-        <v>0.6218</v>
+        <v>0.4975</v>
       </c>
       <c r="G131" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B132" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C132">
-        <v>0.5491</v>
+        <v>0.4862</v>
       </c>
       <c r="D132">
-        <v>0.1082</v>
+        <v>0.0897</v>
       </c>
       <c r="E132">
-        <v>0.001</v>
+        <v>0.0019</v>
       </c>
       <c r="F132">
-        <v>0.5669999999999999</v>
+        <v>0.4955</v>
       </c>
       <c r="G132" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C133">
-        <v>0.5438</v>
+        <v>0.4896</v>
       </c>
       <c r="D133">
-        <v>0.1277</v>
+        <v>0.0386</v>
       </c>
       <c r="E133">
-        <v>0.0036</v>
+        <v>0.0003</v>
       </c>
       <c r="F133">
-        <v>0.5649999999999999</v>
+        <v>0.4936</v>
       </c>
       <c r="G133" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C134">
-        <v>0.5532</v>
+        <v>0.4667</v>
       </c>
       <c r="D134">
-        <v>0.0481</v>
+        <v>0.2339</v>
       </c>
       <c r="E134">
-        <v>0.0076</v>
+        <v>0.0319</v>
       </c>
       <c r="F134">
-        <v>0.5612</v>
+        <v>0.4909</v>
       </c>
       <c r="G134" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B135" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="C135">
-        <v>0.5536</v>
+        <v>0.472</v>
       </c>
       <c r="D135">
-        <v>0.0419</v>
+        <v>0.06619999999999999</v>
       </c>
       <c r="E135">
-        <v>0.0012</v>
+        <v>0.0035</v>
       </c>
       <c r="F135">
-        <v>0.5605</v>
+        <v>0.4789</v>
       </c>
       <c r="G135" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" t="s">
+        <v>110</v>
+      </c>
+      <c r="B136" t="s">
         <v>124</v>
       </c>
-      <c r="B136" t="s">
-        <v>125</v>
-      </c>
       <c r="C136">
-        <v>0.5318000000000001</v>
+        <v>0.4608</v>
       </c>
       <c r="D136">
-        <v>0.1062</v>
+        <v>0.0124</v>
       </c>
       <c r="E136">
-        <v>0.0281</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="F136">
-        <v>0.5494</v>
+        <v>0.4621</v>
       </c>
       <c r="G136" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B137" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C137">
-        <v>0.536</v>
+        <v>0.4486</v>
       </c>
       <c r="D137">
-        <v>0.0658</v>
+        <v>0.0491</v>
       </c>
       <c r="E137">
-        <v>0.0247</v>
+        <v>0.0001</v>
       </c>
       <c r="F137">
-        <v>0.5469000000000001</v>
+        <v>0.4537</v>
       </c>
       <c r="G137" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B138" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="C138">
-        <v>0.4855</v>
+        <v>0.5842000000000001</v>
       </c>
       <c r="D138">
-        <v>0.282</v>
+        <v>0.0205</v>
       </c>
       <c r="E138">
-        <v>0.2748</v>
+        <v>0.0049</v>
       </c>
       <c r="F138">
-        <v>0.5322</v>
+        <v>0.5868</v>
       </c>
       <c r="G138" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B139" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="C139">
-        <v>0.5115</v>
+        <v>0.5493</v>
       </c>
       <c r="D139">
-        <v>0.0858</v>
+        <v>0.1374</v>
       </c>
       <c r="E139">
-        <v>0.0148</v>
+        <v>0.0036</v>
       </c>
       <c r="F139">
-        <v>0.5256999999999999</v>
+        <v>0.5669</v>
       </c>
       <c r="G139" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B140" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C140">
-        <v>0.4931</v>
+        <v>0.5349</v>
       </c>
       <c r="D140">
-        <v>0.1849</v>
+        <v>0.1115</v>
       </c>
       <c r="E140">
-        <v>0.2122</v>
+        <v>0.0312</v>
       </c>
       <c r="F140">
-        <v>0.5237000000000001</v>
+        <v>0.5492</v>
       </c>
       <c r="G140" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B141" t="s">
-        <v>46</v>
+        <v>127</v>
       </c>
       <c r="C141">
-        <v>0.5094</v>
+        <v>0.5364</v>
       </c>
       <c r="D141">
-        <v>0.0589</v>
+        <v>0.0994</v>
       </c>
       <c r="E141">
-        <v>0.0031</v>
+        <v>0.0013</v>
       </c>
       <c r="F141">
-        <v>0.5192</v>
+        <v>0.5492</v>
       </c>
       <c r="G141" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B142" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C142">
-        <v>0.4954</v>
+        <v>0.5286999999999999</v>
       </c>
       <c r="D142">
-        <v>0.1142</v>
+        <v>0.0408</v>
       </c>
       <c r="E142">
-        <v>0.0022</v>
+        <v>0.0076</v>
       </c>
       <c r="F142">
-        <v>0.5143</v>
+        <v>0.5339</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B143" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C143">
-        <v>0.4848</v>
+        <v>0.523</v>
       </c>
       <c r="D143">
-        <v>0.1305</v>
+        <v>0.0732</v>
       </c>
       <c r="E143">
-        <v>0.0005999999999999999</v>
+        <v>0.0034</v>
       </c>
       <c r="F143">
-        <v>0.5064</v>
+        <v>0.5324</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B144" t="s">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="C144">
-        <v>0.4972</v>
+        <v>0.5173</v>
       </c>
       <c r="D144">
-        <v>0.0173</v>
+        <v>0.0597</v>
       </c>
       <c r="E144">
-        <v>0.0003</v>
+        <v>0.0048</v>
       </c>
       <c r="F144">
-        <v>0.5001</v>
+        <v>0.525</v>
       </c>
       <c r="G144" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B145" t="s">
-        <v>89</v>
+        <v>43</v>
       </c>
       <c r="C145">
-        <v>0.4848</v>
+        <v>0.5161</v>
       </c>
       <c r="D145">
-        <v>0.0825</v>
+        <v>0.0607</v>
       </c>
       <c r="E145">
-        <v>0.0376</v>
+        <v>0.0185</v>
       </c>
       <c r="F145">
-        <v>0.4985</v>
+        <v>0.5239</v>
       </c>
       <c r="G145" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C146">
-        <v>0.4843</v>
+        <v>0.5052</v>
       </c>
       <c r="D146">
-        <v>0.07820000000000001</v>
+        <v>0.1112</v>
       </c>
       <c r="E146">
-        <v>0.0026</v>
+        <v>0.0024</v>
       </c>
       <c r="F146">
-        <v>0.4973</v>
+        <v>0.5195</v>
       </c>
       <c r="G146" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B147" t="s">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="C147">
-        <v>0.4899</v>
+        <v>0.4954</v>
       </c>
       <c r="D147">
-        <v>0.0168</v>
+        <v>0.1743</v>
       </c>
       <c r="E147">
-        <v>0.008399999999999999</v>
+        <v>0.1942</v>
       </c>
       <c r="F147">
-        <v>0.4927</v>
+        <v>0.5178</v>
       </c>
       <c r="G147" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B148" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="C148">
-        <v>0.4872</v>
+        <v>0.5003</v>
       </c>
       <c r="D148">
-        <v>0.0207</v>
+        <v>0.1288</v>
       </c>
       <c r="E148">
-        <v>0.0039</v>
+        <v>0.001</v>
       </c>
       <c r="F148">
-        <v>0.4906</v>
+        <v>0.5168</v>
       </c>
       <c r="G148" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B149" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="C149">
-        <v>0.4863</v>
+        <v>0.4808</v>
       </c>
       <c r="D149">
-        <v>0.0229</v>
+        <v>0.273</v>
       </c>
       <c r="E149">
-        <v>0.0176</v>
+        <v>0.2706</v>
       </c>
       <c r="F149">
-        <v>0.4901</v>
+        <v>0.5158</v>
       </c>
       <c r="G149" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C150">
-        <v>0.4772</v>
+        <v>0.5053</v>
       </c>
       <c r="D150">
-        <v>0.0668</v>
+        <v>0.0437</v>
       </c>
       <c r="E150">
-        <v>0.0106</v>
+        <v>0.0012</v>
       </c>
       <c r="F150">
-        <v>0.4883</v>
+        <v>0.5109</v>
       </c>
       <c r="G150" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B151" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C151">
-        <v>0.477</v>
+        <v>0.5048</v>
       </c>
       <c r="D151">
-        <v>0.0419</v>
+        <v>0.0167</v>
       </c>
       <c r="E151">
-        <v>0.0017</v>
+        <v>0.0003</v>
       </c>
       <c r="F151">
-        <v>0.4839</v>
+        <v>0.5069</v>
       </c>
       <c r="G151" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B152" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="C152">
-        <v>0.4707</v>
+        <v>0.4996</v>
       </c>
       <c r="D152">
-        <v>0.0388</v>
+        <v>0.0269</v>
       </c>
       <c r="E152">
-        <v>0.0584</v>
+        <v>0.0259</v>
       </c>
       <c r="F152">
-        <v>0.4771</v>
+        <v>0.5031</v>
       </c>
       <c r="G152" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C153">
-        <v>0.4674</v>
+        <v>0.4938</v>
       </c>
       <c r="D153">
-        <v>0.014</v>
+        <v>0.0455</v>
       </c>
       <c r="E153">
-        <v>0.0005999999999999999</v>
+        <v>0.0018</v>
       </c>
       <c r="F153">
-        <v>0.4697</v>
+        <v>0.4996</v>
       </c>
       <c r="G153" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B154" t="s">
         <v>140</v>
       </c>
       <c r="C154">
-        <v>0.4603</v>
+        <v>0.4869</v>
       </c>
       <c r="D154">
-        <v>0.0237</v>
+        <v>0.0834</v>
       </c>
       <c r="E154">
-        <v>0.0013</v>
+        <v>0.0148</v>
       </c>
       <c r="F154">
-        <v>0.4642</v>
+        <v>0.4976</v>
       </c>
       <c r="G154" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B155" t="s">
+        <v>86</v>
+      </c>
+      <c r="C155">
+        <v>0.4807</v>
+      </c>
+      <c r="D155">
+        <v>0.08989999999999999</v>
+      </c>
+      <c r="E155">
+        <v>0.0566</v>
+      </c>
+      <c r="F155">
+        <v>0.4922</v>
+      </c>
+      <c r="G155" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>125</v>
+      </c>
+      <c r="B156" t="s">
+        <v>129</v>
+      </c>
+      <c r="C156">
+        <v>0.4825</v>
+      </c>
+      <c r="D156">
+        <v>0.068</v>
+      </c>
+      <c r="E156">
+        <v>0.0122</v>
+      </c>
+      <c r="F156">
+        <v>0.4912</v>
+      </c>
+      <c r="G156" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>125</v>
+      </c>
+      <c r="B157" t="s">
         <v>139</v>
       </c>
-      <c r="C155">
-        <v>0.4297</v>
-      </c>
-      <c r="D155">
-        <v>0.1338</v>
-      </c>
-      <c r="E155">
-        <v>0.7721</v>
-      </c>
-      <c r="F155">
-        <v>0.4519</v>
-      </c>
-      <c r="G155" t="s">
-        <v>47</v>
+      <c r="C157">
+        <v>0.4838</v>
+      </c>
+      <c r="D157">
+        <v>0.0298</v>
+      </c>
+      <c r="E157">
+        <v>0.0021</v>
+      </c>
+      <c r="F157">
+        <v>0.4876</v>
+      </c>
+      <c r="G157" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>125</v>
+      </c>
+      <c r="B158" t="s">
+        <v>83</v>
+      </c>
+      <c r="C158">
+        <v>0.4788</v>
+      </c>
+      <c r="D158">
+        <v>0.0505</v>
+      </c>
+      <c r="E158">
+        <v>0.0886</v>
+      </c>
+      <c r="F158">
+        <v>0.4853</v>
+      </c>
+      <c r="G158" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>125</v>
+      </c>
+      <c r="B159" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159">
+        <v>0.4794</v>
+      </c>
+      <c r="D159">
+        <v>0.0269</v>
+      </c>
+      <c r="E159">
+        <v>0.0058</v>
+      </c>
+      <c r="F159">
+        <v>0.4829</v>
+      </c>
+      <c r="G159" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>125</v>
+      </c>
+      <c r="B160" t="s">
+        <v>41</v>
+      </c>
+      <c r="C160">
+        <v>0.4766</v>
+      </c>
+      <c r="D160">
+        <v>0.0212</v>
+      </c>
+      <c r="E160">
+        <v>0.0143</v>
+      </c>
+      <c r="F160">
+        <v>0.4793</v>
+      </c>
+      <c r="G160" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>125</v>
+      </c>
+      <c r="B161" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161">
+        <v>0.4693</v>
+      </c>
+      <c r="D161">
+        <v>0.0171</v>
+      </c>
+      <c r="E161">
+        <v>0.0009</v>
+      </c>
+      <c r="F161">
+        <v>0.4715</v>
+      </c>
+      <c r="G161" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>125</v>
+      </c>
+      <c r="B162" t="s">
+        <v>138</v>
+      </c>
+      <c r="C162">
+        <v>0.4441</v>
+      </c>
+      <c r="D162">
+        <v>0.1295</v>
+      </c>
+      <c r="E162">
+        <v>0.7789</v>
+      </c>
+      <c r="F162">
+        <v>0.4607</v>
+      </c>
+      <c r="G162" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
